--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731F32DB-BFC4-264E-8373-996B62AAE8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159091B-0625-E043-9921-D0EA15C325A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="26580" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="8740" windowWidth="26580" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -746,12 +746,6 @@
     <t>emof-simple</t>
   </si>
   <si>
-    <t>Use this, simplified, version of emof if you only want to submit measurementType (i.e. name), measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
-  </si>
-  <si>
-    <t>Use this full version of emof to report contextual data if you, in addition to measurementType (i.e. name), measurementUnit and measurementValue, also want to refer to some controlled vocabulary or system for e.g. variables, units and values etc. Otherwise, see emof-simpler below.</t>
-  </si>
-  <si>
     <t>SAMEA3724531</t>
   </si>
   <si>
@@ -788,19 +782,7 @@
     <t>marine pelagic zone [ENVO:00000208]</t>
   </si>
   <si>
-    <t>Preferrably, this value should correspond to environment (biome) in your ENA submission, when applicable. You can search for ENVO_00000428 in https://www.ebi.ac.uk/ols/index, then continue downwards in the biome subtree, until you find the most specific term that accurately describes your data.</t>
-  </si>
-  <si>
-    <t>Preferrably, this value should correspond to environment (feature) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_01000813. Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
-  </si>
-  <si>
-    <t>Preferrably, this value should correspond to environment (material) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_00010483 . Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
-  </si>
-  <si>
     <t>brackish water [ENVO:00002019]</t>
-  </si>
-  <si>
-    <t>Unique identifier for event, as provided by data contributor. Preferrably use event (sample) names that correspond to what you use in related publications.</t>
   </si>
   <si>
     <t>Anna Andersson|Björn Bengtsson</t>
@@ -817,6 +799,24 @@
   <si>
     <t>Note that, for practical reasons, we currently follow GBIF in grouping prokaryote domains Archaea and Bacteria together with e.g. eukaryote kingdoms under header 'kingdom'.</t>
   </si>
+  <si>
+    <t>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</t>
+  </si>
+  <si>
+    <t>Preferably, this value should correspond to environment (biome) in your ENA submission, when applicable. You can search for ENVO_00000428 in https://www.ebi.ac.uk/ols/index, then continue downwards in the biome subtree, until you find the most specific term that accurately describes your data.</t>
+  </si>
+  <si>
+    <t>Preferably, this value should correspond to environment (feature) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_01000813. Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
+  </si>
+  <si>
+    <t>Preferably, this value should correspond to environment (material) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_00010483 . Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
+  </si>
+  <si>
+    <t>Use this full version of emof to report contextual data if you, in addition to measurementType (i.e. name), measurementUnit and measurementValue, also want to refer to some controlled vocabulary or system for e.g. variables, units and values etc. Otherwise, see emof-simpler below. Preferably use variable names and unists listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists.</t>
+  </si>
+  <si>
+    <t>Use this, simplified, version of emof if you only want to submit measurementType (i.e. name), measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and unists listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
+  </si>
 </sst>
 </file>
 
@@ -826,11 +826,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1121,127 +1128,133 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1576,7 +1589,7 @@
         <v>211</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>214</v>
@@ -1608,7 +1621,7 @@
         <v>210</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>213</v>
@@ -1651,7 +1664,7 @@
         <v>209</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>212</v>
@@ -4988,7 +5001,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6140,7 +6153,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13348,10 +13361,10 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13476,10 +13489,10 @@
         <v>69</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -13515,13 +13528,13 @@
         <v>70</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>71</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H4" s="47" t="s">
         <v>214</v>
@@ -13860,7 +13873,7 @@
         <v>99</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -14180,7 +14193,7 @@
       </c>
       <c r="G20" s="29" t="str">
         <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferrably use event (sample) names that correspond to what you use in related publications.</v>
+        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>H2</f>
@@ -14531,19 +14544,19 @@
         <v>63</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E29" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>243</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -14576,19 +14589,19 @@
         <v>63</v>
       </c>
       <c r="D30" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="G30" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="42" t="s">
-        <v>248</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -14630,10 +14643,10 @@
         <v>136</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -14676,7 +14689,7 @@
       </c>
       <c r="G32" s="25" t="str">
         <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferrably use event (sample) names that correspond to what you use in related publications.</v>
+        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
       </c>
       <c r="H32" s="25" t="str">
         <f>H2</f>
@@ -14702,7 +14715,7 @@
       <c r="Z32" s="21"/>
       <c r="AA32" s="21"/>
     </row>
-    <row r="33" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>138</v>
       </c>
@@ -14721,8 +14734,8 @@
       <c r="F33" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>236</v>
+      <c r="G33" s="50" t="s">
+        <v>257</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="21"/>
@@ -15198,7 +15211,7 @@
       <c r="Z44" s="21"/>
       <c r="AA44" s="21"/>
     </row>
-    <row r="45" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>234</v>
       </c>
@@ -15217,11 +15230,11 @@
       <c r="F45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="34" t="s">
-        <v>235</v>
+      <c r="G45" s="51" t="s">
+        <v>258</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -15309,7 +15322,7 @@
       </c>
       <c r="G47" s="25" t="str">
         <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferrably use event (sample) names that correspond to what you use in related publications.</v>
+        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
       </c>
       <c r="H47" s="25" t="str">
         <f>H2</f>
@@ -15482,7 +15495,7 @@
         <v>189</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="21"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C159091B-0625-E043-9921-D0EA15C325A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2871-BB16-5B4F-A5D6-5EC06317E0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="8740" windowWidth="26580" windowHeight="16300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="8740" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="302">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -817,6 +817,135 @@
   <si>
     <t>Use this, simplified, version of emof if you only want to submit measurementType (i.e. name), measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and unists listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
   </si>
+  <si>
+    <t>919a2aa9d306e4cf3fa9ca02a2aa5730</t>
+  </si>
+  <si>
+    <t>TCGAGAATTTTTCACAATGGGGGAAACCCTGATGGAGCGACGCCGCGTGGAGGATGAAGGTTTTCGGATTGTAAACTCCTGTCATTAGAGAACAAGGCACATGGTTTAACTGGCCGTGTGTTGATAGTATCTGAAGAGGAAGGGACGGCTAACTCTGTGCCAGCAGCCGCGGTAATACAGAGGTCTCAAGCGTTGTTCGGATTCATTGGGCGTAAAGGGTGCGTAGGTGGCGAGGTAAGTCGGATGTGAAATCTCCAAGCTCAACTTGGAAACTGCATTCGATACTGCTTTGCTAGAGGATTGTAGAGGGCATTGGAATTCACGGTGTAGCAGTGAAATGCGTAGATATCGTGAGGAAGACCAGTGGCGAAGGCGAATGCCTGGGCAATTCCTGACACTGAGGCACGAAGGCCAGGGGAGCAAACG</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Verrucomicrobiota</t>
+  </si>
+  <si>
+    <t>Verrucomicrobiae</t>
+  </si>
+  <si>
+    <t>Chthoniobacterales</t>
+  </si>
+  <si>
+    <t>UBA6821</t>
+  </si>
+  <si>
+    <t>1ead98754d34073a4606f7ff1e94126e</t>
+  </si>
+  <si>
+    <t>TGGGGAATTTTCCGCAATGGGCGCAAGCCTGACGGAGCAACGCCGCGTGAGGGATGAAGGCCTCTGGGCTGTAAACCTCTTTTATCAAGGAAGAAGATCTGACGGTACTTGATGAATAAGCCACGGCTAATTCCGTGCCAGCAGCCGCGGTAATACGGGAGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGTCCGCAGGCGGTTTTACAAGTCTGTCGTTAAAACGTGGAGCTCAACTCCATTTCGGCGATGGAAACTGTAAGACTAGAGTGTGGTAGGGGCAGAGGGAATTCCCGGTGTAGCGGTGAAATGCGTAGATATCGGGAAGAACACCAGTGGCGAAGGCGCTCTGCTGGGCCATAACTGACGCTCATGGACGAAAGCTAGGGGAGCGAAAG</t>
+  </si>
+  <si>
+    <t>Cyanobacteria</t>
+  </si>
+  <si>
+    <t>Cyanobacteriia</t>
+  </si>
+  <si>
+    <t>PCC-6307</t>
+  </si>
+  <si>
+    <t>Cyanobiaceae</t>
+  </si>
+  <si>
+    <t>Synechococcus_D</t>
+  </si>
+  <si>
+    <t>43e088977eba5732bfa45e20b1d8cdd2</t>
+  </si>
+  <si>
+    <t>TCGAGAATTTTTCACAATGGGGGAAACCCTGATGGAGCGACGCCGCGTGGAGGATGAAGGTTTTCGGATCGTAAACTCCTGTCATTAGAGAACAAGGCACACGGTTTAACTGGCTGTGTGTTGATAGTATCTGAAGAGGAAGGGACGGCTAACTCTGTGCCAGCAGCCGCGGTAATACAGAGGTCTCAAGCGTTGTTCGGATTCATTGGGCGTAAAGGGTGCGTAGGTGGCGAGGTAAGTCGGATGTGAAATCTCCAAGCTCAACTTGGAAACTGCATTCGATACTGCTTTGCTAGAGGATTGTAGAGGGCATTGGAATTCACGGTGTAGCAGTGAAATGCGTAGATATCGTGAGGAAGACCAGTGGCGAAGGCGAATGCCTGGGCAATTCCTGACACTGAGGCACGAAGGCCAGGGGAGCAAACG</t>
+  </si>
+  <si>
+    <t>1b2c41577c16f4c672a2a861e6b89b14</t>
+  </si>
+  <si>
+    <t>TAGGGAATATTGGGCAATGGGCGAAAGCCTGACCCAGCGACGCCGCGTGAGGGATGAAGGTCTTCGGATTGTAAACCTCTTTCAGTAGGGAAGAAGCGAAAGTGACGGTACCTAAAGAAGAAGCACCGGCTAACTATGTGCCAGCAGCCGCGGTAATACATAGGGTGCAAGCGTTGTCCGGAATTATTGGGCGTAAAGAGCTCGTAGGTCGTTTGTCGCGTCGATTGTGAAAATCTGAGGCTCAACCTCAGACCTGCAGTCGATACGGGCAAACTAGAGTGTGGTAGGGGAGACTGGAATTCCTGGTGTAGCGGTGGAATGCGCAGATATCAGGAGGAACACCAATGGCGAAGGCAGGTCTCTGGGCCATAACTGACACTGAGGAGCGAAAGTGCGGGGAGCGAACA</t>
+  </si>
+  <si>
+    <t>Actinobacteriota</t>
+  </si>
+  <si>
+    <t>Actinomycetia</t>
+  </si>
+  <si>
+    <t>Nanopelagicales</t>
+  </si>
+  <si>
+    <t>Nanopelagicaceae</t>
+  </si>
+  <si>
+    <t>Nanopelagicus</t>
+  </si>
+  <si>
+    <t>40b37890b1b1fcdf0ece91f1da34c1ca</t>
+  </si>
+  <si>
+    <t>TGGGGAATTTTCCGCAATGGGCGCAAGCCTGACGGAGCAACGCCGCGTGAGGGATGAAGGCCTCTGGGCTGTAAACCTCTTTTATCAAGGAAGAAGATCTGACGGTACTTGATGAATAAGCCACGGCTAATTCCGTGCCAGCAGCCGCGGTAATACGGGAGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGTCCGCAGGCGGTCTTGAAAGTCTGTTGTTAAAGCGTGGAGCTCAACTCCATTTCAGCAATGGAAACTAGAAGACTAGAGTGTGGTAGGGGCAGAGGGAATTCCCGGTGTAGCGGTGAAATGCGTAGATATCGGGAAGAACACCAGTGGCGAAGGCGCTCTGCTGGGCCATAACTGACGCTCATGGACGAAAGCCAGGGGAGCGAAAG</t>
+  </si>
+  <si>
+    <t>UBA5018</t>
+  </si>
+  <si>
+    <t>ae71bf7c99d3583a2d8841e5911c5716</t>
+  </si>
+  <si>
+    <t>TGGGGAATATTGGGCAATGGAGGAAACTCTGACCCAGCGACGCCGCGTGCGGGATGAAGGCCTTCGGGTTGTAAACCGCTTTCAGTAGGGAAGAAGCGAAAGTGACGGTACCTACAAAAGAAGCACCGGCTAACTATGTGCCAGCAGCCGCGGTAATACATAGGGTGCAAGCGTTGTCCGGAATTATTGGGCGTAAAGAGCTCGTAGGTCGTTTGTTACGTCGGATGTGAAAACCTGAGGCTCAACCTCAGGCCTGCATTCGATACGGGCAAACTAGAGTTTGGTAGGGGAGACTGGAATTCCTGGTGTAGCGGTGGAATGCGCAGATATCAGGAGGAACACCAATGGCGAAGGCAGGTCTCTGGGCCAATACTGACACTGAGGAGCGAAAGTCTGGGGAGCGAACA</t>
+  </si>
+  <si>
+    <t>887bc7033b46d960e893caceb711700b</t>
+  </si>
+  <si>
+    <t>TGGGGAATCTTGCGCAATGGGCGAAAGCCTGACGCAGCAACGCCGCGTGCGGGAAGAAGGCTTTCGGGCTGTAAACCGCTTTCAGCAGGAACGAAAATGACGGTACCTGCAGAAGAAGGAGCGGCCAACTATGTGCCAGCAGCCGCGGTGATACATAGGCTTCAAGCGTTGTCCGGATTTATTGGGCGTAAAGAGTTCGTAGGCGGTCGAGTAAGTCGGGTGTGAAAATTCTGGGCTCAACCCAGAGACGCCACCCGATACTGCTTAACTTGAGTTCGATAGGGGAGTGGGGAATTCCTAGTGTAGCGGTGAAATGCGCAGATATTAGGAGGAACACCGGTGGCGAAGGCGCCACTCTGGATCGACACTGACGCTGAGGAACGAAAGCATGGGTAGCAAACA</t>
+  </si>
+  <si>
+    <t>Acidimicrobiia</t>
+  </si>
+  <si>
+    <t>Acidimicrobiales</t>
+  </si>
+  <si>
+    <t>Ilumatobacteraceae</t>
+  </si>
+  <si>
+    <t>BACL27</t>
+  </si>
+  <si>
+    <t>sp014190055</t>
+  </si>
+  <si>
+    <t>88b5b5240649749ca876d10823045b01</t>
+  </si>
+  <si>
+    <t>TGGGGAATCTTGCGCAATGGGCGAAAGCCTGACGCAGCAACGCCGCGTGCGGGATGAAGGCCTTCGGGCTGTAAACCGCTTTCAGCAGGAACGAAAATGACGGTACCTGCAGAAGAAGGAGCGGCCAACTACGTGCCAGCAGCCGCGGTGACACGTAGGCTCCAAGCGTTGTCCGGATTTATTGGGCGTAAAGAGCTCGTAGGCGGTTGAGTAAGTCGGGTGTGAAAACTCTGGGCTTAACCCGGAGACGCCATCCGATACTGCTCTGACTAGAGTTCAGGAGGGGAGTGGGGAATTCCTAGTGTAGCGGTGAAATGCGCAGATATTAGGAGGAACACCGGTGGCGAAGGCGCCACTCTGGACTGAAACTGACGCTGAGGAGCGAAAGCATGGGTAGCAAACA</t>
+  </si>
+  <si>
+    <t>UBA3006</t>
+  </si>
+  <si>
+    <t>95efad17b5fb6b91274a6ef3c47a098a</t>
+  </si>
+  <si>
+    <t>TGGGGAATTTTCCGCAATGGGCGCAAGCCTGACGGAGCAACGCCGCGTGAGGGATGAAGGCCTCTGGGCTGTAAACCTCTTTTATCAAGGAAGAAGATCTGACGGTACTTGATGAATAAGCCACGGCTAATTCCGTGCCAGCAGCCGCGGTAATACGGGAGTGGCAAGCGTTATCCGGAATTATTGGGCGTAAAGCGTCCGCAGGCGGTTTTACAAGTCTGTCGTTAAAACGTGGAGCTCAACTCCATTTCGGCGATGGAAACTGTAAGACTAGAGTGTGGTAGGGGCAGAGGGAATTCCCGGTGTAGCGGTGAAATGCGTAGATATCGGGAAGAACACCAGTGGCGAAGGCGCTCTGCTGGGCCATAACTGACGCTCATGGACGAAAGCCAGGGGAGCGAAAG</t>
+  </si>
+  <si>
+    <t>c366064866eaed18a54d15640272ab34</t>
+  </si>
+  <si>
+    <t>TGGGGAATATTGGGCAATGGAGGAAACTCTGACCCAGCGACGCCGCGTGCGGGATGAAGGCCTTCGGGTTGTAAACCGCTTTCAGCAGGGAAGAAGCGAAAGTGACGGTACCTGCAGAAGAAGCACCGGCTAACTATGTGCCAGCAGCCGCGGTAATACATAGGGTGCAAGCGTTGTCCGGAATTATTGGGCGTAAAGAGCTCGTAGGTGGTTCGTCACGTCGGATGTGAAACTCTGGGGCTTAACCCCAGACCTGCATTCGATACGGGCGAGCTTGAGTATGGTAGGGGAGTCTGGAATTCCTGGTGTAGCGGTGGAATGCGCAGATATCAGGAGGAACACCAATGGCGAAGGCAGGACTCTGGGCCATTACTGACACTGAGGAGCGAAAGCGTGGGGAGCGAACA</t>
+  </si>
+  <si>
+    <t>Planktophila</t>
+  </si>
 </sst>
 </file>
 
@@ -826,11 +955,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1128,133 +1264,133 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD991"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1597,6 +1733,9 @@
       <c r="D2" s="16" t="s">
         <v>215</v>
       </c>
+      <c r="E2" s="7">
+        <v>5414</v>
+      </c>
       <c r="G2" s="6">
         <v>55.185000000000002</v>
       </c>
@@ -1628,6 +1767,9 @@
       </c>
       <c r="D3" s="16" t="s">
         <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>37676</v>
       </c>
       <c r="G3" s="6">
         <v>55.433999999999997</v>
@@ -1671,6 +1813,9 @@
       </c>
       <c r="D4" s="16" t="s">
         <v>215</v>
+      </c>
+      <c r="E4" s="7">
+        <v>41973</v>
       </c>
       <c r="G4" s="6">
         <v>56.031999999999996</v>
@@ -5001,7 +5146,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6153,7 +6298,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6164,24 +6309,13 @@
   <dimension ref="A1:M982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="27" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="7" customWidth="1"/>
+    <col min="2" max="13" width="17.28515625" style="7" customWidth="1"/>
     <col min="14" max="16384" width="11.28515625" style="7"/>
   </cols>
   <sheetData>
@@ -9468,7 +9602,7 @@
   <dimension ref="A1:E973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12478,24 +12612,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AE472"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="7" customWidth="1"/>
-    <col min="3" max="15" width="12.140625" style="7" customWidth="1"/>
-    <col min="16" max="21" width="9.5703125" style="7" customWidth="1"/>
-    <col min="22" max="23" width="8.5703125" style="7" customWidth="1"/>
-    <col min="24" max="31" width="11.28515625" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="11.28515625" style="7"/>
+    <col min="3" max="13" width="12.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -12541,369 +12674,372 @@
       <c r="O1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-    </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-    </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-    </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-    </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-    </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-    </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-    </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-    </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-    </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="6">
+        <v>2235</v>
+      </c>
+      <c r="N2" s="6">
+        <v>16165</v>
+      </c>
+      <c r="O2" s="6">
+        <v>12855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1033</v>
+      </c>
+      <c r="N3" s="6">
+        <v>6836</v>
+      </c>
+      <c r="O3" s="6">
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="6">
+        <v>795</v>
+      </c>
+      <c r="N4" s="6">
+        <v>4941</v>
+      </c>
+      <c r="O4" s="6">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="6">
+        <v>134</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1187</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="M6" s="6">
+        <v>572</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2827</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="6">
+        <v>47</v>
+      </c>
+      <c r="N7" s="6">
+        <v>464</v>
+      </c>
+      <c r="O7" s="6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" s="6">
+        <v>40</v>
+      </c>
+      <c r="N8" s="6">
+        <v>494</v>
+      </c>
+      <c r="O8" s="6">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M9" s="6">
+        <v>99</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1641</v>
+      </c>
+      <c r="O9" s="6">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M10" s="6">
+        <v>312</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1685</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" s="6">
+        <v>147</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1436</v>
+      </c>
+      <c r="O11" s="6">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13362,9 +13498,9 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14734,7 +14870,7 @@
       <c r="F33" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="51" t="s">
         <v>257</v>
       </c>
       <c r="H33" s="42"/>
@@ -15230,7 +15366,7 @@
       <c r="F45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="50" t="s">
         <v>258</v>
       </c>
       <c r="H45" s="44" t="s">

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E2871-BB16-5B4F-A5D6-5EC06317E0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6929917-FC5A-AC4F-8141-D6004457F359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="8740" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="asv-table" sheetId="4" r:id="rId5"/>
     <sheet name="guide" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -228,12 +231,6 @@
     <t>[non-dwc-field]</t>
   </si>
   <si>
-    <t>Unique identifier for event, as provided by data contributor.</t>
-  </si>
-  <si>
-    <t>16S10</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t xml:space="preserve">	A sampleSizeValue must have a corresponding sampleSizeUnit.</t>
   </si>
   <si>
-    <t>Total number of reads counted per sample.</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
   </si>
   <si>
     <t>'https://opencontext.org/subjects/768A875F-E205-4D0B-DE55-BAB7598D0FD1'</t>
-  </si>
-  <si>
-    <t>Use e.g. for Station ID:Name in Stationsregistret</t>
   </si>
   <si>
     <t>00187042:Bottenviken</t>
@@ -328,9 +319,6 @@
   </si>
   <si>
     <t xml:space="preserve">	José E. Crespo. Oliver P. Pearson | Anita K. Pearson (where the value in recordNumber OPP 7101 corresponds to the collector number for the specimen in the field catalog of Oliver P. Pearson).</t>
-  </si>
-  <si>
-    <t>Use for sample collector(s)</t>
   </si>
   <si>
     <t>The name of the country or major administrative unit in which the Location occurs.</t>
@@ -812,12 +800,6 @@
     <t>Preferably, this value should correspond to environment (material) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_00010483 . Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
   </si>
   <si>
-    <t>Use this full version of emof to report contextual data if you, in addition to measurementType (i.e. name), measurementUnit and measurementValue, also want to refer to some controlled vocabulary or system for e.g. variables, units and values etc. Otherwise, see emof-simpler below. Preferably use variable names and unists listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists.</t>
-  </si>
-  <si>
-    <t>Use this, simplified, version of emof if you only want to submit measurementType (i.e. name), measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and unists listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
-  </si>
-  <si>
     <t>919a2aa9d306e4cf3fa9ca02a2aa5730</t>
   </si>
   <si>
@@ -946,6 +928,21 @@
   <si>
     <t>Planktophila</t>
   </si>
+  <si>
+    <t>Use for sample collector(s).</t>
+  </si>
+  <si>
+    <t>Use e.g. for Station ID:Name in Stationsregistret.</t>
+  </si>
+  <si>
+    <t>Total number of (target gene) reads counted per sample.</t>
+  </si>
+  <si>
+    <t>Use this full version of emof to report contextual data if you, in addition to measurementType, measurementUnit and measurementValue, also want to refer to some controlled vocabulary or system for e.g. variables, units and values etc. Otherwise, you can also see emof-simpler below. Preferably use variable names and units listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists.</t>
+  </si>
+  <si>
+    <t>Use this, simplified, version of emof if you only want to submit measurementType, measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and units listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
+  </si>
 </sst>
 </file>
 
@@ -955,18 +952,11 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1264,133 +1254,133 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1722,16 +1712,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E2" s="7">
         <v>5414</v>
@@ -1743,10 +1733,10 @@
         <v>13.791</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q2" s="6">
         <v>3</v>
@@ -1757,16 +1747,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>215</v>
       </c>
       <c r="E3" s="7">
         <v>37676</v>
@@ -1778,10 +1768,10 @@
         <v>14.813000000000001</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="6">
         <v>3</v>
@@ -1803,16 +1793,16 @@
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E4" s="7">
         <v>41973</v>
@@ -1824,10 +1814,10 @@
         <v>16.649999999999999</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="6">
         <v>3</v>
@@ -5146,7 +5136,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5216,107 +5206,107 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6298,7 +6288,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6359,10 +6349,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -6370,7 +6360,7 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -6381,38 +6371,38 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D3" s="6">
         <v>7.23</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D4" s="6">
         <v>6.97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6">
@@ -6420,21 +6410,21 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -6445,16 +6435,16 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D7" s="6">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -9616,15 +9606,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="6">
         <v>7.25</v>
@@ -9635,7 +9625,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B3" s="6">
         <v>7.23</v>
@@ -9646,7 +9636,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B4" s="6">
         <v>6.97</v>
@@ -12666,39 +12656,39 @@
         <v>52</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M2" s="6">
         <v>2235</v>
@@ -12712,28 +12702,28 @@
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M3" s="6">
         <v>1033</v>
@@ -12747,22 +12737,22 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M4" s="6">
         <v>795</v>
@@ -12776,28 +12766,28 @@
     </row>
     <row r="5" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M5" s="6">
         <v>134</v>
@@ -12811,28 +12801,28 @@
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M6" s="6">
         <v>572</v>
@@ -12846,28 +12836,28 @@
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M7" s="6">
         <v>47</v>
@@ -12881,31 +12871,31 @@
     </row>
     <row r="8" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M8" s="6">
         <v>40</v>
@@ -12919,28 +12909,28 @@
     </row>
     <row r="9" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="M9" s="6">
         <v>99</v>
@@ -12954,25 +12944,25 @@
     </row>
     <row r="10" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M10" s="6">
         <v>312</v>
@@ -12986,28 +12976,28 @@
     </row>
     <row r="11" spans="1:15" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M11" s="6">
         <v>147</v>
@@ -13497,10 +13487,10 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13517,7 +13507,7 @@
     <col min="28" max="16384" width="11.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>54</v>
       </c>
@@ -13582,10 +13572,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -13609,7 +13599,7 @@
     </row>
     <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>1</v>
@@ -13618,17 +13608,17 @@
         <v>63</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
@@ -13652,7 +13642,7 @@
     </row>
     <row r="4" spans="1:27" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>2</v>
@@ -13661,19 +13651,19 @@
         <v>63</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -13697,7 +13687,7 @@
     </row>
     <row r="5" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>3</v>
@@ -13706,17 +13696,17 @@
         <v>63</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="48" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -13740,7 +13730,7 @@
     </row>
     <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>4</v>
@@ -13749,14 +13739,14 @@
         <v>63</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="29" t="s">
-        <v>78</v>
+      <c r="G6" s="50" t="s">
+        <v>297</v>
       </c>
       <c r="H6" s="42">
         <v>80698</v>
@@ -13783,26 +13773,26 @@
     </row>
     <row r="7" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>296</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -13826,7 +13816,7 @@
     </row>
     <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>6</v>
@@ -13835,11 +13825,11 @@
         <v>63</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="42"/>
@@ -13865,7 +13855,7 @@
     </row>
     <row r="9" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>7</v>
@@ -13874,11 +13864,11 @@
         <v>63</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="42"/>
@@ -13904,7 +13894,7 @@
     </row>
     <row r="10" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>8</v>
@@ -13913,19 +13903,19 @@
         <v>63</v>
       </c>
       <c r="D10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>92</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -13949,20 +13939,20 @@
     </row>
     <row r="11" spans="1:27" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="42"/>
@@ -13988,28 +13978,28 @@
     </row>
     <row r="12" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="F12" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>295</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -14033,22 +14023,22 @@
     </row>
     <row r="13" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="42"/>
@@ -14074,22 +14064,22 @@
     </row>
     <row r="14" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="42"/>
@@ -14115,20 +14105,20 @@
     </row>
     <row r="15" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="42"/>
@@ -14154,20 +14144,20 @@
     </row>
     <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="42"/>
@@ -14193,20 +14183,20 @@
     </row>
     <row r="17" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="42"/>
@@ -14232,20 +14222,20 @@
     </row>
     <row r="18" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="42"/>
@@ -14269,22 +14259,22 @@
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
     </row>
-    <row r="19" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="33" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="44"/>
@@ -14310,7 +14300,7 @@
     </row>
     <row r="20" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>0</v>
@@ -14327,13 +14317,11 @@
       <c r="F20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="29" t="str">
-        <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
-      </c>
-      <c r="H20" s="29" t="str">
-        <f>H2</f>
-        <v>16S_1</v>
+      <c r="G20" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -14357,22 +14345,22 @@
     </row>
     <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="42"/>
@@ -14398,7 +14386,7 @@
     </row>
     <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>19</v>
@@ -14407,11 +14395,11 @@
         <v>63</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="30" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="42"/>
@@ -14437,7 +14425,7 @@
     </row>
     <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>20</v>
@@ -14446,11 +14434,11 @@
         <v>63</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="42"/>
@@ -14476,7 +14464,7 @@
     </row>
     <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>21</v>
@@ -14485,11 +14473,11 @@
         <v>63</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="42"/>
@@ -14515,7 +14503,7 @@
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>22</v>
@@ -14524,11 +14512,11 @@
         <v>63</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="42"/>
@@ -14554,7 +14542,7 @@
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>23</v>
@@ -14563,11 +14551,11 @@
         <v>63</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="28" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="42"/>
@@ -14593,7 +14581,7 @@
     </row>
     <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>24</v>
@@ -14602,13 +14590,13 @@
         <v>63</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="29"/>
       <c r="H27" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -14632,7 +14620,7 @@
     </row>
     <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>25</v>
@@ -14641,13 +14629,13 @@
         <v>63</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
       <c r="H28" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -14671,7 +14659,7 @@
     </row>
     <row r="29" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>26</v>
@@ -14680,19 +14668,19 @@
         <v>63</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
@@ -14716,7 +14704,7 @@
     </row>
     <row r="30" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>27</v>
@@ -14725,19 +14713,19 @@
         <v>63</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -14761,7 +14749,7 @@
     </row>
     <row r="31" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>28</v>
@@ -14770,19 +14758,19 @@
         <v>63</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -14806,7 +14794,7 @@
     </row>
     <row r="32" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>0</v>
@@ -14823,13 +14811,11 @@
       <c r="F32" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="25" t="str">
-        <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
-      </c>
-      <c r="H32" s="25" t="str">
-        <f>H2</f>
-        <v>16S_1</v>
+      <c r="G32" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -14853,7 +14839,7 @@
     </row>
     <row r="33" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>30</v>
@@ -14862,16 +14848,16 @@
         <v>63</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>257</v>
+        <v>136</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>298</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="21"/>
@@ -14896,22 +14882,22 @@
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="42"/>
@@ -14937,7 +14923,7 @@
     </row>
     <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>32</v>
@@ -14946,11 +14932,11 @@
         <v>63</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="42"/>
@@ -14976,22 +14962,22 @@
     </row>
     <row r="36" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="42"/>
@@ -15017,22 +15003,22 @@
     </row>
     <row r="37" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="42"/>
@@ -15058,22 +15044,22 @@
     </row>
     <row r="38" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="42"/>
@@ -15099,22 +15085,22 @@
     </row>
     <row r="39" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="42"/>
@@ -15140,22 +15126,22 @@
     </row>
     <row r="40" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="42"/>
@@ -15181,22 +15167,22 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="42"/>
@@ -15222,22 +15208,22 @@
     </row>
     <row r="42" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="42"/>
@@ -15263,22 +15249,22 @@
     </row>
     <row r="43" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="44"/>
@@ -15302,9 +15288,9 @@
       <c r="Z43" s="21"/>
       <c r="AA43" s="21"/>
     </row>
-    <row r="44" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>0</v>
@@ -15322,10 +15308,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
@@ -15349,10 +15335,10 @@
     </row>
     <row r="45" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>64</v>
@@ -15366,11 +15352,11 @@
       <c r="F45" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="50" t="s">
-        <v>258</v>
+      <c r="G45" s="51" t="s">
+        <v>299</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
@@ -15394,10 +15380,10 @@
     </row>
     <row r="46" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>63</v>
@@ -15412,10 +15398,10 @@
         <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
@@ -15439,10 +15425,10 @@
     </row>
     <row r="47" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>63</v>
@@ -15456,13 +15442,11 @@
       <c r="F47" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="25" t="str">
-        <f>G2</f>
-        <v>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</v>
-      </c>
-      <c r="H47" s="25" t="str">
-        <f>H2</f>
-        <v>16S_1</v>
+      <c r="G47" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>206</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
@@ -15486,25 +15470,25 @@
     </row>
     <row r="48" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H48" s="42">
         <v>486</v>
@@ -15531,7 +15515,7 @@
     </row>
     <row r="49" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>42</v>
@@ -15540,15 +15524,15 @@
         <v>63</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
@@ -15572,26 +15556,26 @@
     </row>
     <row r="50" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="28" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
@@ -15615,7 +15599,7 @@
     </row>
     <row r="51" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>44</v>
@@ -15624,14 +15608,14 @@
         <v>63</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E51" s="28"/>
       <c r="F51" s="28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="21"/>
@@ -15656,20 +15640,20 @@
     </row>
     <row r="52" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B52" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G52" s="29"/>
       <c r="H52" s="42"/>
@@ -15695,20 +15679,20 @@
     </row>
     <row r="53" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B53" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E53" s="28"/>
       <c r="F53" s="28" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G53" s="29"/>
       <c r="H53" s="42"/>
@@ -15734,20 +15718,20 @@
     </row>
     <row r="54" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>195</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="28" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="42"/>
@@ -15773,20 +15757,20 @@
     </row>
     <row r="55" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="42"/>
@@ -15812,20 +15796,20 @@
     </row>
     <row r="56" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B56" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="28" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="42"/>
@@ -15851,20 +15835,20 @@
     </row>
     <row r="57" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E57" s="28"/>
       <c r="F57" s="28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="42"/>
@@ -15890,23 +15874,23 @@
     </row>
     <row r="58" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H58" s="42"/>
       <c r="I58" s="21"/>
@@ -15929,15 +15913,15 @@
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
     </row>
-    <row r="59" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B59" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>64</v>
@@ -15949,7 +15933,7 @@
         <v>64</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H59" s="44" t="s">
         <v>53</v>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7071E71B-0FC3-9A4F-BC7E-45C33B26721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1352FDDC-9FA7-454C-AFA7-ABE502BC7244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="8740" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="8720" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="302">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>'UV light trap', 'mist net', 'bottom trawl', 'ad hoc observation', 'point count', 'Penguins from space: faecal stains reveal the location of emperor penguin colonies, https://doi.org/10.1111/j.1466-8238.2009.00467.x', 'Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.', 'http://www.bsc-eoc.org/download/Owl.pdf'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling methods should include sequence processing, e.g. denoising. </t>
   </si>
   <si>
     <t>https://doi.org/10.3389/fmicb.2016.00679</t>
@@ -943,6 +940,16 @@
   <si>
     <t>Use this, simplified, version of emof if you only want to submit measurementType, measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and units listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
   </si>
+  <si>
+    <t>DNA extraction, PCR, sequencing: https://doi.org/10.3389/fmicb.2016.00679
+Sequence processing/denoising: https://nf-co.re/ampliseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We suggest that you describe your molecular lab and bioinformatics methods here, and document the method used for taking the material sample under 'samplingProtocol in sheet 'event'. If you refer to a published paper or protocol, however, this may include both types of methods, of course. </t>
+  </si>
+  <si>
+    <t>We suggest that you describe your method for taking the material sample here, and document subsequent molecular lab and bioinformatics steps under 'sop' in sheet 'mixs'. If you refer to a published paper or protocol, however, this may include both types of methods, of course.</t>
+  </si>
 </sst>
 </file>
 
@@ -952,11 +959,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1254,133 +1268,139 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1712,16 +1732,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="E2" s="6">
         <v>5414</v>
@@ -1733,10 +1753,10 @@
         <v>13.791</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
@@ -1747,16 +1767,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="6">
         <v>37676</v>
@@ -1768,10 +1788,10 @@
         <v>14.813000000000001</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q3" s="5">
         <v>3</v>
@@ -1793,16 +1813,16 @@
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" s="6">
         <v>41973</v>
@@ -1814,10 +1834,10 @@
         <v>16.649999999999999</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="5">
         <v>3</v>
@@ -5136,7 +5156,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5206,107 +5226,107 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>215</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6288,7 +6308,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6349,10 +6369,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -6360,7 +6380,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6371,38 +6391,38 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="5">
         <v>7.23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D4" s="5">
         <v>6.97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -6410,21 +6430,21 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="5">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -6435,16 +6455,16 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="5">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -9606,15 +9626,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5">
         <v>7.25</v>
@@ -9625,7 +9645,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="5">
         <v>7.23</v>
@@ -9636,7 +9656,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5">
         <v>6.97</v>
@@ -12656,39 +12676,39 @@
         <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M2" s="5">
         <v>2235</v>
@@ -12702,28 +12722,28 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="M3" s="5">
         <v>1033</v>
@@ -12737,22 +12757,22 @@
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="D4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="M4" s="5">
         <v>795</v>
@@ -12766,28 +12786,28 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="M5" s="5">
         <v>134</v>
@@ -12801,28 +12821,28 @@
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="M6" s="5">
         <v>572</v>
@@ -12836,28 +12856,28 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="M7" s="5">
         <v>47</v>
@@ -12871,31 +12891,31 @@
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="M8" s="5">
         <v>40</v>
@@ -12909,28 +12929,28 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="M9" s="5">
         <v>99</v>
@@ -12944,25 +12964,25 @@
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>291</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="M10" s="5">
         <v>312</v>
@@ -12976,28 +12996,28 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="M11" s="5">
         <v>147</v>
@@ -13488,9 +13508,9 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13572,10 +13592,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -13615,10 +13635,10 @@
         <v>67</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -13654,16 +13674,16 @@
         <v>68</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -13702,11 +13722,11 @@
       <c r="F5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" s="47" t="s">
         <v>72</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
@@ -13739,14 +13759,14 @@
         <v>63</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H6" s="41">
         <v>80698</v>
@@ -13779,20 +13799,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>78</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -13825,11 +13845,11 @@
         <v>63</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="41"/>
@@ -13864,11 +13884,11 @@
         <v>63</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="41"/>
@@ -13903,19 +13923,19 @@
         <v>63</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -13945,14 +13965,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="41"/>
@@ -13984,22 +14004,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>94</v>
-      </c>
       <c r="G12" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -14029,16 +14049,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="41"/>
@@ -14070,16 +14090,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="29" t="s">
         <v>99</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>100</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="41"/>
@@ -14111,14 +14131,14 @@
         <v>13</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="41"/>
@@ -14150,14 +14170,14 @@
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="41"/>
@@ -14189,14 +14209,14 @@
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="41"/>
@@ -14228,14 +14248,14 @@
         <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="41"/>
@@ -14267,14 +14287,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="43"/>
@@ -14300,7 +14320,7 @@
     </row>
     <row r="20" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>0</v>
@@ -14318,10 +14338,10 @@
         <v>64</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -14343,27 +14363,31 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
     </row>
-    <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="F21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="41"/>
+      <c r="G21" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>299</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -14386,7 +14410,7 @@
     </row>
     <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>19</v>
@@ -14395,11 +14419,11 @@
         <v>63</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="41"/>
@@ -14425,7 +14449,7 @@
     </row>
     <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>20</v>
@@ -14434,11 +14458,11 @@
         <v>63</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="41"/>
@@ -14464,7 +14488,7 @@
     </row>
     <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>21</v>
@@ -14473,11 +14497,11 @@
         <v>63</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="41"/>
@@ -14503,7 +14527,7 @@
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>22</v>
@@ -14512,11 +14536,11 @@
         <v>63</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41"/>
@@ -14542,7 +14566,7 @@
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>23</v>
@@ -14551,11 +14575,11 @@
         <v>63</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="41"/>
@@ -14581,7 +14605,7 @@
     </row>
     <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>24</v>
@@ -14590,13 +14614,13 @@
         <v>63</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
       <c r="H27" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -14620,7 +14644,7 @@
     </row>
     <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>25</v>
@@ -14629,13 +14653,13 @@
         <v>63</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -14659,7 +14683,7 @@
     </row>
     <row r="29" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>26</v>
@@ -14668,19 +14692,19 @@
         <v>63</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="G29" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="41" t="s">
         <v>235</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>236</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -14704,7 +14728,7 @@
     </row>
     <row r="30" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>27</v>
@@ -14713,19 +14737,19 @@
         <v>63</v>
       </c>
       <c r="D30" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="F30" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="G30" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H30" s="41" t="s">
         <v>240</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>241</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -14749,7 +14773,7 @@
     </row>
     <row r="31" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>28</v>
@@ -14758,19 +14782,19 @@
         <v>63</v>
       </c>
       <c r="D31" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="F31" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>131</v>
-      </c>
       <c r="G31" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -14794,7 +14818,7 @@
     </row>
     <row r="32" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>0</v>
@@ -14812,10 +14836,10 @@
         <v>64</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -14839,7 +14863,7 @@
     </row>
     <row r="33" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>30</v>
@@ -14848,16 +14872,16 @@
         <v>63</v>
       </c>
       <c r="D33" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="F33" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="G33" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="20"/>
@@ -14882,22 +14906,22 @@
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>138</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>139</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="41"/>
@@ -14923,7 +14947,7 @@
     </row>
     <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>32</v>
@@ -14932,11 +14956,11 @@
         <v>63</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="41"/>
@@ -14962,22 +14986,22 @@
     </row>
     <row r="36" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>143</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>144</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="41"/>
@@ -15003,22 +15027,22 @@
     </row>
     <row r="37" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="E37" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>148</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="41"/>
@@ -15044,22 +15068,22 @@
     </row>
     <row r="38" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="41"/>
@@ -15085,22 +15109,22 @@
     </row>
     <row r="39" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="F39" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>154</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="41"/>
@@ -15126,22 +15150,22 @@
     </row>
     <row r="40" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="F40" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>157</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="41"/>
@@ -15167,22 +15191,22 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="27" t="s">
+      <c r="F41" s="27" t="s">
         <v>159</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>160</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="41"/>
@@ -15208,22 +15232,22 @@
     </row>
     <row r="42" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="F42" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="41"/>
@@ -15249,22 +15273,22 @@
     </row>
     <row r="43" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="F43" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>166</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="43"/>
@@ -15290,7 +15314,7 @@
     </row>
     <row r="44" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>0</v>
@@ -15308,10 +15332,10 @@
         <v>64</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -15335,10 +15359,10 @@
     </row>
     <row r="45" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>64</v>
@@ -15353,10 +15377,10 @@
         <v>64</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -15380,10 +15404,10 @@
     </row>
     <row r="46" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>63</v>
@@ -15398,10 +15422,10 @@
         <v>64</v>
       </c>
       <c r="G46" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46" s="40" t="s">
         <v>169</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>170</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -15425,10 +15449,10 @@
     </row>
     <row r="47" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>63</v>
@@ -15443,10 +15467,10 @@
         <v>64</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -15470,25 +15494,25 @@
     </row>
     <row r="48" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D48" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="F48" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="G48" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="H48" s="41">
         <v>486</v>
@@ -15515,7 +15539,7 @@
     </row>
     <row r="49" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>42</v>
@@ -15524,15 +15548,15 @@
         <v>63</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>180</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -15556,26 +15580,26 @@
     </row>
     <row r="50" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G50" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H50" s="41" t="s">
         <v>202</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>203</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -15599,7 +15623,7 @@
     </row>
     <row r="51" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>44</v>
@@ -15608,14 +15632,14 @@
         <v>63</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H51" s="41"/>
       <c r="I51" s="20"/>
@@ -15640,20 +15664,20 @@
     </row>
     <row r="52" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>186</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="41"/>
@@ -15679,20 +15703,20 @@
     </row>
     <row r="53" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="41"/>
@@ -15718,20 +15742,20 @@
     </row>
     <row r="54" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="41"/>
@@ -15757,20 +15781,20 @@
     </row>
     <row r="55" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="41"/>
@@ -15796,20 +15820,20 @@
     </row>
     <row r="56" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="41"/>
@@ -15835,20 +15859,20 @@
     </row>
     <row r="57" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="41"/>
@@ -15874,23 +15898,23 @@
     </row>
     <row r="58" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="20"/>
@@ -15915,13 +15939,13 @@
     </row>
     <row r="59" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>64</v>
@@ -15933,7 +15957,7 @@
         <v>64</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H59" s="43" t="s">
         <v>53</v>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1352FDDC-9FA7-454C-AFA7-ABE502BC7244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BE70B-9676-4B49-B4A9-308A0E5F02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="8720" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -945,10 +945,10 @@
 Sequence processing/denoising: https://nf-co.re/ampliseq</t>
   </si>
   <si>
-    <t xml:space="preserve">We suggest that you describe your molecular lab and bioinformatics methods here, and document the method used for taking the material sample under 'samplingProtocol in sheet 'event'. If you refer to a published paper or protocol, however, this may include both types of methods, of course. </t>
+    <t>We suggest that you describe your method for taking the material sample here, and document subsequent molecular lab and bioinformatics steps under 'sop' in sheet 'mixs'. If you refer to a published paper or protocol, however, this may include all methods, of course.</t>
   </si>
   <si>
-    <t>We suggest that you describe your method for taking the material sample here, and document subsequent molecular lab and bioinformatics steps under 'sop' in sheet 'mixs'. If you refer to a published paper or protocol, however, this may include both types of methods, of course.</t>
+    <t>We suggest that you describe your molecular lab and bioinformatics methods here, and document the method used for taking the material sample under 'samplingProtocol' in sheet 'event'. If you refer to a published paper or protocol, however, this may include all methods, of course.</t>
   </si>
 </sst>
 </file>
@@ -959,11 +959,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1268,140 +1275,140 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5156,7 +5163,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6308,7 +6315,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13508,7 +13515,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
@@ -13722,8 +13729,8 @@
       <c r="F5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="52" t="s">
-        <v>301</v>
+      <c r="G5" s="53" t="s">
+        <v>300</v>
       </c>
       <c r="H5" s="47" t="s">
         <v>72</v>
@@ -14382,10 +14389,10 @@
       <c r="F21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H21" s="53" t="s">
+      <c r="G21" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="H21" s="52" t="s">
         <v>299</v>
       </c>
       <c r="I21" s="20"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0BE70B-9676-4B49-B4A9-308A0E5F02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C2FA5C-E98C-9C46-AA60-0C56BFF18DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="8720" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="302">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>'UV light trap', 'mist net', 'bottom trawl', 'ad hoc observation', 'point count', 'Penguins from space: faecal stains reveal the location of emperor penguin colonies, https://doi.org/10.1111/j.1466-8238.2009.00467.x', 'Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.', 'http://www.bsc-eoc.org/download/Owl.pdf'</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3389/fmicb.2016.00679</t>
   </si>
   <si>
     <t xml:space="preserve">A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample in a sampling event. </t>
@@ -941,14 +938,16 @@
     <t>Use this, simplified, version of emof if you only want to submit measurementType, measurementUnit and measurementValue for some contextual variable, i.e. no additional metadata regarding these. Preferably use variable names and units listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists. Add a single field for every measured variable, and a single row for every event with measured variables(s).</t>
   </si>
   <si>
-    <t>DNA extraction, PCR, sequencing: https://doi.org/10.3389/fmicb.2016.00679
-Sequence processing/denoising: https://nf-co.re/ampliseq</t>
+    <t>Include your method for taking the material sample, as well as subsequent molecular lab and bioinformatics steps, e.g. sequencing and denoising procedures.</t>
   </si>
   <si>
-    <t>We suggest that you describe your method for taking the material sample here, and document subsequent molecular lab and bioinformatics steps under 'sop' in sheet 'mixs'. If you refer to a published paper or protocol, however, this may include all methods, of course.</t>
+    <t>seq_meth</t>
   </si>
   <si>
-    <t>We suggest that you describe your molecular lab and bioinformatics methods here, and document the method used for taking the material sample under 'samplingProtocol' in sheet 'event'. If you refer to a published paper or protocol, however, this may include all methods, of course.</t>
+    <t>Illumina HiSeq 1500'</t>
+  </si>
+  <si>
+    <t>Sequencing method used</t>
   </si>
 </sst>
 </file>
@@ -959,18 +958,11 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1275,139 +1267,148 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1739,16 +1740,16 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="E2" s="6">
         <v>5414</v>
@@ -1760,10 +1761,10 @@
         <v>13.791</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
@@ -1774,16 +1775,16 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3" s="6">
         <v>37676</v>
@@ -1795,10 +1796,10 @@
         <v>14.813000000000001</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q3" s="5">
         <v>3</v>
@@ -1820,16 +1821,16 @@
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="6">
         <v>41973</v>
@@ -1841,10 +1842,10 @@
         <v>16.649999999999999</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="5">
         <v>3</v>
@@ -5163,7 +5164,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5233,107 +5234,107 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6315,7 +6316,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6376,10 +6377,10 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -6387,7 +6388,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6398,38 +6399,38 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="5">
         <v>7.23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="5">
         <v>6.97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -6437,21 +6438,21 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="5">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -6462,16 +6463,16 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="5">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -9633,15 +9634,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="5">
         <v>7.25</v>
@@ -9652,7 +9653,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="5">
         <v>7.23</v>
@@ -9663,7 +9664,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5">
         <v>6.97</v>
@@ -12683,39 +12684,39 @@
         <v>52</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M2" s="5">
         <v>2235</v>
@@ -12729,28 +12730,28 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>264</v>
       </c>
       <c r="M3" s="5">
         <v>1033</v>
@@ -12764,22 +12765,22 @@
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="D4" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="M4" s="5">
         <v>795</v>
@@ -12793,28 +12794,28 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="M5" s="5">
         <v>134</v>
@@ -12828,28 +12829,28 @@
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="M6" s="5">
         <v>572</v>
@@ -12863,28 +12864,28 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="M7" s="5">
         <v>47</v>
@@ -12898,31 +12899,31 @@
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="M8" s="5">
         <v>40</v>
@@ -12936,28 +12937,28 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="M9" s="5">
         <v>99</v>
@@ -12971,25 +12972,25 @@
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="M10" s="5">
         <v>312</v>
@@ -13003,28 +13004,28 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="M11" s="5">
         <v>147</v>
@@ -13512,12 +13513,12 @@
   <sheetPr>
     <tabColor rgb="FFD6E3BC"/>
   </sheetPr>
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13599,10 +13600,10 @@
         <v>64</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
@@ -13642,10 +13643,10 @@
         <v>67</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
@@ -13681,16 +13682,16 @@
         <v>68</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -13729,12 +13730,10 @@
       <c r="F5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="47" t="s">
-        <v>72</v>
-      </c>
+      <c r="G5" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="47"/>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
@@ -13766,14 +13765,14 @@
         <v>63</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" s="41">
         <v>80698</v>
@@ -13806,20 +13805,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>78</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -13852,11 +13851,11 @@
         <v>63</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="41"/>
@@ -13891,11 +13890,11 @@
         <v>63</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="41"/>
@@ -13930,19 +13929,19 @@
         <v>63</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="H10" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>87</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -13972,14 +13971,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="41"/>
@@ -14011,22 +14010,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>93</v>
-      </c>
       <c r="G12" s="49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -14056,16 +14055,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="29" t="s">
         <v>95</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>96</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="41"/>
@@ -14097,16 +14096,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="F14" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="41"/>
@@ -14138,14 +14137,14 @@
         <v>13</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="41"/>
@@ -14177,14 +14176,14 @@
         <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="41"/>
@@ -14216,14 +14215,14 @@
         <v>15</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="41"/>
@@ -14255,14 +14254,14 @@
         <v>16</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="41"/>
@@ -14294,14 +14293,14 @@
         <v>17</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="33"/>
       <c r="H19" s="43"/>
@@ -14327,7 +14326,7 @@
     </row>
     <row r="20" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>0</v>
@@ -14345,10 +14344,10 @@
         <v>64</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
@@ -14370,31 +14369,27 @@
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
     </row>
-    <row r="21" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="F21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>299</v>
-      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -14417,7 +14412,7 @@
     </row>
     <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>19</v>
@@ -14426,11 +14421,11 @@
         <v>63</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="41"/>
@@ -14456,7 +14451,7 @@
     </row>
     <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>20</v>
@@ -14465,11 +14460,11 @@
         <v>63</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="41"/>
@@ -14495,7 +14490,7 @@
     </row>
     <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>21</v>
@@ -14504,11 +14499,11 @@
         <v>63</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="41"/>
@@ -14533,21 +14528,21 @@
       <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C25" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>120</v>
+      <c r="D25" s="55" t="s">
+        <v>301</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="27" t="s">
-        <v>121</v>
+      <c r="F25" s="56" t="s">
+        <v>300</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41"/>
@@ -14573,20 +14568,20 @@
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="41"/>
@@ -14610,25 +14605,25 @@
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
     </row>
-    <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="41" t="s">
-        <v>125</v>
-      </c>
+      <c r="H27" s="41"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
@@ -14651,22 +14646,22 @@
     </row>
     <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -14688,30 +14683,24 @@
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
     </row>
-    <row r="29" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>248</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="41" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -14735,28 +14724,28 @@
     </row>
     <row r="30" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>239</v>
+        <v>232</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -14778,30 +14767,30 @@
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
     </row>
-    <row r="31" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="31" t="s">
+    <row r="31" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>241</v>
+      <c r="D31" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -14823,30 +14812,30 @@
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
     </row>
-    <row r="32" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>205</v>
+    <row r="32" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>240</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -14868,29 +14857,31 @@
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
     </row>
-    <row r="33" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>297</v>
-      </c>
-      <c r="H33" s="41"/>
+    <row r="33" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -14911,26 +14902,28 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
     </row>
-    <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>136</v>
-      </c>
       <c r="E34" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>296</v>
+      </c>
       <c r="H34" s="41"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -14952,22 +14945,24 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
     </row>
-    <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="F35" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="41"/>
@@ -14991,24 +14986,22 @@
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
     </row>
-    <row r="36" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E36" s="27"/>
       <c r="F36" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="41"/>
@@ -15032,24 +15025,24 @@
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
     </row>
-    <row r="37" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="41"/>
@@ -15073,24 +15066,24 @@
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
     </row>
-    <row r="38" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="41"/>
@@ -15114,24 +15107,24 @@
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
     </row>
-    <row r="39" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="41"/>
@@ -15155,24 +15148,24 @@
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
     </row>
-    <row r="40" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="41"/>
@@ -15196,24 +15189,24 @@
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
     </row>
-    <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="41"/>
@@ -15237,24 +15230,24 @@
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
     </row>
-    <row r="42" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="41"/>
@@ -15278,27 +15271,27 @@
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
     </row>
-    <row r="43" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="43"/>
+    <row r="43" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="41"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -15319,31 +15312,27 @@
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
     </row>
-    <row r="44" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>205</v>
-      </c>
+    <row r="44" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="33"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -15364,30 +15353,30 @@
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
     </row>
-    <row r="45" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="31" t="s">
+    <row r="45" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F45" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>245</v>
+      <c r="G45" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -15409,30 +15398,30 @@
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
     </row>
-    <row r="46" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="35" t="s">
+    <row r="46" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="D46" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="E46" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>169</v>
+      <c r="F46" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>244</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -15454,30 +15443,30 @@
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
     </row>
-    <row r="47" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
-        <v>170</v>
+    <row r="47" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="35" t="s">
         <v>64</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -15499,30 +15488,30 @@
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
     </row>
-    <row r="48" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="41">
-        <v>486</v>
+      <c r="D48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -15544,26 +15533,30 @@
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
     </row>
-    <row r="49" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="G49" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="H49" s="41">
+        <v>486</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -15585,28 +15578,26 @@
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
     </row>
-    <row r="50" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E50" s="27"/>
-      <c r="F50" s="27" t="s">
-        <v>181</v>
-      </c>
+      <c r="F50" s="27"/>
       <c r="G50" s="28" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -15628,27 +15619,29 @@
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
     </row>
-    <row r="51" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="H51" s="41"/>
+        <v>180</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
@@ -15669,24 +15662,26 @@
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
     </row>
-    <row r="52" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G52" s="28"/>
+        <v>182</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="H52" s="41"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -15710,20 +15705,20 @@
     </row>
     <row r="53" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>184</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>187</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="41"/>
@@ -15749,20 +15744,20 @@
     </row>
     <row r="54" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="41"/>
@@ -15788,20 +15783,20 @@
     </row>
     <row r="55" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="41"/>
@@ -15827,20 +15822,20 @@
     </row>
     <row r="56" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="41"/>
@@ -15866,20 +15861,20 @@
     </row>
     <row r="57" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="41"/>
@@ -15903,26 +15898,24 @@
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
     </row>
-    <row r="58" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G58" s="28"/>
       <c r="H58" s="41"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -15944,31 +15937,27 @@
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
     </row>
-    <row r="59" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>53</v>
-      </c>
+    <row r="59" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A59" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="41"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
       <c r="K59" s="20"/>
@@ -15989,34 +15978,50 @@
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
-      <c r="Z60" s="15"/>
-      <c r="AA60" s="15"/>
+    <row r="60" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G60" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
@@ -43336,6 +43341,35 @@
       <c r="Z1002" s="15"/>
       <c r="AA1002" s="15"/>
     </row>
+    <row r="1003" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1003" s="15"/>
+      <c r="B1003" s="15"/>
+      <c r="C1003" s="15"/>
+      <c r="D1003" s="15"/>
+      <c r="E1003" s="15"/>
+      <c r="F1003" s="15"/>
+      <c r="G1003" s="15"/>
+      <c r="H1003" s="44"/>
+      <c r="I1003" s="15"/>
+      <c r="J1003" s="15"/>
+      <c r="K1003" s="15"/>
+      <c r="L1003" s="15"/>
+      <c r="M1003" s="15"/>
+      <c r="N1003" s="15"/>
+      <c r="O1003" s="15"/>
+      <c r="P1003" s="15"/>
+      <c r="Q1003" s="15"/>
+      <c r="R1003" s="15"/>
+      <c r="S1003" s="15"/>
+      <c r="T1003" s="15"/>
+      <c r="U1003" s="15"/>
+      <c r="V1003" s="15"/>
+      <c r="W1003" s="15"/>
+      <c r="X1003" s="15"/>
+      <c r="Y1003" s="15"/>
+      <c r="Z1003" s="15"/>
+      <c r="AA1003" s="15"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="[ needs">
@@ -43352,9 +43386,6 @@
       <formula>NOT(ISERROR(SEARCH(("[none"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" xr:uid="{D8864EDD-96F5-E04C-A9F9-BD9394ADB81C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C2FA5C-E98C-9C46-AA60-0C56BFF18DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50E4DD-D0DB-9149-86C0-7B8CADA1780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="305">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -944,10 +944,19 @@
     <t>seq_meth</t>
   </si>
   <si>
-    <t>Illumina HiSeq 1500'</t>
+    <t>Sequencing method used</t>
   </si>
   <si>
-    <t>Sequencing method used</t>
+    <t>denoising_appr</t>
+  </si>
+  <si>
+    <t>Approach for denoising reads into Amplicon Sequence Variants (ASVs).</t>
+  </si>
+  <si>
+    <t>DADA2</t>
+  </si>
+  <si>
+    <t>'Illumina HiSeq 1500'</t>
   </si>
 </sst>
 </file>
@@ -958,11 +967,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1267,146 +1283,155 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5164,7 +5189,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6316,7 +6341,7 @@
     <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13513,12 +13538,12 @@
   <sheetPr>
     <tabColor rgb="FFD6E3BC"/>
   </sheetPr>
-  <dimension ref="A1:AA1003"/>
+  <dimension ref="A1:AA1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14538,11 +14563,11 @@
         <v>63</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="56" t="s">
-        <v>300</v>
+      <c r="F25" s="59" t="s">
+        <v>304</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41"/>
@@ -14722,30 +14747,30 @@
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
     </row>
-    <row r="30" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>26</v>
+      <c r="B30" s="56" t="s">
+        <v>301</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>234</v>
+      <c r="D30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="58" t="s">
+        <v>303</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -14772,25 +14797,25 @@
         <v>110</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>233</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="20"/>
@@ -14812,30 +14837,30 @@
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
     </row>
-    <row r="32" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="H32" s="43" t="s">
-        <v>240</v>
+      <c r="D32" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -14857,30 +14882,30 @@
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
     </row>
-    <row r="33" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>204</v>
+    <row r="33" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>240</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -14902,29 +14927,31 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
     </row>
-    <row r="34" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="41"/>
+    <row r="34" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -14945,26 +14972,28 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
     </row>
-    <row r="35" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>296</v>
+      </c>
       <c r="H35" s="41"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -14986,22 +15015,24 @@
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
     </row>
-    <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="27"/>
+        <v>135</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="F36" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="41"/>
@@ -15025,24 +15056,22 @@
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
     </row>
-    <row r="37" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>141</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E37" s="27"/>
       <c r="F37" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="41"/>
@@ -15066,24 +15095,24 @@
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
     </row>
-    <row r="38" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="41"/>
@@ -15107,24 +15136,24 @@
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
     </row>
-    <row r="39" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="41"/>
@@ -15148,24 +15177,24 @@
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
     </row>
-    <row r="40" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="41"/>
@@ -15189,24 +15218,24 @@
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
     </row>
-    <row r="41" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="41"/>
@@ -15230,24 +15259,24 @@
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
     </row>
-    <row r="42" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="41"/>
@@ -15271,24 +15300,24 @@
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
     </row>
-    <row r="43" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G43" s="28"/>
       <c r="H43" s="41"/>
@@ -15312,27 +15341,27 @@
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
     </row>
-    <row r="44" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A44" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
+      <c r="B44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="28"/>
+      <c r="H44" s="41"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -15353,31 +15382,27 @@
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
     </row>
-    <row r="45" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>204</v>
-      </c>
+    <row r="45" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
@@ -15398,30 +15423,30 @@
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
     </row>
-    <row r="46" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="31" t="s">
+    <row r="46" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="F46" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" s="43" t="s">
-        <v>244</v>
+      <c r="G46" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -15443,30 +15468,30 @@
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
     </row>
-    <row r="47" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="35" t="s">
+    <row r="47" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="D47" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="E47" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>168</v>
+      <c r="F47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>244</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -15488,30 +15513,30 @@
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
     </row>
-    <row r="48" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
-        <v>169</v>
+    <row r="48" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="35" t="s">
         <v>64</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -15533,30 +15558,30 @@
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
     </row>
-    <row r="49" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="41">
-        <v>486</v>
+      <c r="D49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>204</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -15578,26 +15603,30 @@
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
     </row>
-    <row r="50" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A50" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+        <v>172</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="G50" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="H50" s="41">
+        <v>486</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -15619,28 +15648,26 @@
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
     </row>
-    <row r="51" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A51" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E51" s="27"/>
-      <c r="F51" s="27" t="s">
-        <v>180</v>
-      </c>
+      <c r="F51" s="27"/>
       <c r="G51" s="28" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -15662,27 +15689,29 @@
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
     </row>
-    <row r="52" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="H52" s="41"/>
+        <v>180</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
@@ -15703,24 +15732,26 @@
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
     </row>
-    <row r="53" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>183</v>
+        <v>63</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="28"/>
+        <v>182</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>245</v>
+      </c>
       <c r="H53" s="41"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -15747,17 +15778,17 @@
         <v>169</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E54" s="27"/>
       <c r="F54" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="41"/>
@@ -15786,17 +15817,17 @@
         <v>169</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="41"/>
@@ -15825,17 +15856,17 @@
         <v>169</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="41"/>
@@ -15864,17 +15895,17 @@
         <v>169</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="41"/>
@@ -15903,17 +15934,17 @@
         <v>169</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E58" s="27"/>
       <c r="F58" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="41"/>
@@ -15937,26 +15968,24 @@
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
     </row>
-    <row r="59" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G59" s="28"/>
       <c r="H59" s="41"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -15978,31 +16007,27 @@
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
     </row>
-    <row r="60" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="60" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="31" t="s">
+      <c r="B60" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>53</v>
-      </c>
+      <c r="D60" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" s="41"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
@@ -16023,34 +16048,50 @@
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="15"/>
-      <c r="W61" s="15"/>
-      <c r="X61" s="15"/>
-      <c r="Y61" s="15"/>
-      <c r="Z61" s="15"/>
-      <c r="AA61" s="15"/>
+    <row r="61" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
@@ -43370,6 +43411,35 @@
       <c r="Z1003" s="15"/>
       <c r="AA1003" s="15"/>
     </row>
+    <row r="1004" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1004" s="15"/>
+      <c r="B1004" s="15"/>
+      <c r="C1004" s="15"/>
+      <c r="D1004" s="15"/>
+      <c r="E1004" s="15"/>
+      <c r="F1004" s="15"/>
+      <c r="G1004" s="15"/>
+      <c r="H1004" s="44"/>
+      <c r="I1004" s="15"/>
+      <c r="J1004" s="15"/>
+      <c r="K1004" s="15"/>
+      <c r="L1004" s="15"/>
+      <c r="M1004" s="15"/>
+      <c r="N1004" s="15"/>
+      <c r="O1004" s="15"/>
+      <c r="P1004" s="15"/>
+      <c r="Q1004" s="15"/>
+      <c r="R1004" s="15"/>
+      <c r="S1004" s="15"/>
+      <c r="T1004" s="15"/>
+      <c r="U1004" s="15"/>
+      <c r="V1004" s="15"/>
+      <c r="W1004" s="15"/>
+      <c r="X1004" s="15"/>
+      <c r="Y1004" s="15"/>
+      <c r="Z1004" s="15"/>
+      <c r="AA1004" s="15"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="[ needs">

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C891F6B-25FB-C44A-AAC3-C69A3691B114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA3F2F-DBE6-9B46-8AD4-A6936F4EDDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -704,9 +704,6 @@
     <t>temperature (°C)</t>
   </si>
   <si>
-    <t>emof-simple (A simplified version of emof, used by ASV portal only)</t>
-  </si>
-  <si>
     <t>[measurementType] ([measurementUnit])</t>
   </si>
   <si>
@@ -961,6 +958,9 @@
   <si>
     <t>Illumina MiSeq</t>
   </si>
+  <si>
+    <t>emof-simple (a simplified version of emof, used by ASV portal only)</t>
+  </si>
 </sst>
 </file>
 
@@ -970,11 +970,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1293,160 +1300,163 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1779,7 +1789,7 @@
         <v>199</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>202</v>
@@ -1814,7 +1824,7 @@
         <v>198</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>201</v>
@@ -1860,7 +1870,7 @@
         <v>197</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>200</v>
@@ -5200,7 +5210,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5210,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5247,7 +5257,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>22</v>
@@ -5262,7 +5272,7 @@
         <v>25</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>26</v>
@@ -5288,7 +5298,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>207</v>
@@ -5303,7 +5313,7 @@
         <v>123</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>211</v>
@@ -5329,7 +5339,7 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>207</v>
@@ -5344,7 +5354,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>211</v>
@@ -5370,7 +5380,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>207</v>
@@ -5385,7 +5395,7 @@
         <v>123</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>211</v>
@@ -6371,7 +6381,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -12750,28 +12760,28 @@
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M2" s="5">
         <v>2235</v>
@@ -12785,28 +12795,28 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="M3" s="5">
         <v>1033</v>
@@ -12820,22 +12830,22 @@
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="D4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="M4" s="5">
         <v>795</v>
@@ -12849,28 +12859,28 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="M5" s="5">
         <v>134</v>
@@ -12884,28 +12894,28 @@
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="M6" s="5">
         <v>572</v>
@@ -12919,28 +12929,28 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="M7" s="5">
         <v>47</v>
@@ -12954,31 +12964,31 @@
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="M8" s="5">
         <v>40</v>
@@ -12992,28 +13002,28 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="M9" s="5">
         <v>99</v>
@@ -13027,25 +13037,25 @@
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="M10" s="5">
         <v>312</v>
@@ -13059,28 +13069,28 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="M11" s="5">
         <v>147</v>
@@ -13570,8 +13580,8 @@
   </sheetPr>
   <dimension ref="A1:AA1004"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
@@ -13637,7 +13647,7 @@
     </row>
     <row r="2" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
@@ -13655,7 +13665,7 @@
         <v>63</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>199</v>
@@ -13698,10 +13708,10 @@
         <v>66</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -13737,13 +13747,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>68</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>202</v>
@@ -13786,7 +13796,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="19"/>
@@ -13827,7 +13837,7 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H6" s="36">
         <v>80698</v>
@@ -13870,7 +13880,7 @@
         <v>75</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>76</v>
@@ -14077,10 +14087,10 @@
         <v>91</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -14381,7 +14391,7 @@
     </row>
     <row r="20" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>0</v>
@@ -14399,7 +14409,7 @@
         <v>63</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>199</v>
@@ -14426,7 +14436,7 @@
     </row>
     <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>18</v>
@@ -14467,7 +14477,7 @@
     </row>
     <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>19</v>
@@ -14506,7 +14516,7 @@
     </row>
     <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>20</v>
@@ -14545,7 +14555,7 @@
     </row>
     <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>21</v>
@@ -14584,20 +14594,20 @@
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C25" s="48" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="36"/>
@@ -14623,7 +14633,7 @@
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>22</v>
@@ -14662,7 +14672,7 @@
     </row>
     <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>23</v>
@@ -14701,7 +14711,7 @@
     </row>
     <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>24</v>
@@ -14740,7 +14750,7 @@
     </row>
     <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>25</v>
@@ -14779,10 +14789,10 @@
     </row>
     <row r="30" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>62</v>
@@ -14797,10 +14807,10 @@
         <v>63</v>
       </c>
       <c r="G30" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="52" t="s">
         <v>297</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>298</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -14824,7 +14834,7 @@
     </row>
     <row r="31" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>26</v>
@@ -14833,19 +14843,19 @@
         <v>62</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E31" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="G31" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>228</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>229</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -14869,7 +14879,7 @@
     </row>
     <row r="32" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>27</v>
@@ -14878,19 +14888,19 @@
         <v>62</v>
       </c>
       <c r="D32" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="F32" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="G32" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="36" t="s">
         <v>233</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>234</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -14914,7 +14924,7 @@
     </row>
     <row r="33" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>28</v>
@@ -14932,10 +14942,10 @@
         <v>126</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
@@ -14959,7 +14969,7 @@
     </row>
     <row r="34" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>0</v>
@@ -14977,7 +14987,7 @@
         <v>63</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>199</v>
@@ -15022,7 +15032,7 @@
         <v>130</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="19"/>
@@ -15454,8 +15464,8 @@
       <c r="AA45" s="19"/>
     </row>
     <row r="46" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" s="54" t="s">
-        <v>220</v>
+      <c r="A46" s="61" t="s">
+        <v>305</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>0</v>
@@ -15473,7 +15483,7 @@
         <v>63</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>199</v>
@@ -15500,10 +15510,10 @@
     </row>
     <row r="47" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>63</v>
@@ -15518,10 +15528,10 @@
         <v>63</v>
       </c>
       <c r="G47" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
@@ -15545,7 +15555,7 @@
     </row>
     <row r="48" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>161</v>
@@ -15608,7 +15618,7 @@
         <v>63</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>199</v>
@@ -15780,7 +15790,7 @@
         <v>177</v>
       </c>
       <c r="G53" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" s="36"/>
       <c r="I53" s="19"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA3F2F-DBE6-9B46-8AD4-A6936F4EDDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC011D0-9A19-0C49-AB1E-FFBA13D112B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="9760" windowWidth="38000" windowHeight="14600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="302">
   <si>
     <t>event_id_alias</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>samplingProtocol</t>
-  </si>
-  <si>
-    <t>sampleSizeValue</t>
   </si>
   <si>
     <t>locationID</t>
@@ -247,12 +244,6 @@
   </si>
   <si>
     <t>'UV light trap', 'mist net', 'bottom trawl', 'ad hoc observation', 'point count', 'Penguins from space: faecal stains reveal the location of emperor penguin colonies, https://doi.org/10.1111/j.1466-8238.2009.00467.x', 'Takats et al. 2001. Guidelines for Nocturnal Owl Monitoring in North America. Beaverhill Bird Observatory and Bird Studies Canada, Edmonton, Alberta. 32 pp.', 'http://www.bsc-eoc.org/download/Owl.pdf'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A numeric value for a measurement of the size (time duration, length, area, or volume) of a sample in a sampling event. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	A sampleSizeValue must have a corresponding sampleSizeUnit.</t>
   </si>
   <si>
     <t>Optional</t>
@@ -909,9 +900,6 @@
   </si>
   <si>
     <t>Use e.g. for Station ID:Name in Stationsregistret.</t>
-  </si>
-  <si>
-    <t>Total number of (target gene) reads counted per sample.</t>
   </si>
   <si>
     <t>Use this full version of emof to report contextual data if you, in addition to measurementType, measurementUnit and measurementValue, also want to refer to some controlled vocabulary or system for e.g. variables, units and values etc. Otherwise, you can also see emof-simpler below. Preferably use variable names and units listed in a relevant GCS Checklist, see https://www.ebi.ac.uk/ena/browser/checklists.</t>
@@ -1701,29 +1689,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD991"/>
+  <dimension ref="A1:AC991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="17" style="6" customWidth="1"/>
-    <col min="4" max="8" width="14.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="6" customWidth="1"/>
-    <col min="11" max="14" width="14.140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="19" style="6" customWidth="1"/>
-    <col min="19" max="26" width="11.28515625" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="11.28515625" style="6"/>
+    <col min="4" max="7" width="14.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="6" customWidth="1"/>
+    <col min="10" max="13" width="14.140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19" style="6" customWidth="1"/>
+    <col min="18" max="25" width="11.28515625" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="11.28515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1775,84 +1763,76 @@
       <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5414</v>
+        <v>200</v>
+      </c>
+      <c r="F2" s="5">
+        <v>55.185000000000002</v>
       </c>
       <c r="G2" s="5">
-        <v>55.185000000000002</v>
-      </c>
-      <c r="H2" s="5">
         <v>13.791</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>213</v>
+      <c r="H2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3</v>
       </c>
       <c r="Q2" s="5">
         <v>3</v>
       </c>
-      <c r="R2" s="5">
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>55.433999999999997</v>
+      </c>
+      <c r="G3" s="5">
+        <v>14.813000000000001</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="6">
-        <v>37676</v>
-      </c>
-      <c r="G3" s="5">
-        <v>55.433999999999997</v>
-      </c>
-      <c r="H3" s="5">
-        <v>14.813000000000001</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="Q3" s="5">
         <v>3</v>
       </c>
-      <c r="R3" s="5">
-        <v>3</v>
-      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1863,42 +1843,39 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-    </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:29" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="6">
-        <v>41973</v>
+      <c r="F4" s="5">
+        <v>56.031999999999996</v>
       </c>
       <c r="G4" s="5">
-        <v>56.031999999999996</v>
-      </c>
-      <c r="H4" s="5">
         <v>16.649999999999999</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>212</v>
+      <c r="H4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
       </c>
       <c r="Q4" s="5">
         <v>3</v>
       </c>
-      <c r="R4" s="5">
-        <v>3</v>
-      </c>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1909,9 +1886,9 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-    </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -1922,9 +1899,9 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-    </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -1935,9 +1912,9 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-    </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:29" ht="16" x14ac:dyDescent="0.2">
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1948,9 +1925,9 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1961,9 +1938,9 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -1974,407 +1951,385 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="10"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="10"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="10"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="10"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="10"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="14"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="14"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="10"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="14"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="10"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="14"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="14"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="10"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="14"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="14"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="14"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="10"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="14"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="10"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="14"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="10"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="14"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="7"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,7 +5162,7 @@
       <c r="C991" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U9">
     <sortCondition ref="A3:A9"/>
   </sortState>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -5245,166 +5200,166 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="I2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="I3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6407,45 +6362,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5">
@@ -6453,7 +6408,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6464,38 +6419,38 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" s="5">
         <v>7.23</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" s="5">
         <v>6.97</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -6503,21 +6458,21 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D6" s="5">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -6528,16 +6483,16 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="5">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -9699,15 +9654,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B2" s="5">
         <v>7.25</v>
@@ -9718,7 +9673,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="5">
         <v>7.23</v>
@@ -9729,7 +9684,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B4" s="5">
         <v>6.97</v>
@@ -12713,75 +12668,75 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M2" s="5">
         <v>2235</v>
@@ -12795,28 +12750,28 @@
     </row>
     <row r="3" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="M3" s="5">
         <v>1033</v>
@@ -12830,22 +12785,22 @@
     </row>
     <row r="4" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="M4" s="5">
         <v>795</v>
@@ -12859,28 +12814,28 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="M5" s="5">
         <v>134</v>
@@ -12894,28 +12849,28 @@
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="I6" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M6" s="5">
         <v>572</v>
@@ -12929,28 +12884,28 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="M7" s="5">
         <v>47</v>
@@ -12964,31 +12919,31 @@
     </row>
     <row r="8" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="M8" s="5">
         <v>40</v>
@@ -13002,28 +12957,28 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M9" s="5">
         <v>99</v>
@@ -13037,25 +12992,25 @@
     </row>
     <row r="10" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="M10" s="5">
         <v>312</v>
@@ -13069,28 +13024,28 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M11" s="5">
         <v>147</v>
@@ -13578,12 +13533,12 @@
   <sheetPr>
     <tabColor rgb="FFD6E3BC"/>
   </sheetPr>
-  <dimension ref="A1:AA1004"/>
+  <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13602,28 +13557,28 @@
   <sheetData>
     <row r="1" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="H1" s="34" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>61</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
@@ -13647,28 +13602,28 @@
     </row>
     <row r="2" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="E2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
@@ -13692,26 +13647,26 @@
     </row>
     <row r="3" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
@@ -13735,28 +13690,28 @@
     </row>
     <row r="4" spans="1:27" ht="306" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -13780,23 +13735,23 @@
     </row>
     <row r="5" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="19"/>
@@ -13819,28 +13774,28 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
     </row>
-    <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="24"/>
       <c r="G6" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="36">
-        <v>80698</v>
+        <v>285</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -13862,15 +13817,15 @@
       <c r="Z6" s="19"/>
       <c r="AA6" s="19"/>
     </row>
-    <row r="7" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>74</v>
@@ -13879,12 +13834,8 @@
       <c r="F7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>76</v>
-      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -13905,22 +13856,22 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="36"/>
@@ -13944,25 +13895,31 @@
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
     </row>
-    <row r="9" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
@@ -13983,31 +13940,25 @@
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
     </row>
-    <row r="10" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="153" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>82</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="36" t="s">
         <v>85</v>
       </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
@@ -14028,25 +13979,31 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
-    <row r="11" spans="1:27" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>232</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
@@ -14067,15 +14024,15 @@
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
     </row>
-    <row r="12" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>89</v>
@@ -14083,15 +14040,11 @@
       <c r="E12" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>235</v>
-      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -14112,15 +14065,15 @@
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
     </row>
-    <row r="13" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>92</v>
@@ -14153,24 +14106,22 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
     </row>
-    <row r="14" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="G14" s="25"/>
       <c r="H14" s="36"/>
@@ -14194,22 +14145,22 @@
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
     </row>
-    <row r="15" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="36"/>
@@ -14235,20 +14186,20 @@
     </row>
     <row r="16" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D16" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>101</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="36"/>
@@ -14272,22 +14223,22 @@
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
     </row>
-    <row r="17" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="36"/>
@@ -14311,25 +14262,25 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
     </row>
-    <row r="18" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="36"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -14350,25 +14301,31 @@
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
     </row>
-    <row r="19" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="38"/>
+    <row r="19" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>196</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -14389,31 +14346,27 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
     </row>
-    <row r="20" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="54" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>199</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -14434,24 +14387,22 @@
       <c r="Z20" s="19"/>
       <c r="AA20" s="19"/>
     </row>
-    <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>110</v>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26" t="s">
+        <v>201</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="36"/>
@@ -14475,22 +14426,22 @@
       <c r="Z21" s="19"/>
       <c r="AA21" s="19"/>
     </row>
-    <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" s="24"/>
-      <c r="F22" s="26" t="s">
-        <v>204</v>
+      <c r="F22" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="36"/>
@@ -14514,22 +14465,22 @@
       <c r="Z22" s="19"/>
       <c r="AA22" s="19"/>
     </row>
-    <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="36"/>
@@ -14553,22 +14504,22 @@
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
     </row>
-    <row r="24" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>114</v>
+        <v>295</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>290</v>
       </c>
       <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
-        <v>115</v>
+      <c r="F24" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="36"/>
@@ -14594,20 +14545,20 @@
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="49" t="s">
-        <v>294</v>
+        <v>295</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="E25" s="24"/>
-      <c r="F25" s="53" t="s">
-        <v>298</v>
+      <c r="F25" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="36"/>
@@ -14633,20 +14584,20 @@
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="25"/>
       <c r="H26" s="36"/>
@@ -14670,25 +14621,25 @@
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
     </row>
-    <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="36"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -14711,22 +14662,22 @@
     </row>
     <row r="28" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
       <c r="H28" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
@@ -14750,22 +14701,28 @@
     </row>
     <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>25</v>
+        <v>295</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>291</v>
       </c>
       <c r="C29" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="36" t="s">
-        <v>123</v>
+      <c r="E29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>293</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -14787,30 +14744,30 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="50" t="s">
         <v>295</v>
       </c>
+      <c r="B30" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>297</v>
+        <v>61</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>225</v>
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
@@ -14834,28 +14791,28 @@
     </row>
     <row r="31" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>227</v>
-      </c>
       <c r="G31" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -14877,30 +14834,30 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
     </row>
-    <row r="32" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="24" t="s">
+      <c r="C32" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="38" t="s">
         <v>231</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>233</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
@@ -14922,30 +14879,30 @@
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
     </row>
-    <row r="33" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>299</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="27" t="s">
+    <row r="33" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>234</v>
+      <c r="D33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
@@ -14967,31 +14924,29 @@
       <c r="Z33" s="19"/>
       <c r="AA33" s="19"/>
     </row>
-    <row r="34" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="54" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>199</v>
-      </c>
+    <row r="34" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A34" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="36"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -15012,15 +14967,15 @@
       <c r="Z34" s="19"/>
       <c r="AA34" s="19"/>
     </row>
-    <row r="35" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>128</v>
@@ -15031,9 +14986,7 @@
       <c r="F35" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="44" t="s">
-        <v>290</v>
-      </c>
+      <c r="G35" s="25"/>
       <c r="H35" s="36"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
@@ -15055,24 +15008,22 @@
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
     </row>
-    <row r="36" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="24" t="s">
         <v>132</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="36"/>
@@ -15096,20 +15047,22 @@
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
     </row>
-    <row r="37" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D37" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
         <v>135</v>
       </c>
@@ -15135,24 +15088,24 @@
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
     </row>
-    <row r="38" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="36"/>
@@ -15176,15 +15129,15 @@
       <c r="Z38" s="19"/>
       <c r="AA38" s="19"/>
     </row>
-    <row r="39" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>140</v>
@@ -15217,15 +15170,15 @@
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
     </row>
-    <row r="40" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>143</v>
@@ -15258,15 +15211,15 @@
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
     </row>
-    <row r="41" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>146</v>
@@ -15299,15 +15252,15 @@
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
     </row>
-    <row r="42" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>149</v>
@@ -15340,15 +15293,15 @@
       <c r="Z42" s="19"/>
       <c r="AA42" s="19"/>
     </row>
-    <row r="43" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>152</v>
@@ -15381,27 +15334,27 @@
       <c r="Z43" s="19"/>
       <c r="AA43" s="19"/>
     </row>
-    <row r="44" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A44" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B44" s="23" t="s">
+    <row r="44" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="24" t="s">
+      <c r="C44" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
       <c r="K44" s="19"/>
@@ -15422,27 +15375,31 @@
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
     </row>
-    <row r="45" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="38"/>
+    <row r="45" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A45" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>196</v>
+      </c>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
@@ -15463,30 +15420,30 @@
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
     </row>
-    <row r="46" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>199</v>
+    <row r="46" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="H46" s="38" t="s">
+        <v>235</v>
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -15508,30 +15465,30 @@
       <c r="Z46" s="19"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>238</v>
+    <row r="47" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
@@ -15554,29 +15511,29 @@
       <c r="AA47" s="19"/>
     </row>
     <row r="48" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A48" s="54" t="s">
-        <v>303</v>
+      <c r="A48" s="58" t="s">
+        <v>161</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>63</v>
+      <c r="E48" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
@@ -15598,30 +15555,30 @@
       <c r="Z48" s="19"/>
       <c r="AA48" s="19"/>
     </row>
-    <row r="49" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="E49" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="H49" s="35" t="s">
-        <v>199</v>
+      <c r="F49" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="36">
+        <v>486</v>
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
@@ -15643,30 +15600,26 @@
       <c r="Z49" s="19"/>
       <c r="AA49" s="19"/>
     </row>
-    <row r="50" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="H50" s="36" t="s">
         <v>170</v>
-      </c>
-      <c r="H50" s="36">
-        <v>486</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
@@ -15688,26 +15641,28 @@
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
     </row>
-    <row r="51" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>171</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="F51" s="24" t="s">
+        <v>172</v>
+      </c>
       <c r="G51" s="25" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
@@ -15729,29 +15684,27 @@
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
     </row>
-    <row r="52" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>196</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="36"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -15772,15 +15725,15 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
     </row>
-    <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>176</v>
@@ -15789,9 +15742,7 @@
       <c r="F53" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="G53" s="43" t="s">
-        <v>239</v>
-      </c>
+      <c r="G53" s="25"/>
       <c r="H53" s="36"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
@@ -15815,20 +15766,20 @@
     </row>
     <row r="54" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="36"/>
@@ -15854,20 +15805,20 @@
     </row>
     <row r="55" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="36"/>
@@ -15893,20 +15844,20 @@
     </row>
     <row r="56" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="36"/>
@@ -15932,20 +15883,20 @@
     </row>
     <row r="57" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="36"/>
@@ -15971,20 +15922,20 @@
     </row>
     <row r="58" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="36"/>
@@ -16008,24 +15959,26 @@
       <c r="Z58" s="19"/>
       <c r="AA58" s="19"/>
     </row>
-    <row r="59" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="58" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="G59" s="25"/>
       <c r="H59" s="36"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
@@ -16047,27 +16000,31 @@
       <c r="Z59" s="19"/>
       <c r="AA59" s="19"/>
     </row>
-    <row r="60" spans="1:27" ht="68" x14ac:dyDescent="0.2">
-      <c r="A60" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" s="23" t="s">
+    <row r="60" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="24" t="s">
+      <c r="C60" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H60" s="36"/>
+      <c r="H60" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
@@ -16088,50 +16045,34 @@
       <c r="Z60" s="19"/>
       <c r="AA60" s="19"/>
     </row>
-    <row r="61" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
-      <c r="T61" s="19"/>
-      <c r="U61" s="19"/>
-      <c r="V61" s="19"/>
-      <c r="W61" s="19"/>
-      <c r="X61" s="19"/>
-      <c r="Y61" s="19"/>
-      <c r="Z61" s="19"/>
-      <c r="AA61" s="19"/>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A61" s="60"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="60"/>
@@ -43451,35 +43392,6 @@
       <c r="Z1003" s="15"/>
       <c r="AA1003" s="15"/>
     </row>
-    <row r="1004" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1004" s="60"/>
-      <c r="B1004" s="15"/>
-      <c r="C1004" s="15"/>
-      <c r="D1004" s="15"/>
-      <c r="E1004" s="15"/>
-      <c r="F1004" s="15"/>
-      <c r="G1004" s="15"/>
-      <c r="H1004" s="39"/>
-      <c r="I1004" s="15"/>
-      <c r="J1004" s="15"/>
-      <c r="K1004" s="15"/>
-      <c r="L1004" s="15"/>
-      <c r="M1004" s="15"/>
-      <c r="N1004" s="15"/>
-      <c r="O1004" s="15"/>
-      <c r="P1004" s="15"/>
-      <c r="Q1004" s="15"/>
-      <c r="R1004" s="15"/>
-      <c r="S1004" s="15"/>
-      <c r="T1004" s="15"/>
-      <c r="U1004" s="15"/>
-      <c r="V1004" s="15"/>
-      <c r="W1004" s="15"/>
-      <c r="X1004" s="15"/>
-      <c r="Y1004" s="15"/>
-      <c r="Z1004" s="15"/>
-      <c r="AA1004" s="15"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="[ needs">

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4133DA-58C3-334B-819B-80537F53BDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A8412A-7CFB-AF4B-9354-35EA54FABE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="1380" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="1820" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
     <t>https://www.ebi.ac.uk/ena/browser/view/ERR1202039</t>
   </si>
   <si>
-    <t>Use this for linking to processed/denoised sequences and associated metadata, preferably in an ENA Run page. Optionally, also add link(s) to associated genome sequence(s), e.g. if you have acquired both ASV and genome sequences from a single individal.</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/biosample/15224856
 https://www.ebi.ac.uk/ena/browser/view/SAMEA3724543
 urn:uuid:a964805b-33c2-439a-beaa-6379ebbfcd03</t>
@@ -1038,6 +1035,9 @@
   <si>
     <t>KTH-2013-Baltic-16S</t>
   </si>
+  <si>
+    <t>Use this for linking to raw sequence read files and associated metadata, preferably in an ENA Run page. Optionally, also add a link to associated genome sequence(s), e.g. if you have acquired both ASV and genome sequences from a single individal (i.e. when you have barcoding rather than metabarcoding data). If so, separate entries with a pipe (|) character.</t>
+  </si>
 </sst>
 </file>
 
@@ -1047,11 +1047,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1226,117 +1233,120 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1617,19 +1627,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1638,13 +1648,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1698,13 +1708,13 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>290</v>
@@ -1742,13 +1752,13 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="17" t="s">
@@ -1796,13 +1806,13 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="17" t="s">
@@ -5190,7 +5200,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
@@ -5230,7 +5240,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -5277,7 +5287,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>193</v>
@@ -5321,7 +5331,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>193</v>
@@ -5365,7 +5375,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>193</v>
@@ -6378,7 +6388,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1F017430-2DBD-FF43-A14B-BC9311C9C887}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{7E4AB1A7-0ABB-7E41-9808-8A99834CE20A}"/>
@@ -6404,7 +6414,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>28</v>
@@ -9694,7 +9704,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>206</v>
@@ -13576,9 +13586,9 @@
   <dimension ref="A1:AA1011"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13643,17 +13653,17 @@
         <v>61</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>225</v>
@@ -13685,21 +13695,21 @@
         <v>61</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -13725,21 +13735,21 @@
         <v>61</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
@@ -13766,25 +13776,25 @@
         <v>61</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>314</v>
-      </c>
       <c r="H5" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
@@ -13811,17 +13821,17 @@
         <v>61</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
@@ -13860,7 +13870,7 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>210</v>
@@ -13888,7 +13898,7 @@
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
     </row>
-    <row r="8" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>61</v>
       </c>
@@ -13905,8 +13915,8 @@
       <c r="F8" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>295</v>
+      <c r="G8" s="49" t="s">
+        <v>330</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>289</v>
@@ -13936,17 +13946,17 @@
         <v>61</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="28"/>
@@ -13975,17 +13985,17 @@
         <v>61</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="28"/>
@@ -14014,19 +14024,19 @@
         <v>61</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>319</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="28"/>
@@ -14668,17 +14678,17 @@
         <v>283</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>225</v>
@@ -15240,20 +15250,20 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>225</v>
@@ -15737,17 +15747,17 @@
         <v>286</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>225</v>
@@ -15870,17 +15880,17 @@
         <v>157</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G56" s="29" t="s">
         <v>225</v>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A8412A-7CFB-AF4B-9354-35EA54FABE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790D4D9-0FCE-594F-A387-B2723D172837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1820" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9220" yWindow="7560" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="333">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -1036,7 +1036,13 @@
     <t>KTH-2013-Baltic-16S</t>
   </si>
   <si>
-    <t>Use this for linking to raw sequence read files and associated metadata, preferably in an ENA Run page. Optionally, also add a link to associated genome sequence(s), e.g. if you have acquired both ASV and genome sequences from a single individal (i.e. when you have barcoding rather than metabarcoding data). If so, separate entries with a pipe (|) character.</t>
+    <t>Use this for linking to raw sequence read files and associated metadata, preferably in an ENA Run page.</t>
+  </si>
+  <si>
+    <t>https://plutof.ut.ee/#/sequence/view/2846870</t>
+  </si>
+  <si>
+    <t>Note that the associatedSequences field is mainly used in the event tab for (mandatory) links to raw sequence reads associated with a specific sample (see above). In the asv-table tab, you can (optionally) use it for adding links to sequences published elsewhere, for specific ASVs.</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1243,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1347,6 +1353,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1597,7 +1609,7 @@
   <dimension ref="A1:AH991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12703,23 +12715,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
-    <col min="3" max="12" width="12.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="11.28515625" style="5"/>
+    <col min="3" max="3" width="19.42578125" style="5" customWidth="1"/>
+    <col min="4" max="13" width="12.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -12727,391 +12740,394 @@
         <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>235</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="L2" s="4">
+      <c r="I2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" s="4">
         <v>2235</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>16165</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>12855</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>1033</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>6836</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>12742</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>795</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>4941</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>3666</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>134</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>1187</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>2307</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>572</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>2827</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>1513</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>47</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>464</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>40</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>494</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>839</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>264</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>99</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>1641</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>2961</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>312</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>1685</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>1689</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>147</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>1436</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>2784</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13583,12 +13599,12 @@
   <sheetPr>
     <tabColor rgb="FFD6E3BC"/>
   </sheetPr>
-  <dimension ref="A1:AA1011"/>
+  <dimension ref="A1:AA1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13898,7 +13914,7 @@
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
     </row>
-    <row r="8" spans="1:27" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>61</v>
       </c>
@@ -16004,27 +16020,25 @@
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
     </row>
-    <row r="59" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>167</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="H59" s="28"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="H59" s="51" t="s">
+        <v>331</v>
+      </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
@@ -16045,24 +16059,26 @@
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
     </row>
-    <row r="60" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E60" s="30"/>
       <c r="F60" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>224</v>
+      </c>
       <c r="H60" s="28"/>
       <c r="I60" s="27"/>
       <c r="J60" s="27"/>
@@ -16089,17 +16105,17 @@
         <v>157</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E61" s="30"/>
       <c r="F61" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="28"/>
@@ -16128,17 +16144,17 @@
         <v>157</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E62" s="30"/>
       <c r="F62" s="30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="28"/>
@@ -16167,17 +16183,17 @@
         <v>157</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E63" s="30"/>
       <c r="F63" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G63" s="29"/>
       <c r="H63" s="28"/>
@@ -16206,17 +16222,17 @@
         <v>157</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E64" s="30"/>
       <c r="F64" s="30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G64" s="29"/>
       <c r="H64" s="28"/>
@@ -16245,17 +16261,17 @@
         <v>157</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G65" s="29"/>
       <c r="H65" s="28"/>
@@ -16279,26 +16295,24 @@
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
     </row>
-    <row r="66" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="31" t="s">
         <v>157</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>169</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E66" s="30"/>
       <c r="F66" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>184</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="G66" s="29"/>
       <c r="H66" s="28"/>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
@@ -16320,60 +16334,72 @@
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
     </row>
-    <row r="67" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
+    <row r="67" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="27"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+    </row>
+    <row r="68" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C68" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D68" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E68" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F67" s="25" t="s">
+      <c r="F68" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G68" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H68" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
@@ -43692,9 +43718,38 @@
       <c r="F1010" s="21"/>
       <c r="G1010" s="21"/>
       <c r="H1010" s="22"/>
+      <c r="I1010" s="21"/>
+      <c r="J1010" s="21"/>
+      <c r="K1010" s="21"/>
+      <c r="L1010" s="21"/>
+      <c r="M1010" s="21"/>
+      <c r="N1010" s="21"/>
+      <c r="O1010" s="21"/>
+      <c r="P1010" s="21"/>
+      <c r="Q1010" s="21"/>
+      <c r="R1010" s="21"/>
+      <c r="S1010" s="21"/>
+      <c r="T1010" s="21"/>
+      <c r="U1010" s="21"/>
+      <c r="V1010" s="21"/>
+      <c r="W1010" s="21"/>
+      <c r="X1010" s="21"/>
+      <c r="Y1010" s="21"/>
+      <c r="Z1010" s="21"/>
+      <c r="AA1010" s="21"/>
     </row>
     <row r="1011" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1011" s="21"/>
       <c r="B1011" s="21"/>
+      <c r="C1011" s="21"/>
+      <c r="D1011" s="21"/>
+      <c r="E1011" s="21"/>
+      <c r="F1011" s="21"/>
+      <c r="G1011" s="21"/>
+      <c r="H1011" s="22"/>
+    </row>
+    <row r="1012" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1012" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
@@ -43712,6 +43767,9 @@
       <formula>NOT(ISERROR(SEARCH(("[none"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H59" r:id="rId1" location="/sequence/view/2846870" xr:uid="{4B790C9F-30C5-074B-889B-AF01508D65E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0790D4D9-0FCE-594F-A387-B2723D172837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA4445-5AFA-1645-B5B7-1E93A0200AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="7560" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="1940" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mh33fER1yIp3D1vEqs8lBeXGWFROw=="/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="335">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -620,9 +620,6 @@
     <t>2013-07-13T07:08</t>
   </si>
   <si>
-    <t>200–500 mL seawater were filtered onto 0.22 μm pore-size mixed cellulose ester membrane filters; https://doi.org/10.3389/fmicb.2016.00679</t>
-  </si>
-  <si>
     <t>16S rRNA</t>
   </si>
   <si>
@@ -1009,9 +1006,6 @@
     <t>SBDI-ASV-KTH-2013-Baltic-16S</t>
   </si>
   <si>
-    <t>https://doi.org/10.3389/fmicb.2016.00679</t>
-  </si>
-  <si>
     <t>eventID</t>
   </si>
   <si>
@@ -1044,6 +1038,18 @@
   <si>
     <t>Note that the associatedSequences field is mainly used in the event tab for (mandatory) links to raw sequence reads associated with a specific sample (see above). In the asv-table tab, you can (optionally) use it for adding links to sequences published elsewhere, for specific ASVs.</t>
   </si>
+  <si>
+    <t>[See SBDI note in yellow section]</t>
+  </si>
+  <si>
+    <t>[See SBDI example in yellow section]</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fmicb.2016.00679. Sequence processing was not conducted as in the journal publication, but by using the https://nf-co.re/ampliseq pipeline in which the denoising (ASV reconstruction) step was conducted with DADA2.</t>
+  </si>
+  <si>
+    <t>https://nf-co.re/ampliseq</t>
+  </si>
 </sst>
 </file>
 
@@ -1053,11 +1059,25 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1239,125 +1259,128 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1639,19 +1662,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1660,13 +1683,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1720,25 +1743,25 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>192</v>
+      <c r="L2" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="N2" s="4">
         <v>55.185000000000002</v>
@@ -1750,7 +1773,7 @@
         <v>79</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="X2" s="4">
         <v>3</v>
@@ -1764,26 +1787,26 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="13" t="s">
-        <v>192</v>
+      <c r="L3" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="N3" s="4">
         <v>55.433999999999997</v>
@@ -1795,7 +1818,7 @@
         <v>79</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X3" s="4">
         <v>3</v>
@@ -1818,26 +1841,26 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>192</v>
+      <c r="L4" s="16" t="s">
+        <v>333</v>
       </c>
       <c r="N4" s="4">
         <v>56.031999999999996</v>
@@ -1849,7 +1872,7 @@
         <v>79</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X4" s="4">
         <v>3</v>
@@ -5212,7 +5235,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
@@ -5230,12 +5253,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="5" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="22" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="5" customWidth="1"/>
@@ -5252,7 +5277,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -5267,7 +5292,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
@@ -5282,7 +5307,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>24</v>
@@ -5299,25 +5324,25 @@
         <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>115</v>
@@ -5326,16 +5351,16 @@
         <v>117</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5343,25 +5368,25 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>115</v>
@@ -5370,16 +5395,16 @@
         <v>117</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5387,25 +5412,25 @@
         <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>115</v>
@@ -5414,16 +5439,16 @@
         <v>117</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6400,12 +6425,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1F017430-2DBD-FF43-A14B-BC9311C9C887}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7E4AB1A7-0ABB-7E41-9808-8A99834CE20A}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{2ECFF2AE-1207-CE4E-AF6F-C184998F606E}"/>
-  </hyperlinks>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6426,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>28</v>
@@ -6467,7 +6487,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4">
@@ -6475,7 +6495,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -6489,13 +6509,13 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="4">
         <v>7.23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6503,13 +6523,13 @@
         <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="4">
         <v>6.97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6517,7 +6537,7 @@
         <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4">
@@ -6525,7 +6545,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6533,13 +6553,13 @@
         <v>187</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -6553,13 +6573,13 @@
         <v>186</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -9716,13 +9736,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12781,28 +12801,28 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M2" s="4">
         <v>2235</v>
@@ -12816,28 +12836,28 @@
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="M3" s="4">
         <v>1033</v>
@@ -12851,22 +12871,22 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="M4" s="4">
         <v>795</v>
@@ -12880,28 +12900,28 @@
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="M5" s="4">
         <v>134</v>
@@ -12915,28 +12935,28 @@
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="M6" s="4">
         <v>572</v>
@@ -12950,28 +12970,28 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="M7" s="4">
         <v>47</v>
@@ -12985,31 +13005,31 @@
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="M8" s="4">
         <v>40</v>
@@ -13023,28 +13043,28 @@
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="M9" s="4">
         <v>99</v>
@@ -13058,25 +13078,25 @@
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="M10" s="4">
         <v>312</v>
@@ -13090,28 +13110,28 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="M11" s="4">
         <v>147</v>
@@ -13602,9 +13622,9 @@
   <dimension ref="A1:AA1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13622,26 +13642,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>58</v>
       </c>
       <c r="I1" s="27"/>
@@ -13669,20 +13689,20 @@
         <v>61</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>188</v>
@@ -13711,21 +13731,21 @@
         <v>61</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -13751,24 +13771,24 @@
         <v>61</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+        <v>298</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -13792,28 +13812,28 @@
         <v>61</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>313</v>
-      </c>
       <c r="H5" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+        <v>302</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
@@ -13837,22 +13857,22 @@
         <v>61</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27"/>
@@ -13886,16 +13906,16 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+        <v>289</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
@@ -13925,20 +13945,20 @@
         <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>330</v>
+      <c r="G8" s="48" t="s">
+        <v>328</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
+        <v>288</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27"/>
@@ -13962,22 +13982,22 @@
         <v>61</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27"/>
@@ -14001,22 +14021,22 @@
         <v>61</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27"/>
@@ -14040,24 +14060,24 @@
         <v>61</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>318</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="28"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27"/>
@@ -14090,19 +14110,19 @@
         <v>63</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -14139,9 +14159,11 @@
         <v>66</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="43"/>
+        <v>275</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>333</v>
+      </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -14180,7 +14202,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>70</v>
@@ -14387,10 +14409,10 @@
         <v>85</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
@@ -14691,23 +14713,23 @@
     </row>
     <row r="27" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>188</v>
@@ -14733,7 +14755,7 @@
     </row>
     <row r="28" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>16</v>
@@ -14751,7 +14773,9 @@
         <v>104</v>
       </c>
       <c r="G28" s="29"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="50" t="s">
+        <v>334</v>
+      </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -14774,7 +14798,7 @@
     </row>
     <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>17</v>
@@ -14787,7 +14811,7 @@
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="28"/>
@@ -14813,7 +14837,7 @@
     </row>
     <row r="30" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>18</v>
@@ -14852,7 +14876,7 @@
     </row>
     <row r="31" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>19</v>
@@ -14891,20 +14915,20 @@
     </row>
     <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="28"/>
@@ -14930,7 +14954,7 @@
     </row>
     <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>20</v>
@@ -14969,7 +14993,7 @@
     </row>
     <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>21</v>
@@ -15008,7 +15032,7 @@
     </row>
     <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>22</v>
@@ -15047,7 +15071,7 @@
     </row>
     <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>23</v>
@@ -15086,10 +15110,10 @@
     </row>
     <row r="37" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>59</v>
@@ -15104,10 +15128,10 @@
         <v>60</v>
       </c>
       <c r="G37" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>281</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
@@ -15131,7 +15155,7 @@
     </row>
     <row r="38" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>24</v>
@@ -15140,19 +15164,19 @@
         <v>59</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E38" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="G38" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
@@ -15176,7 +15200,7 @@
     </row>
     <row r="39" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>25</v>
@@ -15185,19 +15209,19 @@
         <v>59</v>
       </c>
       <c r="D39" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="F39" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="G39" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>220</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
@@ -15221,7 +15245,7 @@
     </row>
     <row r="40" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>26</v>
@@ -15239,10 +15263,10 @@
         <v>120</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
@@ -15266,23 +15290,23 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>188</v>
@@ -15327,7 +15351,7 @@
         <v>124</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="27"/>
@@ -15760,23 +15784,23 @@
     </row>
     <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="36" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>188</v>
@@ -15803,10 +15827,10 @@
     </row>
     <row r="54" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>60</v>
@@ -15821,10 +15845,10 @@
         <v>60</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -15848,7 +15872,7 @@
     </row>
     <row r="55" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>39</v>
@@ -15896,20 +15920,20 @@
         <v>157</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>188</v>
@@ -16027,17 +16051,21 @@
       <c r="B59" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="49" t="s">
+      <c r="D59" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="H59" s="51" t="s">
-        <v>331</v>
+      <c r="G59" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>329</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -16077,7 +16105,7 @@
         <v>168</v>
       </c>
       <c r="G60" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="27"/>
@@ -43769,6 +43797,7 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H59" r:id="rId1" location="/sequence/view/2846870" xr:uid="{4B790C9F-30C5-074B-889B-AF01508D65E9}"/>
+    <hyperlink ref="H28" r:id="rId2" xr:uid="{2AEC0F05-091F-594E-8685-79AB31594D12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA4445-5AFA-1645-B5B7-1E93A0200AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBED10-BDA0-A549-B198-7378753CEB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1940" windowWidth="36360" windowHeight="18940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="700" windowWidth="40920" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$68</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="336">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -716,9 +716,6 @@
     <t>Note that, for practical reasons, we currently follow GBIF in grouping prokaryote domains Archaea and Bacteria together with e.g. eukaryote kingdoms under header 'kingdom'.</t>
   </si>
   <si>
-    <t>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications.</t>
-  </si>
-  <si>
     <t>Preferably, this value should correspond to environment (biome) in your ENA submission, when applicable. You can search for ENVO_00000428 in https://www.ebi.ac.uk/ols/index, then continue downwards in the biome subtree, until you find the most specific term that accurately describes your data.</t>
   </si>
   <si>
@@ -1003,9 +1000,6 @@
     <t>datasetID</t>
   </si>
   <si>
-    <t>SBDI-ASV-KTH-2013-Baltic-16S</t>
-  </si>
-  <si>
     <t>eventID</t>
   </si>
   <si>
@@ -1050,6 +1044,15 @@
   <si>
     <t>https://nf-co.re/ampliseq</t>
   </si>
+  <si>
+    <t>Unique identifier for event, as provided by data contributor. Preferably use event (sample) names that correspond to what you use in related publications. In DwC output, we concatenate this with datasetID to make it globally unique (if needed).</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>See Sheet:event, Field:eventID.</t>
+  </si>
 </sst>
 </file>
 
@@ -1059,11 +1062,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1259,129 +1269,135 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1631,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH991"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1662,19 +1678,19 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
@@ -1683,13 +1699,13 @@
         <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1743,25 +1759,25 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>191</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N2" s="4">
         <v>55.185000000000002</v>
@@ -1787,26 +1803,26 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>190</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N3" s="4">
         <v>55.433999999999997</v>
@@ -1841,26 +1857,26 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>189</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N4" s="4">
         <v>56.031999999999996</v>
@@ -5235,7 +5251,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
@@ -5253,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5277,7 +5293,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -5292,7 +5308,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
@@ -5307,7 +5323,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>24</v>
@@ -5324,7 +5340,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>192</v>
@@ -5336,7 +5352,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>194</v>
@@ -5351,7 +5367,7 @@
         <v>117</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>198</v>
@@ -5368,7 +5384,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>192</v>
@@ -5380,7 +5396,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>194</v>
@@ -5395,7 +5411,7 @@
         <v>117</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>198</v>
@@ -5412,7 +5428,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>192</v>
@@ -5424,7 +5440,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>194</v>
@@ -5439,7 +5455,7 @@
         <v>117</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>198</v>
@@ -6425,7 +6441,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6446,7 +6462,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>28</v>
@@ -9736,7 +9752,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>205</v>
@@ -12801,28 +12817,28 @@
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M2" s="4">
         <v>2235</v>
@@ -12836,28 +12852,28 @@
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="M3" s="4">
         <v>1033</v>
@@ -12871,22 +12887,22 @@
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="D4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="4">
         <v>795</v>
@@ -12900,28 +12916,28 @@
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="M5" s="4">
         <v>134</v>
@@ -12935,28 +12951,28 @@
     </row>
     <row r="6" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="M6" s="4">
         <v>572</v>
@@ -12970,28 +12986,28 @@
     </row>
     <row r="7" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="M7" s="4">
         <v>47</v>
@@ -13005,31 +13021,31 @@
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="M8" s="4">
         <v>40</v>
@@ -13043,28 +13059,28 @@
     </row>
     <row r="9" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="M9" s="4">
         <v>99</v>
@@ -13078,25 +13094,25 @@
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="4">
         <v>312</v>
@@ -13110,28 +13126,28 @@
     </row>
     <row r="11" spans="1:15" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="M11" s="4">
         <v>147</v>
@@ -13622,9 +13638,9 @@
   <dimension ref="A1:AA1012"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13645,7 +13661,9 @@
       <c r="A1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="54" t="s">
+        <v>334</v>
+      </c>
       <c r="C1" s="47" t="s">
         <v>53</v>
       </c>
@@ -13684,25 +13702,25 @@
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
     </row>
-    <row r="2" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>333</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>188</v>
@@ -13731,21 +13749,21 @@
         <v>61</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -13771,21 +13789,21 @@
         <v>61</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
@@ -13812,25 +13830,25 @@
         <v>61</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>312</v>
-      </c>
       <c r="H5" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -13857,17 +13875,17 @@
         <v>61</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
@@ -13906,13 +13924,13 @@
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>209</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -13945,17 +13963,17 @@
         <v>59</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
         <v>166</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -13982,17 +14000,17 @@
         <v>61</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="28"/>
@@ -14021,17 +14039,17 @@
         <v>61</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="28"/>
@@ -14060,19 +14078,19 @@
         <v>61</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>316</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>317</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="28"/>
@@ -14159,10 +14177,10 @@
         <v>66</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -14202,7 +14220,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>70</v>
@@ -14409,7 +14427,7 @@
         <v>85</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>221</v>
@@ -14713,23 +14731,23 @@
     </row>
     <row r="27" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>188</v>
@@ -14755,7 +14773,7 @@
     </row>
     <row r="28" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>16</v>
@@ -14774,7 +14792,7 @@
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="50" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
@@ -14798,7 +14816,7 @@
     </row>
     <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>17</v>
@@ -14811,7 +14829,7 @@
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="28"/>
@@ -14837,7 +14855,7 @@
     </row>
     <row r="30" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>18</v>
@@ -14876,7 +14894,7 @@
     </row>
     <row r="31" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>19</v>
@@ -14915,20 +14933,20 @@
     </row>
     <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="28"/>
@@ -14954,7 +14972,7 @@
     </row>
     <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>20</v>
@@ -14993,7 +15011,7 @@
     </row>
     <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>21</v>
@@ -15032,7 +15050,7 @@
     </row>
     <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B35" s="31" t="s">
         <v>22</v>
@@ -15071,7 +15089,7 @@
     </row>
     <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B36" s="31" t="s">
         <v>23</v>
@@ -15110,10 +15128,10 @@
     </row>
     <row r="37" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>59</v>
@@ -15128,10 +15146,10 @@
         <v>60</v>
       </c>
       <c r="G37" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="27"/>
@@ -15155,7 +15173,7 @@
     </row>
     <row r="38" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="31" t="s">
         <v>24</v>
@@ -15173,7 +15191,7 @@
         <v>213</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H38" s="28" t="s">
         <v>214</v>
@@ -15200,7 +15218,7 @@
     </row>
     <row r="39" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="31" t="s">
         <v>25</v>
@@ -15218,7 +15236,7 @@
         <v>218</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>219</v>
@@ -15245,7 +15263,7 @@
     </row>
     <row r="40" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>26</v>
@@ -15263,7 +15281,7 @@
         <v>120</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H40" s="23" t="s">
         <v>220</v>
@@ -15290,23 +15308,23 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="G41" s="33" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="G41" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>188</v>
@@ -15351,7 +15369,7 @@
         <v>124</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="27"/>
@@ -15784,23 +15802,23 @@
     </row>
     <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>188</v>
@@ -15845,7 +15863,7 @@
         <v>60</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H54" s="23" t="s">
         <v>222</v>
@@ -15872,7 +15890,7 @@
     </row>
     <row r="55" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B55" s="35" t="s">
         <v>39</v>
@@ -15920,20 +15938,20 @@
         <v>157</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>224</v>
+        <v>319</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>335</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>188</v>
@@ -16055,17 +16073,17 @@
         <v>67</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E59" s="51"/>
       <c r="F59" s="51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G59" s="48" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
@@ -43780,6 +43798,7 @@
       <c r="B1012" s="21"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA68" xr:uid="{575A2C49-581A-6A45-BB35-37E08E101A4B}"/>
   <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="[ needs">
       <formula>NOT(ISERROR(SEARCH(("[ needs"),(G1))))</formula>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FBED10-BDA0-A549-B198-7378753CEB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D9CEC-578C-2C4A-B82A-8779D755FF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="700" windowWidth="40920" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="500" windowWidth="40920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$68</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mh33fER1yIp3D1vEqs8lBeXGWFROw=="/>
@@ -940,9 +940,6 @@
     <t>KTH</t>
   </si>
   <si>
-    <t>catalogueNumber</t>
-  </si>
-  <si>
     <t>references</t>
   </si>
   <si>
@@ -1053,6 +1050,9 @@
   <si>
     <t>See Sheet:event, Field:eventID.</t>
   </si>
+  <si>
+    <t>catalogNumber</t>
+  </si>
 </sst>
 </file>
 
@@ -1062,11 +1062,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1269,134 +1276,137 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1647,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1678,16 +1688,16 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>295</v>
@@ -1702,10 +1712,10 @@
         <v>294</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>1</v>
@@ -1759,13 +1769,13 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>288</v>
@@ -1777,7 +1787,7 @@
         <v>191</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N2" s="4">
         <v>55.185000000000002</v>
@@ -1803,13 +1813,13 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="17" t="s">
@@ -1822,7 +1832,7 @@
         <v>190</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N3" s="4">
         <v>55.433999999999997</v>
@@ -1857,13 +1867,13 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>297</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="17" t="s">
@@ -1876,7 +1886,7 @@
         <v>189</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N4" s="4">
         <v>56.031999999999996</v>
@@ -5251,7 +5261,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
@@ -5293,7 +5303,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -5340,7 +5350,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>192</v>
@@ -5384,7 +5394,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>192</v>
@@ -5428,7 +5438,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>192</v>
@@ -6441,7 +6451,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6462,7 +6472,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>28</v>
@@ -9752,7 +9762,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>205</v>
@@ -13637,10 +13647,10 @@
   </sheetPr>
   <dimension ref="A1:AA1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13662,7 +13672,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>53</v>
@@ -13707,20 +13717,20 @@
         <v>61</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="36"/>
       <c r="F2" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G2" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>188</v>
@@ -13749,21 +13759,21 @@
         <v>61</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
@@ -13795,11 +13805,11 @@
         <v>80</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="28" t="s">
@@ -13830,25 +13840,25 @@
         <v>61</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>311</v>
-      </c>
       <c r="H5" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -13881,11 +13891,11 @@
         <v>67</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="28"/>
@@ -13970,7 +13980,7 @@
         <v>166</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>287</v>
@@ -14006,11 +14016,11 @@
         <v>67</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="28"/>
@@ -14038,18 +14048,18 @@
       <c r="A10" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>298</v>
+      <c r="B10" s="55" t="s">
+        <v>335</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="28"/>
@@ -14078,19 +14088,19 @@
         <v>61</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>315</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>316</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="28"/>
@@ -14180,7 +14190,7 @@
         <v>274</v>
       </c>
       <c r="H13" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
@@ -14734,20 +14744,20 @@
         <v>281</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>188</v>
@@ -14792,7 +14802,7 @@
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
@@ -15308,23 +15318,23 @@
     </row>
     <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>188</v>
@@ -15805,20 +15815,20 @@
         <v>284</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E53" s="36"/>
       <c r="F53" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G53" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>188</v>
@@ -15938,20 +15948,20 @@
         <v>157</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C56" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G56" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>188</v>
@@ -16073,17 +16083,17 @@
         <v>67</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E59" s="51"/>
       <c r="F59" s="51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G59" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H59" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C2182-D5B6-144F-BEDB-942BC334BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8169E32-E75C-D74B-A80F-4CEE27112DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="500" windowWidth="40920" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="28000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="guide" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">guide!$A$1:$AA$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="345">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -1053,6 +1053,33 @@
   <si>
     <t>emof (Extended Measurement or Fact - Use EITHER this sheet OR emof-simple, see below, please)</t>
   </si>
+  <si>
+    <t>datasetName</t>
+  </si>
+  <si>
+    <t>The name identifying the data set from which the record was derived.</t>
+  </si>
+  <si>
+    <t>Grinnell Resurvey Mammals</t>
+  </si>
+  <si>
+    <t>16S data from: Diversity of Pico- to Mesoplankton along the 2000 km Salinity Gradient of the Baltic Sea (Hu et al. 2016)</t>
+  </si>
+  <si>
+    <t>dataGeneralizations</t>
+  </si>
+  <si>
+    <t>Be informative and specific, so that you can potentially differentiate between multiple datasets from a specific target gene, organism group or location, in the future.</t>
+  </si>
+  <si>
+    <t>Actions taken to make the shared data less specific or complete than in its original form. Suggests that alternative data of higher quality may be available on request.</t>
+  </si>
+  <si>
+    <t>Coordinates generalized from original GPS coordinates to the nearest half degree grid cell.</t>
+  </si>
+  <si>
+    <t>Specify here if exact locations or coordinates have been generalized or obfuscated to e.g. protect sensitive species.</t>
+  </si>
 </sst>
 </file>
 
@@ -1062,11 +1089,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1283,138 +1317,150 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1663,38 +1709,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y991"/>
+  <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="4" customWidth="1"/>
-    <col min="13" max="16" width="14.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="19" style="4" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="11.28515625" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="11.28515625" style="4"/>
+    <col min="3" max="3" width="23" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" style="4" customWidth="1"/>
+    <col min="14" max="17" width="14.140625" style="4" customWidth="1"/>
+    <col min="18" max="19" width="20.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="19" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="11.28515625" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="11.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>317</v>
       </c>
@@ -1702,76 +1749,82 @@
         <v>316</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
@@ -1779,43 +1832,47 @@
         <v>323</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>55.185000000000002</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>13.791</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="S2" s="11"/>
+      <c r="W2" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Z2" s="4">
         <v>3</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="AA2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>187</v>
       </c>
@@ -1823,43 +1880,47 @@
         <v>323</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>55.433999999999997</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>14.813000000000001</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="S3" s="11"/>
+      <c r="W3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Z3" s="4">
         <v>3</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AA3" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>186</v>
       </c>
@@ -1867,3062 +1928,3070 @@
         <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>56.031999999999996</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>16.649999999999999</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="S4" s="11"/>
+      <c r="W4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <v>3</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AA4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="O14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J16" s="7"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J17" s="7"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="10"/>
-    </row>
-    <row r="18" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="10"/>
-    </row>
-    <row r="19" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J19" s="7"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="10"/>
-    </row>
-    <row r="20" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J20" s="7"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="10"/>
-    </row>
-    <row r="21" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J21" s="7"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J22" s="7"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J23" s="7"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J24" s="7"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J25" s="7"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="10"/>
-    </row>
-    <row r="26" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J26" s="7"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="10"/>
-    </row>
-    <row r="27" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J27" s="7"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="10"/>
-    </row>
-    <row r="28" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J28" s="7"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="10"/>
-    </row>
-    <row r="29" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J29" s="7"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="10"/>
-    </row>
-    <row r="30" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J30" s="7"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J31" s="7"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="10"/>
-    </row>
-    <row r="32" spans="10:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J32" s="7"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="10"/>
-    </row>
-    <row r="33" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J33" s="7"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="10"/>
-    </row>
-    <row r="34" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J34" s="7"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="10"/>
-    </row>
-    <row r="35" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J35" s="7"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="10"/>
-    </row>
-    <row r="36" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="9:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I115" s="5"/>
-    </row>
-    <row r="116" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I124" s="5"/>
-    </row>
-    <row r="125" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I125" s="5"/>
-    </row>
-    <row r="126" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I134" s="5"/>
-    </row>
-    <row r="135" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I135" s="5"/>
-    </row>
-    <row r="136" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I144" s="5"/>
-    </row>
-    <row r="145" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I145" s="5"/>
-    </row>
-    <row r="146" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I150" s="5"/>
-    </row>
-    <row r="151" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I154" s="5"/>
-    </row>
-    <row r="155" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I155" s="5"/>
-    </row>
-    <row r="156" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I156" s="5"/>
-    </row>
-    <row r="157" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I157" s="5"/>
-    </row>
-    <row r="158" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I158" s="5"/>
-    </row>
-    <row r="159" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I159" s="5"/>
-    </row>
-    <row r="160" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I160" s="5"/>
-    </row>
-    <row r="161" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I161" s="5"/>
-    </row>
-    <row r="162" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I162" s="5"/>
-    </row>
-    <row r="163" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I163" s="5"/>
-    </row>
-    <row r="164" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I164" s="5"/>
-    </row>
-    <row r="165" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I165" s="5"/>
-    </row>
-    <row r="166" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I166" s="5"/>
-    </row>
-    <row r="167" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I167" s="5"/>
-    </row>
-    <row r="168" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I168" s="5"/>
-    </row>
-    <row r="169" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I169" s="5"/>
-    </row>
-    <row r="170" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I170" s="5"/>
-    </row>
-    <row r="171" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I171" s="5"/>
-    </row>
-    <row r="172" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I172" s="5"/>
-    </row>
-    <row r="173" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I173" s="5"/>
-    </row>
-    <row r="174" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I174" s="5"/>
-    </row>
-    <row r="175" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I175" s="5"/>
-    </row>
-    <row r="176" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I176" s="5"/>
-    </row>
-    <row r="177" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I177" s="5"/>
-    </row>
-    <row r="178" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I178" s="5"/>
-    </row>
-    <row r="179" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I179" s="5"/>
-    </row>
-    <row r="180" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I180" s="5"/>
-    </row>
-    <row r="181" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I181" s="5"/>
-    </row>
-    <row r="182" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I182" s="5"/>
-    </row>
-    <row r="183" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I183" s="5"/>
-    </row>
-    <row r="184" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I184" s="5"/>
-    </row>
-    <row r="185" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I185" s="5"/>
-    </row>
-    <row r="186" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I186" s="5"/>
-    </row>
-    <row r="187" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I187" s="5"/>
-    </row>
-    <row r="188" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I188" s="5"/>
-    </row>
-    <row r="189" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I189" s="5"/>
-    </row>
-    <row r="190" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I190" s="5"/>
-    </row>
-    <row r="191" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I191" s="5"/>
-    </row>
-    <row r="192" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I192" s="5"/>
-    </row>
-    <row r="193" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I193" s="5"/>
-    </row>
-    <row r="194" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I194" s="5"/>
-    </row>
-    <row r="195" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I195" s="5"/>
-    </row>
-    <row r="196" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I196" s="5"/>
-    </row>
-    <row r="197" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I197" s="5"/>
-    </row>
-    <row r="198" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I198" s="5"/>
-    </row>
-    <row r="199" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I199" s="5"/>
-    </row>
-    <row r="200" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I200" s="5"/>
-    </row>
-    <row r="201" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I201" s="5"/>
-    </row>
-    <row r="202" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I202" s="5"/>
-    </row>
-    <row r="203" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I203" s="5"/>
-    </row>
-    <row r="204" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I204" s="5"/>
-    </row>
-    <row r="205" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I205" s="5"/>
-    </row>
-    <row r="206" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I206" s="5"/>
-    </row>
-    <row r="207" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I207" s="5"/>
-    </row>
-    <row r="208" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I208" s="5"/>
-    </row>
-    <row r="209" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I209" s="5"/>
-    </row>
-    <row r="210" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I210" s="5"/>
-    </row>
-    <row r="211" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I211" s="5"/>
-    </row>
-    <row r="212" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I212" s="5"/>
-    </row>
-    <row r="213" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I213" s="5"/>
-    </row>
-    <row r="214" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I214" s="5"/>
-    </row>
-    <row r="215" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I215" s="5"/>
-    </row>
-    <row r="216" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I216" s="5"/>
-    </row>
-    <row r="217" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I217" s="5"/>
-    </row>
-    <row r="218" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I218" s="5"/>
-    </row>
-    <row r="219" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I219" s="5"/>
-    </row>
-    <row r="220" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I220" s="5"/>
-    </row>
-    <row r="221" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I221" s="5"/>
-    </row>
-    <row r="222" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I222" s="5"/>
-    </row>
-    <row r="223" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I223" s="5"/>
-    </row>
-    <row r="224" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I224" s="5"/>
-    </row>
-    <row r="225" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I225" s="5"/>
-    </row>
-    <row r="226" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I226" s="5"/>
-    </row>
-    <row r="227" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I227" s="5"/>
-    </row>
-    <row r="228" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I228" s="5"/>
-    </row>
-    <row r="229" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I229" s="5"/>
-    </row>
-    <row r="230" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I230" s="5"/>
-    </row>
-    <row r="231" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I231" s="5"/>
-    </row>
-    <row r="232" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I232" s="5"/>
-    </row>
-    <row r="233" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I233" s="5"/>
-    </row>
-    <row r="234" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I234" s="5"/>
-    </row>
-    <row r="235" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I235" s="5"/>
-    </row>
-    <row r="236" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I236" s="5"/>
-    </row>
-    <row r="237" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I237" s="5"/>
-    </row>
-    <row r="238" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I238" s="5"/>
-    </row>
-    <row r="239" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I239" s="5"/>
-    </row>
-    <row r="240" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I240" s="5"/>
-    </row>
-    <row r="241" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I241" s="5"/>
-    </row>
-    <row r="242" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I242" s="5"/>
-    </row>
-    <row r="243" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I243" s="5"/>
-    </row>
-    <row r="244" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I244" s="5"/>
-    </row>
-    <row r="245" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I245" s="5"/>
-    </row>
-    <row r="246" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I246" s="5"/>
-    </row>
-    <row r="247" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I247" s="5"/>
-    </row>
-    <row r="248" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I248" s="5"/>
-    </row>
-    <row r="249" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I249" s="5"/>
-    </row>
-    <row r="250" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I250" s="5"/>
-    </row>
-    <row r="251" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I251" s="5"/>
-    </row>
-    <row r="252" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I252" s="5"/>
-    </row>
-    <row r="253" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I253" s="5"/>
-    </row>
-    <row r="254" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I254" s="5"/>
-    </row>
-    <row r="255" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I255" s="5"/>
-    </row>
-    <row r="256" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I256" s="5"/>
-    </row>
-    <row r="257" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I257" s="5"/>
-    </row>
-    <row r="258" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I258" s="5"/>
-    </row>
-    <row r="259" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I259" s="5"/>
-    </row>
-    <row r="260" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I260" s="5"/>
-    </row>
-    <row r="261" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I261" s="5"/>
-    </row>
-    <row r="262" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I262" s="5"/>
-    </row>
-    <row r="263" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I263" s="5"/>
-    </row>
-    <row r="264" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I264" s="5"/>
-    </row>
-    <row r="265" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I265" s="5"/>
-    </row>
-    <row r="266" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I266" s="5"/>
-    </row>
-    <row r="267" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I267" s="5"/>
-    </row>
-    <row r="268" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I268" s="5"/>
-    </row>
-    <row r="269" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I269" s="5"/>
-    </row>
-    <row r="270" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I270" s="5"/>
-    </row>
-    <row r="271" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I271" s="5"/>
-    </row>
-    <row r="272" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I272" s="5"/>
-    </row>
-    <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I273" s="5"/>
-    </row>
-    <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I274" s="5"/>
-    </row>
-    <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I275" s="5"/>
-    </row>
-    <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I276" s="5"/>
-    </row>
-    <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I277" s="5"/>
-    </row>
-    <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I278" s="5"/>
-    </row>
-    <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I279" s="5"/>
-    </row>
-    <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I280" s="5"/>
-    </row>
-    <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I281" s="5"/>
-    </row>
-    <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I282" s="5"/>
-    </row>
-    <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I283" s="5"/>
-    </row>
-    <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I284" s="5"/>
-    </row>
-    <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I285" s="5"/>
-    </row>
-    <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I286" s="5"/>
-    </row>
-    <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I287" s="5"/>
-    </row>
-    <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I288" s="5"/>
-    </row>
-    <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I289" s="5"/>
-    </row>
-    <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I290" s="5"/>
-    </row>
-    <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I291" s="5"/>
-    </row>
-    <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I292" s="5"/>
-    </row>
-    <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I293" s="5"/>
-    </row>
-    <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I294" s="5"/>
-    </row>
-    <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I295" s="5"/>
-    </row>
-    <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I296" s="5"/>
-    </row>
-    <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I297" s="5"/>
-    </row>
-    <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I298" s="5"/>
-    </row>
-    <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I299" s="5"/>
-    </row>
-    <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I300" s="5"/>
-    </row>
-    <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I301" s="5"/>
-    </row>
-    <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I302" s="5"/>
-    </row>
-    <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I303" s="5"/>
-    </row>
-    <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I304" s="5"/>
-    </row>
-    <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I305" s="5"/>
-    </row>
-    <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I306" s="5"/>
-    </row>
-    <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I307" s="5"/>
-    </row>
-    <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I308" s="5"/>
-    </row>
-    <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I309" s="5"/>
-    </row>
-    <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I310" s="5"/>
-    </row>
-    <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I311" s="5"/>
-    </row>
-    <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I312" s="5"/>
-    </row>
-    <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I313" s="5"/>
-    </row>
-    <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I314" s="5"/>
-    </row>
-    <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I315" s="5"/>
-    </row>
-    <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I316" s="5"/>
-    </row>
-    <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I317" s="5"/>
-    </row>
-    <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I318" s="5"/>
-    </row>
-    <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I319" s="5"/>
-    </row>
-    <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I320" s="5"/>
-    </row>
-    <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I321" s="5"/>
-    </row>
-    <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I322" s="5"/>
-    </row>
-    <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I323" s="5"/>
-    </row>
-    <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I324" s="5"/>
-    </row>
-    <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I325" s="5"/>
-    </row>
-    <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I326" s="5"/>
-    </row>
-    <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I327" s="5"/>
-    </row>
-    <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I328" s="5"/>
-    </row>
-    <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I329" s="5"/>
-    </row>
-    <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I330" s="5"/>
-    </row>
-    <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I331" s="5"/>
-    </row>
-    <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I332" s="5"/>
-    </row>
-    <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I333" s="5"/>
-    </row>
-    <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I334" s="5"/>
-    </row>
-    <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I335" s="5"/>
-    </row>
-    <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I336" s="5"/>
-    </row>
-    <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I337" s="5"/>
-    </row>
-    <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I338" s="5"/>
-    </row>
-    <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I339" s="5"/>
-    </row>
-    <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I340" s="5"/>
-    </row>
-    <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I341" s="5"/>
-    </row>
-    <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I342" s="5"/>
-    </row>
-    <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I343" s="5"/>
-    </row>
-    <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I344" s="5"/>
-    </row>
-    <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I345" s="5"/>
-    </row>
-    <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I346" s="5"/>
-    </row>
-    <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I347" s="5"/>
-    </row>
-    <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I348" s="5"/>
-    </row>
-    <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I349" s="5"/>
-    </row>
-    <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I350" s="5"/>
-    </row>
-    <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I351" s="5"/>
-    </row>
-    <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I352" s="5"/>
-    </row>
-    <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I353" s="5"/>
-    </row>
-    <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I354" s="5"/>
-    </row>
-    <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I355" s="5"/>
-    </row>
-    <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I356" s="5"/>
-    </row>
-    <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I357" s="5"/>
-    </row>
-    <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I358" s="5"/>
-    </row>
-    <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I359" s="5"/>
-    </row>
-    <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I360" s="5"/>
-    </row>
-    <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I361" s="5"/>
-    </row>
-    <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I362" s="5"/>
-    </row>
-    <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I363" s="5"/>
-    </row>
-    <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I364" s="5"/>
-    </row>
-    <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I365" s="5"/>
-    </row>
-    <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I366" s="5"/>
-    </row>
-    <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I367" s="5"/>
-    </row>
-    <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I368" s="5"/>
-    </row>
-    <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I369" s="5"/>
-    </row>
-    <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I370" s="5"/>
-    </row>
-    <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I371" s="5"/>
-    </row>
-    <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I372" s="5"/>
-    </row>
-    <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I373" s="5"/>
-    </row>
-    <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I374" s="5"/>
-    </row>
-    <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I375" s="5"/>
-    </row>
-    <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I376" s="5"/>
-    </row>
-    <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I377" s="5"/>
-    </row>
-    <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I378" s="5"/>
-    </row>
-    <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I379" s="5"/>
-    </row>
-    <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I380" s="5"/>
-    </row>
-    <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I381" s="5"/>
-    </row>
-    <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I382" s="5"/>
-    </row>
-    <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I383" s="5"/>
-    </row>
-    <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I384" s="5"/>
-    </row>
-    <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I385" s="5"/>
-    </row>
-    <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I386" s="5"/>
-    </row>
-    <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I387" s="5"/>
-    </row>
-    <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I388" s="5"/>
-    </row>
-    <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I389" s="5"/>
-    </row>
-    <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I390" s="5"/>
-    </row>
-    <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I391" s="5"/>
-    </row>
-    <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I392" s="5"/>
-    </row>
-    <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I393" s="5"/>
-    </row>
-    <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I394" s="5"/>
-    </row>
-    <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I395" s="5"/>
-    </row>
-    <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I396" s="5"/>
-    </row>
-    <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I397" s="5"/>
-    </row>
-    <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I398" s="5"/>
-    </row>
-    <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I399" s="5"/>
-    </row>
-    <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I400" s="5"/>
-    </row>
-    <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I401" s="5"/>
-    </row>
-    <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I402" s="5"/>
-    </row>
-    <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I403" s="5"/>
-    </row>
-    <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I404" s="5"/>
-    </row>
-    <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I405" s="5"/>
-    </row>
-    <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I406" s="5"/>
-    </row>
-    <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I407" s="5"/>
-    </row>
-    <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I408" s="5"/>
-    </row>
-    <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I409" s="5"/>
-    </row>
-    <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I410" s="5"/>
-    </row>
-    <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I411" s="5"/>
-    </row>
-    <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I412" s="5"/>
-    </row>
-    <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I413" s="5"/>
-    </row>
-    <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I414" s="5"/>
-    </row>
-    <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I415" s="5"/>
-    </row>
-    <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I416" s="5"/>
-    </row>
-    <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I417" s="5"/>
-    </row>
-    <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I418" s="5"/>
-    </row>
-    <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I419" s="5"/>
-    </row>
-    <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I420" s="5"/>
-    </row>
-    <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I421" s="5"/>
-    </row>
-    <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I422" s="5"/>
-    </row>
-    <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I423" s="5"/>
-    </row>
-    <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I424" s="5"/>
-    </row>
-    <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I425" s="5"/>
-    </row>
-    <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I426" s="5"/>
-    </row>
-    <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I427" s="5"/>
-    </row>
-    <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I428" s="5"/>
-    </row>
-    <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I429" s="5"/>
-    </row>
-    <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I430" s="5"/>
-    </row>
-    <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I431" s="5"/>
-    </row>
-    <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I432" s="5"/>
-    </row>
-    <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I433" s="5"/>
-    </row>
-    <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I434" s="5"/>
-    </row>
-    <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I435" s="5"/>
-    </row>
-    <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I436" s="5"/>
-    </row>
-    <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I437" s="5"/>
-    </row>
-    <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I438" s="5"/>
-    </row>
-    <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I439" s="5"/>
-    </row>
-    <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I440" s="5"/>
-    </row>
-    <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I441" s="5"/>
-    </row>
-    <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I442" s="5"/>
-    </row>
-    <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I443" s="5"/>
-    </row>
-    <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I444" s="5"/>
-    </row>
-    <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I445" s="5"/>
-    </row>
-    <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I446" s="5"/>
-    </row>
-    <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I447" s="5"/>
-    </row>
-    <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I448" s="5"/>
-    </row>
-    <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I449" s="5"/>
-    </row>
-    <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I450" s="5"/>
-    </row>
-    <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I451" s="5"/>
-    </row>
-    <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I452" s="5"/>
-    </row>
-    <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I453" s="5"/>
-    </row>
-    <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I454" s="5"/>
-    </row>
-    <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I455" s="5"/>
-    </row>
-    <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I456" s="5"/>
-    </row>
-    <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I457" s="5"/>
-    </row>
-    <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I458" s="5"/>
-    </row>
-    <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I459" s="5"/>
-    </row>
-    <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I460" s="5"/>
-    </row>
-    <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I461" s="5"/>
-    </row>
-    <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I462" s="5"/>
-    </row>
-    <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I463" s="5"/>
-    </row>
-    <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I464" s="5"/>
-    </row>
-    <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I465" s="5"/>
-    </row>
-    <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I466" s="5"/>
-    </row>
-    <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I467" s="5"/>
-    </row>
-    <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I468" s="5"/>
-    </row>
-    <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I469" s="5"/>
-    </row>
-    <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I470" s="5"/>
-    </row>
-    <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I471" s="5"/>
-    </row>
-    <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I472" s="5"/>
-    </row>
-    <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I473" s="5"/>
-    </row>
-    <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I474" s="5"/>
-    </row>
-    <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I475" s="5"/>
-    </row>
-    <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I476" s="5"/>
-    </row>
-    <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I477" s="5"/>
-    </row>
-    <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I478" s="5"/>
-    </row>
-    <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I479" s="5"/>
-    </row>
-    <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I480" s="5"/>
-    </row>
-    <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I481" s="5"/>
-    </row>
-    <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I482" s="5"/>
-    </row>
-    <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I483" s="5"/>
-    </row>
-    <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I484" s="5"/>
-    </row>
-    <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I485" s="5"/>
-    </row>
-    <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I486" s="5"/>
-    </row>
-    <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I487" s="5"/>
-    </row>
-    <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I488" s="5"/>
-    </row>
-    <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I489" s="5"/>
-    </row>
-    <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I490" s="5"/>
-    </row>
-    <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I491" s="5"/>
-    </row>
-    <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I492" s="5"/>
-    </row>
-    <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I493" s="5"/>
-    </row>
-    <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I494" s="5"/>
-    </row>
-    <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I495" s="5"/>
-    </row>
-    <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I496" s="5"/>
-    </row>
-    <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I497" s="5"/>
-    </row>
-    <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I498" s="5"/>
-    </row>
-    <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I499" s="5"/>
-    </row>
-    <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I500" s="5"/>
-    </row>
-    <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I501" s="5"/>
-    </row>
-    <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I502" s="5"/>
-    </row>
-    <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I503" s="5"/>
-    </row>
-    <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I504" s="5"/>
-    </row>
-    <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I505" s="5"/>
-    </row>
-    <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I506" s="5"/>
-    </row>
-    <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I507" s="5"/>
-    </row>
-    <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I508" s="5"/>
-    </row>
-    <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I509" s="5"/>
-    </row>
-    <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I510" s="5"/>
-    </row>
-    <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I511" s="5"/>
-    </row>
-    <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I512" s="5"/>
-    </row>
-    <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I513" s="5"/>
-    </row>
-    <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I514" s="5"/>
-    </row>
-    <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I515" s="5"/>
-    </row>
-    <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I516" s="5"/>
-    </row>
-    <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I517" s="5"/>
-    </row>
-    <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I518" s="5"/>
-    </row>
-    <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I519" s="5"/>
-    </row>
-    <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I520" s="5"/>
-    </row>
-    <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I521" s="5"/>
-    </row>
-    <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I522" s="5"/>
-    </row>
-    <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I523" s="5"/>
-    </row>
-    <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I524" s="5"/>
-    </row>
-    <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I525" s="5"/>
-    </row>
-    <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I526" s="5"/>
-    </row>
-    <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I527" s="5"/>
-    </row>
-    <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I528" s="5"/>
-    </row>
-    <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I529" s="5"/>
-    </row>
-    <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I530" s="5"/>
-    </row>
-    <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I531" s="5"/>
-    </row>
-    <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I532" s="5"/>
-    </row>
-    <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I533" s="5"/>
-    </row>
-    <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I534" s="5"/>
-    </row>
-    <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I535" s="5"/>
-    </row>
-    <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I536" s="5"/>
-    </row>
-    <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I537" s="5"/>
-    </row>
-    <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I538" s="5"/>
-    </row>
-    <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I539" s="5"/>
-    </row>
-    <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I540" s="5"/>
-    </row>
-    <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I541" s="5"/>
-    </row>
-    <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I542" s="5"/>
-    </row>
-    <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I543" s="5"/>
-    </row>
-    <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I544" s="5"/>
-    </row>
-    <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I545" s="5"/>
-    </row>
-    <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I546" s="5"/>
-    </row>
-    <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I547" s="5"/>
-    </row>
-    <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I548" s="5"/>
-    </row>
-    <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I549" s="5"/>
-    </row>
-    <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I550" s="5"/>
-    </row>
-    <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I551" s="5"/>
-    </row>
-    <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I552" s="5"/>
-    </row>
-    <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I553" s="5"/>
-    </row>
-    <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I554" s="5"/>
-    </row>
-    <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I555" s="5"/>
-    </row>
-    <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I556" s="5"/>
-    </row>
-    <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I557" s="5"/>
-    </row>
-    <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I558" s="5"/>
-    </row>
-    <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I559" s="5"/>
-    </row>
-    <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I560" s="5"/>
-    </row>
-    <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I561" s="5"/>
-    </row>
-    <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I562" s="5"/>
-    </row>
-    <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I563" s="5"/>
-    </row>
-    <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I564" s="5"/>
-    </row>
-    <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I565" s="5"/>
-    </row>
-    <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I566" s="5"/>
-    </row>
-    <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I567" s="5"/>
-    </row>
-    <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I568" s="5"/>
-    </row>
-    <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I569" s="5"/>
-    </row>
-    <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I570" s="5"/>
-    </row>
-    <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I571" s="5"/>
-    </row>
-    <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I572" s="5"/>
-    </row>
-    <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I573" s="5"/>
-    </row>
-    <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I574" s="5"/>
-    </row>
-    <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I575" s="5"/>
-    </row>
-    <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I576" s="5"/>
-    </row>
-    <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I577" s="5"/>
-    </row>
-    <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I578" s="5"/>
-    </row>
-    <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I579" s="5"/>
-    </row>
-    <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I580" s="5"/>
-    </row>
-    <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I581" s="5"/>
-    </row>
-    <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I582" s="5"/>
-    </row>
-    <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I583" s="5"/>
-    </row>
-    <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I584" s="5"/>
-    </row>
-    <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I585" s="5"/>
-    </row>
-    <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I586" s="5"/>
-    </row>
-    <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I587" s="5"/>
-    </row>
-    <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I588" s="5"/>
-    </row>
-    <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I589" s="5"/>
-    </row>
-    <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I590" s="5"/>
-    </row>
-    <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I591" s="5"/>
-    </row>
-    <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I592" s="5"/>
-    </row>
-    <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I593" s="5"/>
-    </row>
-    <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I594" s="5"/>
-    </row>
-    <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I595" s="5"/>
-    </row>
-    <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I596" s="5"/>
-    </row>
-    <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I597" s="5"/>
-    </row>
-    <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I598" s="5"/>
-    </row>
-    <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I599" s="5"/>
-    </row>
-    <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I600" s="5"/>
-    </row>
-    <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I601" s="5"/>
-    </row>
-    <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I602" s="5"/>
-    </row>
-    <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I603" s="5"/>
-    </row>
-    <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I604" s="5"/>
-    </row>
-    <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I605" s="5"/>
-    </row>
-    <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I606" s="5"/>
-    </row>
-    <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I607" s="5"/>
-    </row>
-    <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I608" s="5"/>
-    </row>
-    <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I609" s="5"/>
-    </row>
-    <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I610" s="5"/>
-    </row>
-    <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I611" s="5"/>
-    </row>
-    <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I612" s="5"/>
-    </row>
-    <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I613" s="5"/>
-    </row>
-    <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I614" s="5"/>
-    </row>
-    <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I615" s="5"/>
-    </row>
-    <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I616" s="5"/>
-    </row>
-    <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I617" s="5"/>
-    </row>
-    <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I618" s="5"/>
-    </row>
-    <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I619" s="5"/>
-    </row>
-    <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I620" s="5"/>
-    </row>
-    <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I621" s="5"/>
-    </row>
-    <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I622" s="5"/>
-    </row>
-    <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I623" s="5"/>
-    </row>
-    <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I624" s="5"/>
-    </row>
-    <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I625" s="5"/>
-    </row>
-    <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I626" s="5"/>
-    </row>
-    <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I627" s="5"/>
-    </row>
-    <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I628" s="5"/>
-    </row>
-    <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I629" s="5"/>
-    </row>
-    <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I630" s="5"/>
-    </row>
-    <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I631" s="5"/>
-    </row>
-    <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I632" s="5"/>
-    </row>
-    <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I633" s="5"/>
-    </row>
-    <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I634" s="5"/>
-    </row>
-    <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I635" s="5"/>
-    </row>
-    <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I636" s="5"/>
-    </row>
-    <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I637" s="5"/>
-    </row>
-    <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I638" s="5"/>
-    </row>
-    <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I639" s="5"/>
-    </row>
-    <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I640" s="5"/>
-    </row>
-    <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I641" s="5"/>
-    </row>
-    <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I642" s="5"/>
-    </row>
-    <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I643" s="5"/>
-    </row>
-    <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I644" s="5"/>
-    </row>
-    <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I645" s="5"/>
-    </row>
-    <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I646" s="5"/>
-    </row>
-    <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I647" s="5"/>
-    </row>
-    <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I648" s="5"/>
-    </row>
-    <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I649" s="5"/>
-    </row>
-    <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I650" s="5"/>
-    </row>
-    <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I651" s="5"/>
-    </row>
-    <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I652" s="5"/>
-    </row>
-    <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I653" s="5"/>
-    </row>
-    <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I654" s="5"/>
-    </row>
-    <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I655" s="5"/>
-    </row>
-    <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I656" s="5"/>
-    </row>
-    <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I657" s="5"/>
-    </row>
-    <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I658" s="5"/>
-    </row>
-    <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I659" s="5"/>
-    </row>
-    <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I660" s="5"/>
-    </row>
-    <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I661" s="5"/>
-    </row>
-    <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I662" s="5"/>
-    </row>
-    <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I663" s="5"/>
-    </row>
-    <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I664" s="5"/>
-    </row>
-    <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I665" s="5"/>
-    </row>
-    <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I666" s="5"/>
-    </row>
-    <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I667" s="5"/>
-    </row>
-    <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I668" s="5"/>
-    </row>
-    <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I669" s="5"/>
-    </row>
-    <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I670" s="5"/>
-    </row>
-    <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I671" s="5"/>
-    </row>
-    <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I672" s="5"/>
-    </row>
-    <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I673" s="5"/>
-    </row>
-    <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I674" s="5"/>
-    </row>
-    <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I675" s="5"/>
-    </row>
-    <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I676" s="5"/>
-    </row>
-    <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I677" s="5"/>
-    </row>
-    <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I678" s="5"/>
-    </row>
-    <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I679" s="5"/>
-    </row>
-    <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I680" s="5"/>
-    </row>
-    <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I681" s="5"/>
-    </row>
-    <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I682" s="5"/>
-    </row>
-    <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I683" s="5"/>
-    </row>
-    <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I684" s="5"/>
-    </row>
-    <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I685" s="5"/>
-    </row>
-    <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I686" s="5"/>
-    </row>
-    <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I687" s="5"/>
-    </row>
-    <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I688" s="5"/>
-    </row>
-    <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I689" s="5"/>
-    </row>
-    <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I690" s="5"/>
-    </row>
-    <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I691" s="5"/>
-    </row>
-    <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I692" s="5"/>
-    </row>
-    <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I693" s="5"/>
-    </row>
-    <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I694" s="5"/>
-    </row>
-    <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I695" s="5"/>
-    </row>
-    <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I696" s="5"/>
-    </row>
-    <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I697" s="5"/>
-    </row>
-    <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I698" s="5"/>
-    </row>
-    <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I699" s="5"/>
-    </row>
-    <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I700" s="5"/>
-    </row>
-    <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I701" s="5"/>
-    </row>
-    <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I702" s="5"/>
-    </row>
-    <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I703" s="5"/>
-    </row>
-    <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I704" s="5"/>
-    </row>
-    <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I705" s="5"/>
-    </row>
-    <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I706" s="5"/>
-    </row>
-    <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I707" s="5"/>
-    </row>
-    <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I708" s="5"/>
-    </row>
-    <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I709" s="5"/>
-    </row>
-    <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I710" s="5"/>
-    </row>
-    <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I711" s="5"/>
-    </row>
-    <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I712" s="5"/>
-    </row>
-    <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I713" s="5"/>
-    </row>
-    <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I714" s="5"/>
-    </row>
-    <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I715" s="5"/>
-    </row>
-    <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I716" s="5"/>
-    </row>
-    <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I717" s="5"/>
-    </row>
-    <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I718" s="5"/>
-    </row>
-    <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I719" s="5"/>
-    </row>
-    <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I720" s="5"/>
-    </row>
-    <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I721" s="5"/>
-    </row>
-    <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I722" s="5"/>
-    </row>
-    <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I723" s="5"/>
-    </row>
-    <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I724" s="5"/>
-    </row>
-    <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I725" s="5"/>
-    </row>
-    <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I726" s="5"/>
-    </row>
-    <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I727" s="5"/>
-    </row>
-    <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I728" s="5"/>
-    </row>
-    <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I729" s="5"/>
-    </row>
-    <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I730" s="5"/>
-    </row>
-    <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I731" s="5"/>
-    </row>
-    <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I732" s="5"/>
-    </row>
-    <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I733" s="5"/>
-    </row>
-    <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I734" s="5"/>
-    </row>
-    <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I735" s="5"/>
-    </row>
-    <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I736" s="5"/>
-    </row>
-    <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I737" s="5"/>
-    </row>
-    <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I738" s="5"/>
-    </row>
-    <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I739" s="5"/>
-    </row>
-    <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I740" s="5"/>
-    </row>
-    <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I741" s="5"/>
-    </row>
-    <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I742" s="5"/>
-    </row>
-    <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I743" s="5"/>
-    </row>
-    <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I744" s="5"/>
-    </row>
-    <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I745" s="5"/>
-    </row>
-    <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I746" s="5"/>
-    </row>
-    <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I747" s="5"/>
-    </row>
-    <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I748" s="5"/>
-    </row>
-    <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I749" s="5"/>
-    </row>
-    <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I750" s="5"/>
-    </row>
-    <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I751" s="5"/>
-    </row>
-    <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I752" s="5"/>
-    </row>
-    <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I753" s="5"/>
-    </row>
-    <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I754" s="5"/>
-    </row>
-    <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I755" s="5"/>
-    </row>
-    <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I756" s="5"/>
-    </row>
-    <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I757" s="5"/>
-    </row>
-    <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I758" s="5"/>
-    </row>
-    <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I759" s="5"/>
-    </row>
-    <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I760" s="5"/>
-    </row>
-    <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I761" s="5"/>
-    </row>
-    <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I762" s="5"/>
-    </row>
-    <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I763" s="5"/>
-    </row>
-    <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I764" s="5"/>
-    </row>
-    <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I765" s="5"/>
-    </row>
-    <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I766" s="5"/>
-    </row>
-    <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I767" s="5"/>
-    </row>
-    <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I768" s="5"/>
-    </row>
-    <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I769" s="5"/>
-    </row>
-    <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I770" s="5"/>
-    </row>
-    <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I771" s="5"/>
-    </row>
-    <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I772" s="5"/>
-    </row>
-    <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I773" s="5"/>
-    </row>
-    <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I774" s="5"/>
-    </row>
-    <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I775" s="5"/>
-    </row>
-    <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I776" s="5"/>
-    </row>
-    <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I777" s="5"/>
-    </row>
-    <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I778" s="5"/>
-    </row>
-    <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I779" s="5"/>
-    </row>
-    <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I780" s="5"/>
-    </row>
-    <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I781" s="5"/>
-    </row>
-    <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I782" s="5"/>
-    </row>
-    <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I783" s="5"/>
-    </row>
-    <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I784" s="5"/>
-    </row>
-    <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I785" s="5"/>
-    </row>
-    <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I786" s="5"/>
-    </row>
-    <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I787" s="5"/>
-    </row>
-    <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I788" s="5"/>
-    </row>
-    <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I789" s="5"/>
-    </row>
-    <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I790" s="5"/>
-    </row>
-    <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I791" s="5"/>
-    </row>
-    <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I792" s="5"/>
-    </row>
-    <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I793" s="5"/>
-    </row>
-    <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I794" s="5"/>
-    </row>
-    <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I795" s="5"/>
-    </row>
-    <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I796" s="5"/>
-    </row>
-    <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I797" s="5"/>
-    </row>
-    <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I798" s="5"/>
-    </row>
-    <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I799" s="5"/>
-    </row>
-    <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I800" s="5"/>
-    </row>
-    <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I801" s="5"/>
-    </row>
-    <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I802" s="5"/>
-    </row>
-    <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I803" s="5"/>
-    </row>
-    <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I804" s="5"/>
-    </row>
-    <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I805" s="5"/>
-    </row>
-    <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I806" s="5"/>
-    </row>
-    <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I807" s="5"/>
-    </row>
-    <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I808" s="5"/>
-    </row>
-    <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I809" s="5"/>
-    </row>
-    <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I810" s="5"/>
-    </row>
-    <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I811" s="5"/>
-    </row>
-    <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I812" s="5"/>
-    </row>
-    <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I813" s="5"/>
-    </row>
-    <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I814" s="5"/>
-    </row>
-    <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I815" s="5"/>
-    </row>
-    <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I816" s="5"/>
-    </row>
-    <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I817" s="5"/>
-    </row>
-    <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I818" s="5"/>
-    </row>
-    <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I819" s="5"/>
-    </row>
-    <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I820" s="5"/>
-    </row>
-    <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I821" s="5"/>
-    </row>
-    <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I822" s="5"/>
-    </row>
-    <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I823" s="5"/>
-    </row>
-    <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I824" s="5"/>
-    </row>
-    <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I825" s="5"/>
-    </row>
-    <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I826" s="5"/>
-    </row>
-    <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I827" s="5"/>
-    </row>
-    <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I828" s="5"/>
-    </row>
-    <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I829" s="5"/>
-    </row>
-    <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I830" s="5"/>
-    </row>
-    <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I831" s="5"/>
-    </row>
-    <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I832" s="5"/>
-    </row>
-    <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I833" s="5"/>
-    </row>
-    <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I834" s="5"/>
-    </row>
-    <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I835" s="5"/>
-    </row>
-    <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I836" s="5"/>
-    </row>
-    <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I837" s="5"/>
-    </row>
-    <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I838" s="5"/>
-    </row>
-    <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I839" s="5"/>
-    </row>
-    <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I840" s="5"/>
-    </row>
-    <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I841" s="5"/>
-    </row>
-    <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I842" s="5"/>
-    </row>
-    <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I843" s="5"/>
-    </row>
-    <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I844" s="5"/>
-    </row>
-    <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I845" s="5"/>
-    </row>
-    <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I846" s="5"/>
-    </row>
-    <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I847" s="5"/>
-    </row>
-    <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I848" s="5"/>
-    </row>
-    <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I849" s="5"/>
-    </row>
-    <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I850" s="5"/>
-    </row>
-    <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I851" s="5"/>
-    </row>
-    <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I852" s="5"/>
-    </row>
-    <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I853" s="5"/>
-    </row>
-    <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I854" s="5"/>
-    </row>
-    <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I855" s="5"/>
-    </row>
-    <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I856" s="5"/>
-    </row>
-    <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I857" s="5"/>
-    </row>
-    <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I858" s="5"/>
-    </row>
-    <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I859" s="5"/>
-    </row>
-    <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I860" s="5"/>
-    </row>
-    <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I861" s="5"/>
-    </row>
-    <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I862" s="5"/>
-    </row>
-    <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I863" s="5"/>
-    </row>
-    <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I864" s="5"/>
-    </row>
-    <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I865" s="5"/>
-    </row>
-    <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I866" s="5"/>
-    </row>
-    <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I867" s="5"/>
-    </row>
-    <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I868" s="5"/>
-    </row>
-    <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I869" s="5"/>
-    </row>
-    <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I870" s="5"/>
-    </row>
-    <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I871" s="5"/>
-    </row>
-    <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I872" s="5"/>
-    </row>
-    <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I873" s="5"/>
-    </row>
-    <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I874" s="5"/>
-    </row>
-    <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I875" s="5"/>
-    </row>
-    <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I876" s="5"/>
-    </row>
-    <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I877" s="5"/>
-    </row>
-    <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I878" s="5"/>
-    </row>
-    <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I879" s="5"/>
-    </row>
-    <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I880" s="5"/>
-    </row>
-    <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I881" s="5"/>
-    </row>
-    <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I882" s="5"/>
-    </row>
-    <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I883" s="5"/>
-    </row>
-    <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I884" s="5"/>
-    </row>
-    <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I885" s="5"/>
-    </row>
-    <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I886" s="5"/>
-    </row>
-    <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I887" s="5"/>
-    </row>
-    <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I888" s="5"/>
-    </row>
-    <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I889" s="5"/>
-    </row>
-    <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I890" s="5"/>
-    </row>
-    <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I891" s="5"/>
-    </row>
-    <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I892" s="5"/>
-    </row>
-    <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I893" s="5"/>
-    </row>
-    <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I894" s="5"/>
-    </row>
-    <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I895" s="5"/>
-    </row>
-    <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I896" s="5"/>
-    </row>
-    <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I897" s="5"/>
-    </row>
-    <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I898" s="5"/>
-    </row>
-    <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I899" s="5"/>
-    </row>
-    <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I900" s="5"/>
-    </row>
-    <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I901" s="5"/>
-    </row>
-    <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I902" s="5"/>
-    </row>
-    <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I903" s="5"/>
-    </row>
-    <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I904" s="5"/>
-    </row>
-    <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I905" s="5"/>
-    </row>
-    <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I906" s="5"/>
-    </row>
-    <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I907" s="5"/>
-    </row>
-    <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I908" s="5"/>
-    </row>
-    <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I909" s="5"/>
-    </row>
-    <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I910" s="5"/>
-    </row>
-    <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I911" s="5"/>
-    </row>
-    <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I912" s="5"/>
-    </row>
-    <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I913" s="5"/>
-    </row>
-    <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I914" s="5"/>
-    </row>
-    <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I915" s="5"/>
-    </row>
-    <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I916" s="5"/>
-    </row>
-    <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I917" s="5"/>
-    </row>
-    <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I918" s="5"/>
-    </row>
-    <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I919" s="5"/>
-    </row>
-    <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I920" s="5"/>
-    </row>
-    <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I921" s="5"/>
-    </row>
-    <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I922" s="5"/>
-    </row>
-    <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I923" s="5"/>
-    </row>
-    <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I924" s="5"/>
-    </row>
-    <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I925" s="5"/>
-    </row>
-    <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I926" s="5"/>
-    </row>
-    <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I927" s="5"/>
-    </row>
-    <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I928" s="5"/>
-    </row>
-    <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I929" s="5"/>
-    </row>
-    <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I930" s="5"/>
-    </row>
-    <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I931" s="5"/>
-    </row>
-    <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I932" s="5"/>
-    </row>
-    <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I933" s="5"/>
-    </row>
-    <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I934" s="5"/>
-    </row>
-    <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I935" s="5"/>
-    </row>
-    <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I936" s="5"/>
-    </row>
-    <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I937" s="5"/>
-    </row>
-    <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I938" s="5"/>
-    </row>
-    <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I939" s="5"/>
-    </row>
-    <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I940" s="5"/>
-    </row>
-    <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I941" s="5"/>
-    </row>
-    <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I942" s="5"/>
-    </row>
-    <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I943" s="5"/>
-    </row>
-    <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I944" s="5"/>
-    </row>
-    <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I945" s="5"/>
-    </row>
-    <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I946" s="5"/>
-    </row>
-    <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I947" s="5"/>
-    </row>
-    <row r="948" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I948" s="5"/>
-    </row>
-    <row r="949" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I949" s="5"/>
-    </row>
-    <row r="950" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I950" s="5"/>
-    </row>
-    <row r="951" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I951" s="5"/>
-    </row>
-    <row r="952" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I952" s="5"/>
-    </row>
-    <row r="953" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I953" s="5"/>
-    </row>
-    <row r="954" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I954" s="5"/>
-    </row>
-    <row r="955" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I955" s="5"/>
-    </row>
-    <row r="956" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I956" s="5"/>
-    </row>
-    <row r="957" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I957" s="5"/>
-    </row>
-    <row r="958" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I958" s="5"/>
-    </row>
-    <row r="959" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I959" s="5"/>
-    </row>
-    <row r="960" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I960" s="5"/>
-    </row>
-    <row r="961" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I961" s="5"/>
-    </row>
-    <row r="962" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I962" s="5"/>
-    </row>
-    <row r="963" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I963" s="5"/>
-    </row>
-    <row r="964" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I964" s="5"/>
-    </row>
-    <row r="965" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I965" s="5"/>
-    </row>
-    <row r="966" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I966" s="5"/>
-    </row>
-    <row r="967" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I967" s="5"/>
-    </row>
-    <row r="968" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I968" s="5"/>
-    </row>
-    <row r="969" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I969" s="5"/>
-    </row>
-    <row r="970" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I970" s="5"/>
-    </row>
-    <row r="971" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I971" s="5"/>
-    </row>
-    <row r="972" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I972" s="5"/>
-    </row>
-    <row r="973" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I973" s="5"/>
-    </row>
-    <row r="974" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I974" s="5"/>
-    </row>
-    <row r="975" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I975" s="5"/>
-    </row>
-    <row r="976" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I976" s="5"/>
-    </row>
-    <row r="977" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I977" s="5"/>
-    </row>
-    <row r="978" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I978" s="5"/>
-    </row>
-    <row r="979" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I979" s="5"/>
-    </row>
-    <row r="980" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I980" s="5"/>
-    </row>
-    <row r="981" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I981" s="5"/>
-    </row>
-    <row r="982" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I982" s="5"/>
-    </row>
-    <row r="983" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I983" s="5"/>
-    </row>
-    <row r="984" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I984" s="5"/>
-    </row>
-    <row r="985" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I985" s="5"/>
-    </row>
-    <row r="986" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I986" s="5"/>
-    </row>
-    <row r="987" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I987" s="5"/>
-    </row>
-    <row r="988" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I988" s="5"/>
-    </row>
-    <row r="989" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I989" s="5"/>
-    </row>
-    <row r="990" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I990" s="5"/>
-    </row>
-    <row r="991" spans="9:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="I991" s="5"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="7"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="7"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="7"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="7"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="7"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="7"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="7"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="7"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="11:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="7"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="10:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="5"/>
+    </row>
+    <row r="152" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J196" s="5"/>
+    </row>
+    <row r="197" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J230" s="5"/>
+    </row>
+    <row r="231" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J239" s="5"/>
+    </row>
+    <row r="240" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J240" s="5"/>
+    </row>
+    <row r="241" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J242" s="5"/>
+    </row>
+    <row r="243" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J243" s="5"/>
+    </row>
+    <row r="244" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J244" s="5"/>
+    </row>
+    <row r="245" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J245" s="5"/>
+    </row>
+    <row r="246" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J247" s="5"/>
+    </row>
+    <row r="248" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J249" s="5"/>
+    </row>
+    <row r="250" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J250" s="5"/>
+    </row>
+    <row r="251" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J251" s="5"/>
+    </row>
+    <row r="252" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J252" s="5"/>
+    </row>
+    <row r="253" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J253" s="5"/>
+    </row>
+    <row r="254" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J254" s="5"/>
+    </row>
+    <row r="255" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J255" s="5"/>
+    </row>
+    <row r="256" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J256" s="5"/>
+    </row>
+    <row r="257" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J257" s="5"/>
+    </row>
+    <row r="258" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J258" s="5"/>
+    </row>
+    <row r="259" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J260" s="5"/>
+    </row>
+    <row r="261" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J261" s="5"/>
+    </row>
+    <row r="262" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J263" s="5"/>
+    </row>
+    <row r="264" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J264" s="5"/>
+    </row>
+    <row r="265" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J265" s="5"/>
+    </row>
+    <row r="266" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J266" s="5"/>
+    </row>
+    <row r="267" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J268" s="5"/>
+    </row>
+    <row r="269" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J269" s="5"/>
+    </row>
+    <row r="270" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J270" s="5"/>
+    </row>
+    <row r="271" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J271" s="5"/>
+    </row>
+    <row r="272" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J272" s="5"/>
+    </row>
+    <row r="273" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J273" s="5"/>
+    </row>
+    <row r="274" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J274" s="5"/>
+    </row>
+    <row r="275" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J275" s="5"/>
+    </row>
+    <row r="276" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J276" s="5"/>
+    </row>
+    <row r="277" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J277" s="5"/>
+    </row>
+    <row r="278" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J281" s="5"/>
+    </row>
+    <row r="282" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J282" s="5"/>
+    </row>
+    <row r="283" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J301" s="5"/>
+    </row>
+    <row r="302" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J305" s="5"/>
+    </row>
+    <row r="306" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J312" s="5"/>
+    </row>
+    <row r="313" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J313" s="5"/>
+    </row>
+    <row r="314" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J314" s="5"/>
+    </row>
+    <row r="315" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J315" s="5"/>
+    </row>
+    <row r="316" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J316" s="5"/>
+    </row>
+    <row r="317" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J317" s="5"/>
+    </row>
+    <row r="318" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J318" s="5"/>
+    </row>
+    <row r="319" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J319" s="5"/>
+    </row>
+    <row r="320" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J320" s="5"/>
+    </row>
+    <row r="321" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J321" s="5"/>
+    </row>
+    <row r="322" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J322" s="5"/>
+    </row>
+    <row r="323" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J323" s="5"/>
+    </row>
+    <row r="324" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J324" s="5"/>
+    </row>
+    <row r="325" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J325" s="5"/>
+    </row>
+    <row r="326" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J326" s="5"/>
+    </row>
+    <row r="327" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J327" s="5"/>
+    </row>
+    <row r="328" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J328" s="5"/>
+    </row>
+    <row r="329" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J329" s="5"/>
+    </row>
+    <row r="330" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J330" s="5"/>
+    </row>
+    <row r="331" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J331" s="5"/>
+    </row>
+    <row r="332" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J332" s="5"/>
+    </row>
+    <row r="333" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J333" s="5"/>
+    </row>
+    <row r="334" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J334" s="5"/>
+    </row>
+    <row r="335" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J335" s="5"/>
+    </row>
+    <row r="336" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J336" s="5"/>
+    </row>
+    <row r="337" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J337" s="5"/>
+    </row>
+    <row r="338" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J338" s="5"/>
+    </row>
+    <row r="339" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J339" s="5"/>
+    </row>
+    <row r="340" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J340" s="5"/>
+    </row>
+    <row r="341" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J341" s="5"/>
+    </row>
+    <row r="342" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J342" s="5"/>
+    </row>
+    <row r="343" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J343" s="5"/>
+    </row>
+    <row r="344" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J344" s="5"/>
+    </row>
+    <row r="345" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J345" s="5"/>
+    </row>
+    <row r="346" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J346" s="5"/>
+    </row>
+    <row r="347" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J347" s="5"/>
+    </row>
+    <row r="348" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J348" s="5"/>
+    </row>
+    <row r="349" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J349" s="5"/>
+    </row>
+    <row r="350" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J350" s="5"/>
+    </row>
+    <row r="351" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J351" s="5"/>
+    </row>
+    <row r="352" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J352" s="5"/>
+    </row>
+    <row r="353" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J353" s="5"/>
+    </row>
+    <row r="354" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J354" s="5"/>
+    </row>
+    <row r="355" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J355" s="5"/>
+    </row>
+    <row r="356" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J356" s="5"/>
+    </row>
+    <row r="357" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J357" s="5"/>
+    </row>
+    <row r="358" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J358" s="5"/>
+    </row>
+    <row r="359" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J359" s="5"/>
+    </row>
+    <row r="360" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J360" s="5"/>
+    </row>
+    <row r="361" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J361" s="5"/>
+    </row>
+    <row r="362" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J362" s="5"/>
+    </row>
+    <row r="363" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J363" s="5"/>
+    </row>
+    <row r="364" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J364" s="5"/>
+    </row>
+    <row r="365" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J365" s="5"/>
+    </row>
+    <row r="366" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J366" s="5"/>
+    </row>
+    <row r="367" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J367" s="5"/>
+    </row>
+    <row r="368" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J368" s="5"/>
+    </row>
+    <row r="369" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J369" s="5"/>
+    </row>
+    <row r="370" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J370" s="5"/>
+    </row>
+    <row r="371" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J371" s="5"/>
+    </row>
+    <row r="372" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J372" s="5"/>
+    </row>
+    <row r="373" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J373" s="5"/>
+    </row>
+    <row r="374" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J374" s="5"/>
+    </row>
+    <row r="375" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J375" s="5"/>
+    </row>
+    <row r="376" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J376" s="5"/>
+    </row>
+    <row r="377" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J377" s="5"/>
+    </row>
+    <row r="378" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J378" s="5"/>
+    </row>
+    <row r="379" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J379" s="5"/>
+    </row>
+    <row r="380" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J380" s="5"/>
+    </row>
+    <row r="381" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J381" s="5"/>
+    </row>
+    <row r="382" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J382" s="5"/>
+    </row>
+    <row r="383" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J383" s="5"/>
+    </row>
+    <row r="384" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J384" s="5"/>
+    </row>
+    <row r="385" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J385" s="5"/>
+    </row>
+    <row r="386" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J386" s="5"/>
+    </row>
+    <row r="387" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J387" s="5"/>
+    </row>
+    <row r="388" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J388" s="5"/>
+    </row>
+    <row r="389" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J389" s="5"/>
+    </row>
+    <row r="390" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J390" s="5"/>
+    </row>
+    <row r="391" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J391" s="5"/>
+    </row>
+    <row r="392" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J392" s="5"/>
+    </row>
+    <row r="393" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J393" s="5"/>
+    </row>
+    <row r="394" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J394" s="5"/>
+    </row>
+    <row r="395" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J395" s="5"/>
+    </row>
+    <row r="396" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J396" s="5"/>
+    </row>
+    <row r="397" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J397" s="5"/>
+    </row>
+    <row r="398" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J398" s="5"/>
+    </row>
+    <row r="399" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J399" s="5"/>
+    </row>
+    <row r="400" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J400" s="5"/>
+    </row>
+    <row r="401" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J401" s="5"/>
+    </row>
+    <row r="402" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J402" s="5"/>
+    </row>
+    <row r="403" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J403" s="5"/>
+    </row>
+    <row r="404" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J404" s="5"/>
+    </row>
+    <row r="405" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J405" s="5"/>
+    </row>
+    <row r="406" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J406" s="5"/>
+    </row>
+    <row r="407" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J407" s="5"/>
+    </row>
+    <row r="408" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J408" s="5"/>
+    </row>
+    <row r="409" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J409" s="5"/>
+    </row>
+    <row r="410" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J410" s="5"/>
+    </row>
+    <row r="411" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J411" s="5"/>
+    </row>
+    <row r="412" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J412" s="5"/>
+    </row>
+    <row r="413" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J413" s="5"/>
+    </row>
+    <row r="414" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J414" s="5"/>
+    </row>
+    <row r="415" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J415" s="5"/>
+    </row>
+    <row r="416" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J416" s="5"/>
+    </row>
+    <row r="417" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J417" s="5"/>
+    </row>
+    <row r="418" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J418" s="5"/>
+    </row>
+    <row r="419" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J419" s="5"/>
+    </row>
+    <row r="420" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J420" s="5"/>
+    </row>
+    <row r="421" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J421" s="5"/>
+    </row>
+    <row r="422" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J422" s="5"/>
+    </row>
+    <row r="423" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J423" s="5"/>
+    </row>
+    <row r="424" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J424" s="5"/>
+    </row>
+    <row r="425" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J425" s="5"/>
+    </row>
+    <row r="426" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J426" s="5"/>
+    </row>
+    <row r="427" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J427" s="5"/>
+    </row>
+    <row r="428" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J428" s="5"/>
+    </row>
+    <row r="429" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J429" s="5"/>
+    </row>
+    <row r="430" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J430" s="5"/>
+    </row>
+    <row r="431" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J431" s="5"/>
+    </row>
+    <row r="432" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J432" s="5"/>
+    </row>
+    <row r="433" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J433" s="5"/>
+    </row>
+    <row r="434" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J434" s="5"/>
+    </row>
+    <row r="435" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J435" s="5"/>
+    </row>
+    <row r="436" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J436" s="5"/>
+    </row>
+    <row r="437" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J437" s="5"/>
+    </row>
+    <row r="438" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J438" s="5"/>
+    </row>
+    <row r="439" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J439" s="5"/>
+    </row>
+    <row r="440" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J440" s="5"/>
+    </row>
+    <row r="441" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J441" s="5"/>
+    </row>
+    <row r="442" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J442" s="5"/>
+    </row>
+    <row r="443" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J443" s="5"/>
+    </row>
+    <row r="444" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J444" s="5"/>
+    </row>
+    <row r="445" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J445" s="5"/>
+    </row>
+    <row r="446" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J446" s="5"/>
+    </row>
+    <row r="447" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J447" s="5"/>
+    </row>
+    <row r="448" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J448" s="5"/>
+    </row>
+    <row r="449" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J449" s="5"/>
+    </row>
+    <row r="450" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J450" s="5"/>
+    </row>
+    <row r="451" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J451" s="5"/>
+    </row>
+    <row r="452" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J452" s="5"/>
+    </row>
+    <row r="453" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J453" s="5"/>
+    </row>
+    <row r="454" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J454" s="5"/>
+    </row>
+    <row r="455" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J455" s="5"/>
+    </row>
+    <row r="456" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J456" s="5"/>
+    </row>
+    <row r="457" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J457" s="5"/>
+    </row>
+    <row r="458" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J458" s="5"/>
+    </row>
+    <row r="459" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J459" s="5"/>
+    </row>
+    <row r="460" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J460" s="5"/>
+    </row>
+    <row r="461" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J461" s="5"/>
+    </row>
+    <row r="462" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J462" s="5"/>
+    </row>
+    <row r="463" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J463" s="5"/>
+    </row>
+    <row r="464" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J464" s="5"/>
+    </row>
+    <row r="465" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J465" s="5"/>
+    </row>
+    <row r="466" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J466" s="5"/>
+    </row>
+    <row r="467" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J467" s="5"/>
+    </row>
+    <row r="468" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J468" s="5"/>
+    </row>
+    <row r="469" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J469" s="5"/>
+    </row>
+    <row r="470" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J470" s="5"/>
+    </row>
+    <row r="471" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J471" s="5"/>
+    </row>
+    <row r="472" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J472" s="5"/>
+    </row>
+    <row r="473" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J473" s="5"/>
+    </row>
+    <row r="474" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J474" s="5"/>
+    </row>
+    <row r="475" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J475" s="5"/>
+    </row>
+    <row r="476" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J476" s="5"/>
+    </row>
+    <row r="477" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J477" s="5"/>
+    </row>
+    <row r="478" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J478" s="5"/>
+    </row>
+    <row r="479" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J479" s="5"/>
+    </row>
+    <row r="480" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J480" s="5"/>
+    </row>
+    <row r="481" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J481" s="5"/>
+    </row>
+    <row r="482" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J482" s="5"/>
+    </row>
+    <row r="483" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J483" s="5"/>
+    </row>
+    <row r="484" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J484" s="5"/>
+    </row>
+    <row r="485" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J485" s="5"/>
+    </row>
+    <row r="486" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J486" s="5"/>
+    </row>
+    <row r="487" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J487" s="5"/>
+    </row>
+    <row r="488" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J488" s="5"/>
+    </row>
+    <row r="489" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J489" s="5"/>
+    </row>
+    <row r="490" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J490" s="5"/>
+    </row>
+    <row r="491" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J491" s="5"/>
+    </row>
+    <row r="492" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J492" s="5"/>
+    </row>
+    <row r="493" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J493" s="5"/>
+    </row>
+    <row r="494" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J494" s="5"/>
+    </row>
+    <row r="495" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J495" s="5"/>
+    </row>
+    <row r="496" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J496" s="5"/>
+    </row>
+    <row r="497" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J497" s="5"/>
+    </row>
+    <row r="498" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J498" s="5"/>
+    </row>
+    <row r="499" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J499" s="5"/>
+    </row>
+    <row r="500" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J500" s="5"/>
+    </row>
+    <row r="501" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J501" s="5"/>
+    </row>
+    <row r="502" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J502" s="5"/>
+    </row>
+    <row r="503" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J503" s="5"/>
+    </row>
+    <row r="504" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J504" s="5"/>
+    </row>
+    <row r="505" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J505" s="5"/>
+    </row>
+    <row r="506" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J506" s="5"/>
+    </row>
+    <row r="507" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J507" s="5"/>
+    </row>
+    <row r="508" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J508" s="5"/>
+    </row>
+    <row r="509" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J509" s="5"/>
+    </row>
+    <row r="510" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J510" s="5"/>
+    </row>
+    <row r="511" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J511" s="5"/>
+    </row>
+    <row r="512" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J512" s="5"/>
+    </row>
+    <row r="513" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J513" s="5"/>
+    </row>
+    <row r="514" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J514" s="5"/>
+    </row>
+    <row r="515" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J515" s="5"/>
+    </row>
+    <row r="516" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J516" s="5"/>
+    </row>
+    <row r="517" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J517" s="5"/>
+    </row>
+    <row r="518" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J518" s="5"/>
+    </row>
+    <row r="519" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J519" s="5"/>
+    </row>
+    <row r="520" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J520" s="5"/>
+    </row>
+    <row r="521" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J521" s="5"/>
+    </row>
+    <row r="522" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J522" s="5"/>
+    </row>
+    <row r="523" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J523" s="5"/>
+    </row>
+    <row r="524" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J524" s="5"/>
+    </row>
+    <row r="525" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J525" s="5"/>
+    </row>
+    <row r="526" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J526" s="5"/>
+    </row>
+    <row r="527" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J527" s="5"/>
+    </row>
+    <row r="528" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J528" s="5"/>
+    </row>
+    <row r="529" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J529" s="5"/>
+    </row>
+    <row r="530" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J530" s="5"/>
+    </row>
+    <row r="531" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J531" s="5"/>
+    </row>
+    <row r="532" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J532" s="5"/>
+    </row>
+    <row r="533" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J533" s="5"/>
+    </row>
+    <row r="534" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J534" s="5"/>
+    </row>
+    <row r="535" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J535" s="5"/>
+    </row>
+    <row r="536" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J536" s="5"/>
+    </row>
+    <row r="537" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J537" s="5"/>
+    </row>
+    <row r="538" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J538" s="5"/>
+    </row>
+    <row r="539" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J539" s="5"/>
+    </row>
+    <row r="540" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J540" s="5"/>
+    </row>
+    <row r="541" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J541" s="5"/>
+    </row>
+    <row r="542" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J542" s="5"/>
+    </row>
+    <row r="543" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J543" s="5"/>
+    </row>
+    <row r="544" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J544" s="5"/>
+    </row>
+    <row r="545" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J545" s="5"/>
+    </row>
+    <row r="546" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J546" s="5"/>
+    </row>
+    <row r="547" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J547" s="5"/>
+    </row>
+    <row r="548" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J548" s="5"/>
+    </row>
+    <row r="549" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J549" s="5"/>
+    </row>
+    <row r="550" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J550" s="5"/>
+    </row>
+    <row r="551" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J551" s="5"/>
+    </row>
+    <row r="552" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J552" s="5"/>
+    </row>
+    <row r="553" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J553" s="5"/>
+    </row>
+    <row r="554" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J554" s="5"/>
+    </row>
+    <row r="555" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J555" s="5"/>
+    </row>
+    <row r="556" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J556" s="5"/>
+    </row>
+    <row r="557" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J557" s="5"/>
+    </row>
+    <row r="558" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J558" s="5"/>
+    </row>
+    <row r="559" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J559" s="5"/>
+    </row>
+    <row r="560" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J560" s="5"/>
+    </row>
+    <row r="561" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J561" s="5"/>
+    </row>
+    <row r="562" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J562" s="5"/>
+    </row>
+    <row r="563" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J563" s="5"/>
+    </row>
+    <row r="564" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J564" s="5"/>
+    </row>
+    <row r="565" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J565" s="5"/>
+    </row>
+    <row r="566" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J566" s="5"/>
+    </row>
+    <row r="567" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J567" s="5"/>
+    </row>
+    <row r="568" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J568" s="5"/>
+    </row>
+    <row r="569" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J569" s="5"/>
+    </row>
+    <row r="570" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J570" s="5"/>
+    </row>
+    <row r="571" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J571" s="5"/>
+    </row>
+    <row r="572" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J572" s="5"/>
+    </row>
+    <row r="573" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J573" s="5"/>
+    </row>
+    <row r="574" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J574" s="5"/>
+    </row>
+    <row r="575" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J575" s="5"/>
+    </row>
+    <row r="576" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J576" s="5"/>
+    </row>
+    <row r="577" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J577" s="5"/>
+    </row>
+    <row r="578" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J578" s="5"/>
+    </row>
+    <row r="579" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J579" s="5"/>
+    </row>
+    <row r="580" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J580" s="5"/>
+    </row>
+    <row r="581" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J581" s="5"/>
+    </row>
+    <row r="582" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J582" s="5"/>
+    </row>
+    <row r="583" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J583" s="5"/>
+    </row>
+    <row r="584" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J584" s="5"/>
+    </row>
+    <row r="585" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J585" s="5"/>
+    </row>
+    <row r="586" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J586" s="5"/>
+    </row>
+    <row r="587" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J587" s="5"/>
+    </row>
+    <row r="588" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J588" s="5"/>
+    </row>
+    <row r="589" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J589" s="5"/>
+    </row>
+    <row r="590" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J590" s="5"/>
+    </row>
+    <row r="591" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J591" s="5"/>
+    </row>
+    <row r="592" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J592" s="5"/>
+    </row>
+    <row r="593" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J593" s="5"/>
+    </row>
+    <row r="594" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J594" s="5"/>
+    </row>
+    <row r="595" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J595" s="5"/>
+    </row>
+    <row r="596" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J596" s="5"/>
+    </row>
+    <row r="597" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J597" s="5"/>
+    </row>
+    <row r="598" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J598" s="5"/>
+    </row>
+    <row r="599" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J599" s="5"/>
+    </row>
+    <row r="600" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J600" s="5"/>
+    </row>
+    <row r="601" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J601" s="5"/>
+    </row>
+    <row r="602" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J602" s="5"/>
+    </row>
+    <row r="603" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J603" s="5"/>
+    </row>
+    <row r="604" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J604" s="5"/>
+    </row>
+    <row r="605" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J605" s="5"/>
+    </row>
+    <row r="606" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J606" s="5"/>
+    </row>
+    <row r="607" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J607" s="5"/>
+    </row>
+    <row r="608" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J608" s="5"/>
+    </row>
+    <row r="609" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J609" s="5"/>
+    </row>
+    <row r="610" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J610" s="5"/>
+    </row>
+    <row r="611" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J611" s="5"/>
+    </row>
+    <row r="612" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J612" s="5"/>
+    </row>
+    <row r="613" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J613" s="5"/>
+    </row>
+    <row r="614" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J614" s="5"/>
+    </row>
+    <row r="615" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J615" s="5"/>
+    </row>
+    <row r="616" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J616" s="5"/>
+    </row>
+    <row r="617" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J617" s="5"/>
+    </row>
+    <row r="618" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J618" s="5"/>
+    </row>
+    <row r="619" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J619" s="5"/>
+    </row>
+    <row r="620" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J620" s="5"/>
+    </row>
+    <row r="621" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J621" s="5"/>
+    </row>
+    <row r="622" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J622" s="5"/>
+    </row>
+    <row r="623" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J623" s="5"/>
+    </row>
+    <row r="624" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J624" s="5"/>
+    </row>
+    <row r="625" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J625" s="5"/>
+    </row>
+    <row r="626" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J626" s="5"/>
+    </row>
+    <row r="627" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J627" s="5"/>
+    </row>
+    <row r="628" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J628" s="5"/>
+    </row>
+    <row r="629" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J629" s="5"/>
+    </row>
+    <row r="630" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J630" s="5"/>
+    </row>
+    <row r="631" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J631" s="5"/>
+    </row>
+    <row r="632" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J632" s="5"/>
+    </row>
+    <row r="633" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J633" s="5"/>
+    </row>
+    <row r="634" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J634" s="5"/>
+    </row>
+    <row r="635" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J635" s="5"/>
+    </row>
+    <row r="636" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J636" s="5"/>
+    </row>
+    <row r="637" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J637" s="5"/>
+    </row>
+    <row r="638" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J638" s="5"/>
+    </row>
+    <row r="639" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J639" s="5"/>
+    </row>
+    <row r="640" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J640" s="5"/>
+    </row>
+    <row r="641" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J641" s="5"/>
+    </row>
+    <row r="642" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J642" s="5"/>
+    </row>
+    <row r="643" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J643" s="5"/>
+    </row>
+    <row r="644" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J644" s="5"/>
+    </row>
+    <row r="645" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J645" s="5"/>
+    </row>
+    <row r="646" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J646" s="5"/>
+    </row>
+    <row r="647" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J647" s="5"/>
+    </row>
+    <row r="648" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J648" s="5"/>
+    </row>
+    <row r="649" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J649" s="5"/>
+    </row>
+    <row r="650" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J650" s="5"/>
+    </row>
+    <row r="651" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J651" s="5"/>
+    </row>
+    <row r="652" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J652" s="5"/>
+    </row>
+    <row r="653" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J653" s="5"/>
+    </row>
+    <row r="654" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J654" s="5"/>
+    </row>
+    <row r="655" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J655" s="5"/>
+    </row>
+    <row r="656" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J656" s="5"/>
+    </row>
+    <row r="657" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J657" s="5"/>
+    </row>
+    <row r="658" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J658" s="5"/>
+    </row>
+    <row r="659" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J659" s="5"/>
+    </row>
+    <row r="660" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J660" s="5"/>
+    </row>
+    <row r="661" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J661" s="5"/>
+    </row>
+    <row r="662" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J662" s="5"/>
+    </row>
+    <row r="663" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J663" s="5"/>
+    </row>
+    <row r="664" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J664" s="5"/>
+    </row>
+    <row r="665" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J665" s="5"/>
+    </row>
+    <row r="666" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J666" s="5"/>
+    </row>
+    <row r="667" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J667" s="5"/>
+    </row>
+    <row r="668" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J668" s="5"/>
+    </row>
+    <row r="669" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J669" s="5"/>
+    </row>
+    <row r="670" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J670" s="5"/>
+    </row>
+    <row r="671" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J671" s="5"/>
+    </row>
+    <row r="672" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J672" s="5"/>
+    </row>
+    <row r="673" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J673" s="5"/>
+    </row>
+    <row r="674" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J674" s="5"/>
+    </row>
+    <row r="675" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J675" s="5"/>
+    </row>
+    <row r="676" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J676" s="5"/>
+    </row>
+    <row r="677" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J677" s="5"/>
+    </row>
+    <row r="678" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J678" s="5"/>
+    </row>
+    <row r="679" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J679" s="5"/>
+    </row>
+    <row r="680" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J680" s="5"/>
+    </row>
+    <row r="681" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J681" s="5"/>
+    </row>
+    <row r="682" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J682" s="5"/>
+    </row>
+    <row r="683" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J683" s="5"/>
+    </row>
+    <row r="684" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J684" s="5"/>
+    </row>
+    <row r="685" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J685" s="5"/>
+    </row>
+    <row r="686" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J686" s="5"/>
+    </row>
+    <row r="687" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J687" s="5"/>
+    </row>
+    <row r="688" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J688" s="5"/>
+    </row>
+    <row r="689" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J689" s="5"/>
+    </row>
+    <row r="690" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J690" s="5"/>
+    </row>
+    <row r="691" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J691" s="5"/>
+    </row>
+    <row r="692" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J692" s="5"/>
+    </row>
+    <row r="693" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J693" s="5"/>
+    </row>
+    <row r="694" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J694" s="5"/>
+    </row>
+    <row r="695" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J695" s="5"/>
+    </row>
+    <row r="696" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J696" s="5"/>
+    </row>
+    <row r="697" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J697" s="5"/>
+    </row>
+    <row r="698" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J698" s="5"/>
+    </row>
+    <row r="699" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J699" s="5"/>
+    </row>
+    <row r="700" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J700" s="5"/>
+    </row>
+    <row r="701" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J701" s="5"/>
+    </row>
+    <row r="702" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J702" s="5"/>
+    </row>
+    <row r="703" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J703" s="5"/>
+    </row>
+    <row r="704" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J704" s="5"/>
+    </row>
+    <row r="705" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J705" s="5"/>
+    </row>
+    <row r="706" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J706" s="5"/>
+    </row>
+    <row r="707" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J707" s="5"/>
+    </row>
+    <row r="708" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J708" s="5"/>
+    </row>
+    <row r="709" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J709" s="5"/>
+    </row>
+    <row r="710" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J710" s="5"/>
+    </row>
+    <row r="711" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J711" s="5"/>
+    </row>
+    <row r="712" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J712" s="5"/>
+    </row>
+    <row r="713" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J713" s="5"/>
+    </row>
+    <row r="714" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J714" s="5"/>
+    </row>
+    <row r="715" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J715" s="5"/>
+    </row>
+    <row r="716" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J716" s="5"/>
+    </row>
+    <row r="717" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J717" s="5"/>
+    </row>
+    <row r="718" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J718" s="5"/>
+    </row>
+    <row r="719" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J719" s="5"/>
+    </row>
+    <row r="720" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J720" s="5"/>
+    </row>
+    <row r="721" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J721" s="5"/>
+    </row>
+    <row r="722" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J722" s="5"/>
+    </row>
+    <row r="723" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J723" s="5"/>
+    </row>
+    <row r="724" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J724" s="5"/>
+    </row>
+    <row r="725" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J725" s="5"/>
+    </row>
+    <row r="726" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J726" s="5"/>
+    </row>
+    <row r="727" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J727" s="5"/>
+    </row>
+    <row r="728" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J728" s="5"/>
+    </row>
+    <row r="729" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J729" s="5"/>
+    </row>
+    <row r="730" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J730" s="5"/>
+    </row>
+    <row r="731" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J731" s="5"/>
+    </row>
+    <row r="732" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J732" s="5"/>
+    </row>
+    <row r="733" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J733" s="5"/>
+    </row>
+    <row r="734" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J734" s="5"/>
+    </row>
+    <row r="735" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J735" s="5"/>
+    </row>
+    <row r="736" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J736" s="5"/>
+    </row>
+    <row r="737" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J737" s="5"/>
+    </row>
+    <row r="738" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J738" s="5"/>
+    </row>
+    <row r="739" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J739" s="5"/>
+    </row>
+    <row r="740" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J740" s="5"/>
+    </row>
+    <row r="741" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J741" s="5"/>
+    </row>
+    <row r="742" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J742" s="5"/>
+    </row>
+    <row r="743" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J743" s="5"/>
+    </row>
+    <row r="744" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J744" s="5"/>
+    </row>
+    <row r="745" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J745" s="5"/>
+    </row>
+    <row r="746" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J746" s="5"/>
+    </row>
+    <row r="747" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J747" s="5"/>
+    </row>
+    <row r="748" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J748" s="5"/>
+    </row>
+    <row r="749" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J749" s="5"/>
+    </row>
+    <row r="750" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J750" s="5"/>
+    </row>
+    <row r="751" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J751" s="5"/>
+    </row>
+    <row r="752" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J752" s="5"/>
+    </row>
+    <row r="753" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J753" s="5"/>
+    </row>
+    <row r="754" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J754" s="5"/>
+    </row>
+    <row r="755" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J755" s="5"/>
+    </row>
+    <row r="756" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J756" s="5"/>
+    </row>
+    <row r="757" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J757" s="5"/>
+    </row>
+    <row r="758" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J758" s="5"/>
+    </row>
+    <row r="759" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J759" s="5"/>
+    </row>
+    <row r="760" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J760" s="5"/>
+    </row>
+    <row r="761" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J761" s="5"/>
+    </row>
+    <row r="762" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J762" s="5"/>
+    </row>
+    <row r="763" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J763" s="5"/>
+    </row>
+    <row r="764" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J764" s="5"/>
+    </row>
+    <row r="765" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J765" s="5"/>
+    </row>
+    <row r="766" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J766" s="5"/>
+    </row>
+    <row r="767" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J767" s="5"/>
+    </row>
+    <row r="768" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J768" s="5"/>
+    </row>
+    <row r="769" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J769" s="5"/>
+    </row>
+    <row r="770" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J770" s="5"/>
+    </row>
+    <row r="771" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J771" s="5"/>
+    </row>
+    <row r="772" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J772" s="5"/>
+    </row>
+    <row r="773" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J773" s="5"/>
+    </row>
+    <row r="774" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J774" s="5"/>
+    </row>
+    <row r="775" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J775" s="5"/>
+    </row>
+    <row r="776" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J776" s="5"/>
+    </row>
+    <row r="777" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J777" s="5"/>
+    </row>
+    <row r="778" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J778" s="5"/>
+    </row>
+    <row r="779" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J779" s="5"/>
+    </row>
+    <row r="780" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J780" s="5"/>
+    </row>
+    <row r="781" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J781" s="5"/>
+    </row>
+    <row r="782" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J782" s="5"/>
+    </row>
+    <row r="783" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J783" s="5"/>
+    </row>
+    <row r="784" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J784" s="5"/>
+    </row>
+    <row r="785" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J785" s="5"/>
+    </row>
+    <row r="786" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J786" s="5"/>
+    </row>
+    <row r="787" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J787" s="5"/>
+    </row>
+    <row r="788" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J788" s="5"/>
+    </row>
+    <row r="789" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J789" s="5"/>
+    </row>
+    <row r="790" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J790" s="5"/>
+    </row>
+    <row r="791" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J791" s="5"/>
+    </row>
+    <row r="792" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J792" s="5"/>
+    </row>
+    <row r="793" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J793" s="5"/>
+    </row>
+    <row r="794" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J794" s="5"/>
+    </row>
+    <row r="795" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J795" s="5"/>
+    </row>
+    <row r="796" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J796" s="5"/>
+    </row>
+    <row r="797" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J797" s="5"/>
+    </row>
+    <row r="798" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J798" s="5"/>
+    </row>
+    <row r="799" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J799" s="5"/>
+    </row>
+    <row r="800" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J800" s="5"/>
+    </row>
+    <row r="801" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J801" s="5"/>
+    </row>
+    <row r="802" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J802" s="5"/>
+    </row>
+    <row r="803" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J803" s="5"/>
+    </row>
+    <row r="804" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J804" s="5"/>
+    </row>
+    <row r="805" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J805" s="5"/>
+    </row>
+    <row r="806" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J806" s="5"/>
+    </row>
+    <row r="807" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J807" s="5"/>
+    </row>
+    <row r="808" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J808" s="5"/>
+    </row>
+    <row r="809" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J809" s="5"/>
+    </row>
+    <row r="810" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J810" s="5"/>
+    </row>
+    <row r="811" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J811" s="5"/>
+    </row>
+    <row r="812" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J812" s="5"/>
+    </row>
+    <row r="813" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J813" s="5"/>
+    </row>
+    <row r="814" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J814" s="5"/>
+    </row>
+    <row r="815" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J815" s="5"/>
+    </row>
+    <row r="816" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J816" s="5"/>
+    </row>
+    <row r="817" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J817" s="5"/>
+    </row>
+    <row r="818" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J818" s="5"/>
+    </row>
+    <row r="819" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J819" s="5"/>
+    </row>
+    <row r="820" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J820" s="5"/>
+    </row>
+    <row r="821" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J821" s="5"/>
+    </row>
+    <row r="822" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J822" s="5"/>
+    </row>
+    <row r="823" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J823" s="5"/>
+    </row>
+    <row r="824" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J824" s="5"/>
+    </row>
+    <row r="825" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J825" s="5"/>
+    </row>
+    <row r="826" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J826" s="5"/>
+    </row>
+    <row r="827" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J827" s="5"/>
+    </row>
+    <row r="828" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J828" s="5"/>
+    </row>
+    <row r="829" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J829" s="5"/>
+    </row>
+    <row r="830" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J830" s="5"/>
+    </row>
+    <row r="831" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J831" s="5"/>
+    </row>
+    <row r="832" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J832" s="5"/>
+    </row>
+    <row r="833" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J833" s="5"/>
+    </row>
+    <row r="834" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J834" s="5"/>
+    </row>
+    <row r="835" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J835" s="5"/>
+    </row>
+    <row r="836" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J836" s="5"/>
+    </row>
+    <row r="837" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J837" s="5"/>
+    </row>
+    <row r="838" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J838" s="5"/>
+    </row>
+    <row r="839" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J839" s="5"/>
+    </row>
+    <row r="840" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J840" s="5"/>
+    </row>
+    <row r="841" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J841" s="5"/>
+    </row>
+    <row r="842" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J842" s="5"/>
+    </row>
+    <row r="843" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J843" s="5"/>
+    </row>
+    <row r="844" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J844" s="5"/>
+    </row>
+    <row r="845" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J845" s="5"/>
+    </row>
+    <row r="846" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J846" s="5"/>
+    </row>
+    <row r="847" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J847" s="5"/>
+    </row>
+    <row r="848" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J848" s="5"/>
+    </row>
+    <row r="849" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J849" s="5"/>
+    </row>
+    <row r="850" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J850" s="5"/>
+    </row>
+    <row r="851" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J851" s="5"/>
+    </row>
+    <row r="852" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J852" s="5"/>
+    </row>
+    <row r="853" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J853" s="5"/>
+    </row>
+    <row r="854" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J854" s="5"/>
+    </row>
+    <row r="855" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J855" s="5"/>
+    </row>
+    <row r="856" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J856" s="5"/>
+    </row>
+    <row r="857" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J857" s="5"/>
+    </row>
+    <row r="858" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J858" s="5"/>
+    </row>
+    <row r="859" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J859" s="5"/>
+    </row>
+    <row r="860" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J860" s="5"/>
+    </row>
+    <row r="861" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J861" s="5"/>
+    </row>
+    <row r="862" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J862" s="5"/>
+    </row>
+    <row r="863" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J863" s="5"/>
+    </row>
+    <row r="864" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J864" s="5"/>
+    </row>
+    <row r="865" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J865" s="5"/>
+    </row>
+    <row r="866" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J866" s="5"/>
+    </row>
+    <row r="867" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J867" s="5"/>
+    </row>
+    <row r="868" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J868" s="5"/>
+    </row>
+    <row r="869" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J869" s="5"/>
+    </row>
+    <row r="870" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J870" s="5"/>
+    </row>
+    <row r="871" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J871" s="5"/>
+    </row>
+    <row r="872" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J872" s="5"/>
+    </row>
+    <row r="873" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J873" s="5"/>
+    </row>
+    <row r="874" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J874" s="5"/>
+    </row>
+    <row r="875" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J875" s="5"/>
+    </row>
+    <row r="876" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J876" s="5"/>
+    </row>
+    <row r="877" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J877" s="5"/>
+    </row>
+    <row r="878" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J878" s="5"/>
+    </row>
+    <row r="879" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J879" s="5"/>
+    </row>
+    <row r="880" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J880" s="5"/>
+    </row>
+    <row r="881" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J881" s="5"/>
+    </row>
+    <row r="882" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J882" s="5"/>
+    </row>
+    <row r="883" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J883" s="5"/>
+    </row>
+    <row r="884" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J884" s="5"/>
+    </row>
+    <row r="885" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J885" s="5"/>
+    </row>
+    <row r="886" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J886" s="5"/>
+    </row>
+    <row r="887" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J887" s="5"/>
+    </row>
+    <row r="888" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J888" s="5"/>
+    </row>
+    <row r="889" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J889" s="5"/>
+    </row>
+    <row r="890" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J890" s="5"/>
+    </row>
+    <row r="891" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J891" s="5"/>
+    </row>
+    <row r="892" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J892" s="5"/>
+    </row>
+    <row r="893" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J893" s="5"/>
+    </row>
+    <row r="894" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J894" s="5"/>
+    </row>
+    <row r="895" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J895" s="5"/>
+    </row>
+    <row r="896" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J896" s="5"/>
+    </row>
+    <row r="897" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J897" s="5"/>
+    </row>
+    <row r="898" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J898" s="5"/>
+    </row>
+    <row r="899" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J899" s="5"/>
+    </row>
+    <row r="900" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J900" s="5"/>
+    </row>
+    <row r="901" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J901" s="5"/>
+    </row>
+    <row r="902" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J902" s="5"/>
+    </row>
+    <row r="903" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J903" s="5"/>
+    </row>
+    <row r="904" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J904" s="5"/>
+    </row>
+    <row r="905" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J905" s="5"/>
+    </row>
+    <row r="906" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J906" s="5"/>
+    </row>
+    <row r="907" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J907" s="5"/>
+    </row>
+    <row r="908" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J908" s="5"/>
+    </row>
+    <row r="909" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J909" s="5"/>
+    </row>
+    <row r="910" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J910" s="5"/>
+    </row>
+    <row r="911" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J911" s="5"/>
+    </row>
+    <row r="912" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J912" s="5"/>
+    </row>
+    <row r="913" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J913" s="5"/>
+    </row>
+    <row r="914" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J914" s="5"/>
+    </row>
+    <row r="915" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J915" s="5"/>
+    </row>
+    <row r="916" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J916" s="5"/>
+    </row>
+    <row r="917" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J917" s="5"/>
+    </row>
+    <row r="918" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J918" s="5"/>
+    </row>
+    <row r="919" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J919" s="5"/>
+    </row>
+    <row r="920" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J920" s="5"/>
+    </row>
+    <row r="921" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J921" s="5"/>
+    </row>
+    <row r="922" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J922" s="5"/>
+    </row>
+    <row r="923" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J923" s="5"/>
+    </row>
+    <row r="924" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J924" s="5"/>
+    </row>
+    <row r="925" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J925" s="5"/>
+    </row>
+    <row r="926" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J926" s="5"/>
+    </row>
+    <row r="927" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J927" s="5"/>
+    </row>
+    <row r="928" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J928" s="5"/>
+    </row>
+    <row r="929" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J929" s="5"/>
+    </row>
+    <row r="930" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J930" s="5"/>
+    </row>
+    <row r="931" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J931" s="5"/>
+    </row>
+    <row r="932" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J932" s="5"/>
+    </row>
+    <row r="933" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J933" s="5"/>
+    </row>
+    <row r="934" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J934" s="5"/>
+    </row>
+    <row r="935" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J935" s="5"/>
+    </row>
+    <row r="936" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J936" s="5"/>
+    </row>
+    <row r="937" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J937" s="5"/>
+    </row>
+    <row r="938" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J938" s="5"/>
+    </row>
+    <row r="939" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J939" s="5"/>
+    </row>
+    <row r="940" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J940" s="5"/>
+    </row>
+    <row r="941" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J941" s="5"/>
+    </row>
+    <row r="942" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J942" s="5"/>
+    </row>
+    <row r="943" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J943" s="5"/>
+    </row>
+    <row r="944" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J944" s="5"/>
+    </row>
+    <row r="945" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J945" s="5"/>
+    </row>
+    <row r="946" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J946" s="5"/>
+    </row>
+    <row r="947" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J947" s="5"/>
+    </row>
+    <row r="948" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J948" s="5"/>
+    </row>
+    <row r="949" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J949" s="5"/>
+    </row>
+    <row r="950" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J950" s="5"/>
+    </row>
+    <row r="951" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J951" s="5"/>
+    </row>
+    <row r="952" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J952" s="5"/>
+    </row>
+    <row r="953" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J953" s="5"/>
+    </row>
+    <row r="954" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J954" s="5"/>
+    </row>
+    <row r="955" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J955" s="5"/>
+    </row>
+    <row r="956" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J956" s="5"/>
+    </row>
+    <row r="957" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J957" s="5"/>
+    </row>
+    <row r="958" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J958" s="5"/>
+    </row>
+    <row r="959" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J959" s="5"/>
+    </row>
+    <row r="960" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J960" s="5"/>
+    </row>
+    <row r="961" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J961" s="5"/>
+    </row>
+    <row r="962" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J962" s="5"/>
+    </row>
+    <row r="963" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J963" s="5"/>
+    </row>
+    <row r="964" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J964" s="5"/>
+    </row>
+    <row r="965" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J965" s="5"/>
+    </row>
+    <row r="966" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J966" s="5"/>
+    </row>
+    <row r="967" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J967" s="5"/>
+    </row>
+    <row r="968" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J968" s="5"/>
+    </row>
+    <row r="969" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J969" s="5"/>
+    </row>
+    <row r="970" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J970" s="5"/>
+    </row>
+    <row r="971" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J971" s="5"/>
+    </row>
+    <row r="972" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J972" s="5"/>
+    </row>
+    <row r="973" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J973" s="5"/>
+    </row>
+    <row r="974" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J974" s="5"/>
+    </row>
+    <row r="975" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J975" s="5"/>
+    </row>
+    <row r="976" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J976" s="5"/>
+    </row>
+    <row r="977" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J977" s="5"/>
+    </row>
+    <row r="978" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J978" s="5"/>
+    </row>
+    <row r="979" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J979" s="5"/>
+    </row>
+    <row r="980" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J980" s="5"/>
+    </row>
+    <row r="981" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J981" s="5"/>
+    </row>
+    <row r="982" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J982" s="5"/>
+    </row>
+    <row r="983" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J983" s="5"/>
+    </row>
+    <row r="984" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J984" s="5"/>
+    </row>
+    <row r="985" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J985" s="5"/>
+    </row>
+    <row r="986" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J986" s="5"/>
+    </row>
+    <row r="987" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J987" s="5"/>
+    </row>
+    <row r="988" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J988" s="5"/>
+    </row>
+    <row r="989" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J989" s="5"/>
+    </row>
+    <row r="990" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J990" s="5"/>
+    </row>
+    <row r="991" spans="10:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J991" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Z9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{DCD97451-893F-7148-8049-F897765063FA}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{BDF60E3B-1C64-A944-A25E-E8D55C4A99B3}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{EA34BC43-F0E1-AE45-86C3-19661BA2F265}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{591DEF8D-6FC8-D64B-9106-F3CE330E2FDE}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{DCD97451-893F-7148-8049-F897765063FA}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{BDF60E3B-1C64-A944-A25E-E8D55C4A99B3}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{EA34BC43-F0E1-AE45-86C3-19661BA2F265}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{591DEF8D-6FC8-D64B-9106-F3CE330E2FDE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -6105,7 +6174,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -13058,12 +13127,12 @@
   <sheetPr>
     <tabColor rgb="FFD6E3BC"/>
   </sheetPr>
-  <dimension ref="A1:AA1012"/>
+  <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13207,29 +13276,30 @@
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
     </row>
-    <row r="4" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>296</v>
+      <c r="B4" s="55" t="s">
+        <v>336</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>305</v>
+        <v>59</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>337</v>
       </c>
       <c r="E4" s="28"/>
-      <c r="F4" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="F4" s="56" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -13248,30 +13318,26 @@
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
     </row>
-    <row r="5" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>308</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G5" s="27"/>
       <c r="H5" s="26" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
@@ -13293,25 +13359,31 @@
       <c r="Z5" s="25"/>
       <c r="AA5" s="25"/>
     </row>
-    <row r="6" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="28"/>
+        <v>307</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>308</v>
+      </c>
       <c r="F6" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26"/>
+        <v>309</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>300</v>
+      </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
       <c r="K6" s="25"/>
@@ -13332,29 +13404,25 @@
       <c r="Z6" s="25"/>
       <c r="AA6" s="25"/>
     </row>
-    <row r="7" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>288</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="25"/>
@@ -13380,23 +13448,23 @@
         <v>61</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>285</v>
+        <v>62</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>324</v>
+        <v>293</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -13418,25 +13486,29 @@
       <c r="Z8" s="25"/>
       <c r="AA8" s="25"/>
     </row>
-    <row r="9" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26"/>
+        <v>166</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>287</v>
+      </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="25"/>
@@ -13457,22 +13529,22 @@
       <c r="Z9" s="25"/>
       <c r="AA9" s="25"/>
     </row>
-    <row r="10" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>334</v>
+      <c r="B10" s="29" t="s">
+        <v>294</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="26"/>
@@ -13496,24 +13568,22 @@
       <c r="Z10" s="25"/>
       <c r="AA10" s="25"/>
     </row>
-    <row r="11" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>298</v>
+      <c r="B11" s="53" t="s">
+        <v>334</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>314</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E11" s="28"/>
       <c r="F11" s="28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="26"/>
@@ -13537,31 +13607,27 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="1:27" ht="306" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>63</v>
+        <v>313</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>191</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="41"/>
       <c r="J12" s="41"/>
       <c r="K12" s="25"/>
@@ -13582,31 +13648,33 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="25"/>
     </row>
-    <row r="13" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="306" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+        <v>211</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -13625,28 +13693,28 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
     </row>
-    <row r="14" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
-        <v>69</v>
+      <c r="F14" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>70</v>
+        <v>274</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>329</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -13668,25 +13736,29 @@
       <c r="Z14" s="25"/>
       <c r="AA14" s="25"/>
     </row>
-    <row r="15" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
+        <v>69</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -13707,22 +13779,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
     </row>
-    <row r="16" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="26"/>
@@ -13746,31 +13818,25 @@
       <c r="Z16" s="25"/>
       <c r="AA16" s="25"/>
     </row>
-    <row r="17" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>79</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -13791,25 +13857,31 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
     </row>
-    <row r="18" spans="1:27" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="F18" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>79</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -13830,31 +13902,25 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="25"/>
     </row>
-    <row r="19" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>221</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -13875,26 +13941,26 @@
       <c r="Z19" s="25"/>
       <c r="AA19" s="25"/>
     </row>
-    <row r="20" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="27"/>
+      <c r="B20" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>344</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -13916,27 +13982,31 @@
       <c r="Z20" s="25"/>
       <c r="AA20" s="25"/>
     </row>
-    <row r="21" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
+        <v>84</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>221</v>
+      </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -13957,22 +14027,24 @@
       <c r="Z21" s="25"/>
       <c r="AA21" s="25"/>
     </row>
-    <row r="22" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="F22" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="26"/>
@@ -13996,22 +14068,24 @@
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
     </row>
-    <row r="23" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>91</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="26"/>
@@ -14035,22 +14109,22 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
     </row>
-    <row r="24" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="37" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="26"/>
@@ -14074,22 +14148,22 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
     </row>
-    <row r="25" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="37" t="s">
-        <v>99</v>
+      <c r="F25" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="26"/>
@@ -14113,25 +14187,25 @@
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
     </row>
-    <row r="26" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="21"/>
+      <c r="D26" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -14152,29 +14226,26 @@
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
     </row>
-    <row r="27" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>188</v>
-      </c>
+    <row r="27" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -14194,29 +14265,25 @@
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
     </row>
-    <row r="28" spans="1:27" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="48" t="s">
-        <v>330</v>
-      </c>
+    <row r="28" spans="1:27" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -14237,26 +14304,29 @@
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
     </row>
-    <row r="29" spans="1:27" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A29" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="25"/>
+      <c r="D29" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -14276,25 +14346,29 @@
       <c r="Z29" s="25"/>
       <c r="AA29" s="25"/>
     </row>
-    <row r="30" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="F30" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G30" s="27"/>
-      <c r="H30" s="26"/>
+      <c r="H30" s="48" t="s">
+        <v>330</v>
+      </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -14315,22 +14389,22 @@
       <c r="Z30" s="25"/>
       <c r="AA30" s="25"/>
     </row>
-    <row r="31" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E31" s="28"/>
-      <c r="F31" s="28" t="s">
-        <v>109</v>
+      <c r="F31" s="37" t="s">
+        <v>286</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="26"/>
@@ -14354,22 +14428,22 @@
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
     </row>
-    <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>276</v>
+        <v>106</v>
       </c>
       <c r="E32" s="28"/>
-      <c r="F32" s="37" t="s">
-        <v>280</v>
+      <c r="F32" s="28" t="s">
+        <v>107</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="26"/>
@@ -14393,22 +14467,22 @@
       <c r="Z32" s="25"/>
       <c r="AA32" s="25"/>
     </row>
-    <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="26"/>
@@ -14437,17 +14511,17 @@
         <v>281</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="E34" s="28"/>
-      <c r="F34" s="28" t="s">
-        <v>113</v>
+      <c r="F34" s="37" t="s">
+        <v>280</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="26"/>
@@ -14471,25 +14545,25 @@
       <c r="Z34" s="25"/>
       <c r="AA34" s="25"/>
     </row>
-    <row r="35" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="F35" s="28" t="s">
+        <v>111</v>
+      </c>
       <c r="G35" s="27"/>
-      <c r="H35" s="26" t="s">
-        <v>115</v>
-      </c>
+      <c r="H35" s="26"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -14510,25 +14584,25 @@
       <c r="Z35" s="25"/>
       <c r="AA35" s="25"/>
     </row>
-    <row r="36" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="G36" s="27"/>
-      <c r="H36" s="26" t="s">
-        <v>117</v>
-      </c>
+      <c r="H36" s="26"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -14554,25 +14628,19 @@
         <v>281</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>277</v>
+        <v>22</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>278</v>
-      </c>
+      <c r="D37" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27"/>
       <c r="H37" s="26" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
@@ -14594,30 +14662,24 @@
       <c r="Z37" s="25"/>
       <c r="AA37" s="25"/>
     </row>
-    <row r="38" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>224</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="26" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
@@ -14639,30 +14701,30 @@
       <c r="Z38" s="25"/>
       <c r="AA38" s="25"/>
     </row>
-    <row r="39" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>218</v>
+      <c r="D39" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>60</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -14684,30 +14746,30 @@
       <c r="Z39" s="25"/>
       <c r="AA39" s="25"/>
     </row>
-    <row r="40" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+    <row r="40" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>220</v>
+      <c r="D40" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
@@ -14729,28 +14791,30 @@
       <c r="Z40" s="25"/>
       <c r="AA40" s="25"/>
     </row>
-    <row r="41" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C41" s="33" t="s">
+    <row r="41" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>188</v>
+      <c r="D41" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>219</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
@@ -14772,29 +14836,31 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
     </row>
-    <row r="42" spans="1:27" ht="204" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="29" t="s">
+    <row r="42" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="H42" s="26"/>
+      <c r="D42" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -14815,27 +14881,29 @@
       <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
     </row>
-    <row r="43" spans="1:27" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="26"/>
+    <row r="43" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A43" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -14856,24 +14924,28 @@
       <c r="Z43" s="25"/>
       <c r="AA43" s="25"/>
     </row>
-    <row r="44" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="F44" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>272</v>
+      </c>
       <c r="H44" s="26"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
@@ -14895,24 +14967,24 @@
       <c r="Z44" s="25"/>
       <c r="AA44" s="25"/>
     </row>
-    <row r="45" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="26"/>
@@ -14936,24 +15008,22 @@
       <c r="Z45" s="25"/>
       <c r="AA45" s="25"/>
     </row>
-    <row r="46" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E46" s="28"/>
       <c r="F46" s="28" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="26"/>
@@ -14977,24 +15047,24 @@
       <c r="Z46" s="25"/>
       <c r="AA46" s="25"/>
     </row>
-    <row r="47" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="26"/>
@@ -15018,24 +15088,24 @@
       <c r="Z47" s="25"/>
       <c r="AA47" s="25"/>
     </row>
-    <row r="48" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="26"/>
@@ -15064,19 +15134,19 @@
         <v>121</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G49" s="27"/>
       <c r="H49" s="26"/>
@@ -15100,24 +15170,24 @@
       <c r="Z49" s="25"/>
       <c r="AA49" s="25"/>
     </row>
-    <row r="50" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="26"/>
@@ -15141,24 +15211,24 @@
       <c r="Z50" s="25"/>
       <c r="AA50" s="25"/>
     </row>
-    <row r="51" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>121</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G51" s="27"/>
       <c r="H51" s="26"/>
@@ -15182,27 +15252,27 @@
       <c r="Z51" s="25"/>
       <c r="AA51" s="25"/>
     </row>
-    <row r="52" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+    <row r="52" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="21"/>
+      <c r="D52" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="26"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -15223,29 +15293,27 @@
       <c r="Z52" s="25"/>
       <c r="AA52" s="25"/>
     </row>
-    <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A53" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G53" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>188</v>
-      </c>
+    <row r="53" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="26"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -15266,31 +15334,27 @@
       <c r="Z53" s="25"/>
       <c r="AA53" s="25"/>
     </row>
-    <row r="54" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>222</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -15311,30 +15375,28 @@
       <c r="Z54" s="25"/>
       <c r="AA54" s="25"/>
     </row>
-    <row r="55" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>155</v>
+      <c r="D55" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>333</v>
       </c>
       <c r="H55" s="30" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
@@ -15356,28 +15418,30 @@
       <c r="Z55" s="25"/>
       <c r="AA55" s="25"/>
     </row>
-    <row r="56" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="G56" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>188</v>
+    <row r="56" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -15399,30 +15463,30 @@
       <c r="Z56" s="25"/>
       <c r="AA56" s="25"/>
     </row>
-    <row r="57" spans="1:27" ht="119" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="29" t="s">
+    <row r="57" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H57" s="26">
-        <v>486</v>
+      <c r="D57" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
@@ -15444,26 +15508,28 @@
       <c r="Z57" s="25"/>
       <c r="AA57" s="25"/>
     </row>
-    <row r="58" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="27" t="s">
-        <v>164</v>
+      <c r="F58" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>333</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
@@ -15485,28 +15551,30 @@
       <c r="Z58" s="25"/>
       <c r="AA58" s="25"/>
     </row>
-    <row r="59" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="H59" s="48" t="s">
-        <v>325</v>
+        <v>158</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="26">
+        <v>486</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
@@ -15528,27 +15596,27 @@
       <c r="Z59" s="25"/>
       <c r="AA59" s="25"/>
     </row>
-    <row r="60" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E60" s="28"/>
-      <c r="F60" s="28" t="s">
-        <v>168</v>
-      </c>
+      <c r="F60" s="28"/>
       <c r="G60" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H60" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>165</v>
+      </c>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
@@ -15569,25 +15637,29 @@
       <c r="Z60" s="25"/>
       <c r="AA60" s="25"/>
     </row>
-    <row r="61" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="26"/>
+        <v>41</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G61" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="H61" s="48" t="s">
+        <v>325</v>
+      </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
@@ -15608,24 +15680,26 @@
       <c r="Z61" s="25"/>
       <c r="AA61" s="25"/>
     </row>
-    <row r="62" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E62" s="28"/>
       <c r="F62" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="27"/>
+        <v>168</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>223</v>
+      </c>
       <c r="H62" s="26"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
@@ -15652,17 +15726,17 @@
         <v>157</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D63" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E63" s="28"/>
       <c r="F63" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="26"/>
@@ -15691,17 +15765,17 @@
         <v>157</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="26"/>
@@ -15730,17 +15804,17 @@
         <v>157</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E65" s="28"/>
       <c r="F65" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="26"/>
@@ -15769,17 +15843,17 @@
         <v>157</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E66" s="28"/>
       <c r="F66" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="26"/>
@@ -15803,26 +15877,24 @@
       <c r="Z66" s="25"/>
       <c r="AA66" s="25"/>
     </row>
-    <row r="67" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>157</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>169</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E67" s="28"/>
       <c r="F67" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="G67" s="27"/>
       <c r="H67" s="26"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
@@ -15844,89 +15916,111 @@
       <c r="Z67" s="25"/>
       <c r="AA67" s="25"/>
     </row>
-    <row r="68" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+    </row>
+    <row r="69" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+      <c r="A69" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="26"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+    </row>
+    <row r="70" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C70" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D70" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E68" s="23" t="s">
+      <c r="E70" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F70" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G70" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H68" s="21" t="s">
+      <c r="H70" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="19"/>
-      <c r="X68" s="19"/>
-      <c r="Y68" s="19"/>
-      <c r="Z68" s="19"/>
-      <c r="AA68" s="19"/>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="19"/>
-      <c r="X69" s="19"/>
-      <c r="Y69" s="19"/>
-      <c r="Z69" s="19"/>
-      <c r="AA69" s="19"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="20"/>
       <c r="I70" s="19"/>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
@@ -43216,30 +43310,84 @@
       <c r="F1011" s="19"/>
       <c r="G1011" s="19"/>
       <c r="H1011" s="20"/>
+      <c r="I1011" s="19"/>
+      <c r="J1011" s="19"/>
+      <c r="K1011" s="19"/>
+      <c r="L1011" s="19"/>
+      <c r="M1011" s="19"/>
+      <c r="N1011" s="19"/>
+      <c r="O1011" s="19"/>
+      <c r="P1011" s="19"/>
+      <c r="Q1011" s="19"/>
+      <c r="R1011" s="19"/>
+      <c r="S1011" s="19"/>
+      <c r="T1011" s="19"/>
+      <c r="U1011" s="19"/>
+      <c r="V1011" s="19"/>
+      <c r="W1011" s="19"/>
+      <c r="X1011" s="19"/>
+      <c r="Y1011" s="19"/>
+      <c r="Z1011" s="19"/>
+      <c r="AA1011" s="19"/>
     </row>
     <row r="1012" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1012" s="19"/>
       <c r="B1012" s="19"/>
+      <c r="C1012" s="19"/>
+      <c r="D1012" s="19"/>
+      <c r="E1012" s="19"/>
+      <c r="F1012" s="19"/>
+      <c r="G1012" s="19"/>
+      <c r="H1012" s="20"/>
+      <c r="I1012" s="19"/>
+      <c r="J1012" s="19"/>
+      <c r="K1012" s="19"/>
+      <c r="L1012" s="19"/>
+      <c r="M1012" s="19"/>
+      <c r="N1012" s="19"/>
+      <c r="O1012" s="19"/>
+      <c r="P1012" s="19"/>
+      <c r="Q1012" s="19"/>
+      <c r="R1012" s="19"/>
+      <c r="S1012" s="19"/>
+      <c r="T1012" s="19"/>
+      <c r="U1012" s="19"/>
+      <c r="V1012" s="19"/>
+      <c r="W1012" s="19"/>
+      <c r="X1012" s="19"/>
+      <c r="Y1012" s="19"/>
+      <c r="Z1012" s="19"/>
+      <c r="AA1012" s="19"/>
+    </row>
+    <row r="1013" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1013" s="19"/>
+      <c r="B1013" s="19"/>
+      <c r="C1013" s="19"/>
+      <c r="D1013" s="19"/>
+      <c r="E1013" s="19"/>
+      <c r="F1013" s="19"/>
+      <c r="G1013" s="19"/>
+      <c r="H1013" s="20"/>
+    </row>
+    <row r="1014" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B1014" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA68" xr:uid="{575A2C49-581A-6A45-BB35-37E08E101A4B}"/>
+  <autoFilter ref="A1:AA70" xr:uid="{575A2C49-581A-6A45-BB35-37E08E101A4B}"/>
   <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="[ needs">
       <formula>NOT(ISERROR(SEARCH(("[ needs"),(G1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="[see">
       <formula>NOT(ISERROR(SEARCH(("[see"),(G1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="[none">
       <formula>NOT(ISERROR(SEARCH(("[none"),(G1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H59" r:id="rId1" location="/sequence/view/2846870" xr:uid="{4B790C9F-30C5-074B-889B-AF01508D65E9}"/>
-    <hyperlink ref="H28" r:id="rId2" xr:uid="{2AEC0F05-091F-594E-8685-79AB31594D12}"/>
+    <hyperlink ref="H61" r:id="rId1" location="/sequence/view/2846870" xr:uid="{4B790C9F-30C5-074B-889B-AF01508D65E9}"/>
+    <hyperlink ref="H30" r:id="rId2" xr:uid="{2AEC0F05-091F-594E-8685-79AB31594D12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8169E32-E75C-D74B-A80F-4CEE27112DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9045A539-E620-B743-8693-641B1DD8B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="28000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="28000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="344">
   <si>
     <t>materialSampleID</t>
   </si>
@@ -632,15 +632,6 @@
     <t>805R</t>
   </si>
   <si>
-    <t>brackish water [ENVO_00002019]</t>
-  </si>
-  <si>
-    <t>marine biome [ENVO_00000447]</t>
-  </si>
-  <si>
-    <t>aquatic biome [ENVO_00002030]</t>
-  </si>
-  <si>
     <t>Baltic Proper</t>
   </si>
   <si>
@@ -686,9 +677,6 @@
     <t>Example: Annotating a water sample from the photic zone in middle of the Atlantic Ocean, consider: 'oceanic epipelagic zone biome [ENVO:01000033]'. Example: Annotating a sample from the Amazon rainforest consider: 'tropical moist broadleaf forest biome [ENVO:01000228]'. If needed, request new terms on the ENVO tracker, identified here: http://www.obofoundry.org/ontology/envo.htm</t>
   </si>
   <si>
-    <t>marine pelagic biome [ENVO_01000023]</t>
-  </si>
-  <si>
     <t xml:space="preserve">In this field, report which major environmental system your sample or specimen came from. The systems identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. were you in the desert or a rainforest?). </t>
   </si>
   <si>
@@ -714,15 +702,6 @@
   </si>
   <si>
     <t>Note that, for practical reasons, we currently follow GBIF in grouping prokaryote domains Archaea and Bacteria together with e.g. eukaryote kingdoms under header 'kingdom'.</t>
-  </si>
-  <si>
-    <t>Preferably, this value should correspond to environment (biome) in your ENA submission, when applicable. You can search for ENVO_00000428 in https://www.ebi.ac.uk/ols/index, then continue downwards in the biome subtree, until you find the most specific term that accurately describes your data.</t>
-  </si>
-  <si>
-    <t>Preferably, this value should correspond to environment (feature) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_01000813. Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
-  </si>
-  <si>
-    <t>Preferably, this value should correspond to environment (material) in your ENA submission, when applicable. A good starting point for searching in https://www.ebi.ac.uk/ols/index could be ENVO_00010483 . Again, continue downwards in the subtree, until you find the most specific term that accurately describes your data.</t>
   </si>
   <si>
     <t>919a2aa9d306e4cf3fa9ca02a2aa5730</t>
@@ -1080,6 +1059,24 @@
   <si>
     <t>Specify here if exact locations or coordinates have been generalized or obfuscated to e.g. protect sensitive species.</t>
   </si>
+  <si>
+    <t>Preferably, this value should correspond to 'broad-scale environmental context' in your ENA submission, when applicable. Note that we (after some initial confusion) follow GBIF recommendations in using a colon ':' (not '_') inside the ENVO termID.</t>
+  </si>
+  <si>
+    <t>Preferably, this value should correspond to 'local environmental context' in your ENA submission, when applicable. Note that we (after some initial confusion) follow GBIF recommendations in using a colon ':' (not '_') inside the ENVO termID.</t>
+  </si>
+  <si>
+    <t>Preferably, this value should correspond to 'environmental medium' in your ENA submission, when applicable. Note that we (after some initial confusion) follow GBIF recommendations in using a colon ':' (not '_') inside the ENVO termID.</t>
+  </si>
+  <si>
+    <t>marine pelagic biome [ENVO:01000023]</t>
+  </si>
+  <si>
+    <t>aquatic biome [ENVO:00002030]</t>
+  </si>
+  <si>
+    <t>marine biome [ENVO:00000447]</t>
+  </si>
 </sst>
 </file>
 
@@ -1089,11 +1086,18 @@
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1317,151 +1321,160 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1711,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
@@ -1743,22 +1756,22 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -1767,13 +1780,13 @@
         <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>1</v>
@@ -1797,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>8</v>
@@ -1829,28 +1842,28 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>191</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O2" s="4">
         <v>55.185000000000002</v>
@@ -1863,7 +1876,7 @@
       </c>
       <c r="S2" s="11"/>
       <c r="W2" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Z2" s="4">
         <v>3</v>
@@ -1877,28 +1890,28 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>190</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O3" s="4">
         <v>55.433999999999997</v>
@@ -1911,7 +1924,7 @@
       </c>
       <c r="S3" s="11"/>
       <c r="W3" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="4">
         <v>3</v>
@@ -1925,28 +1938,28 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>189</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O4" s="4">
         <v>56.031999999999996</v>
@@ -1959,7 +1972,7 @@
       </c>
       <c r="S4" s="11"/>
       <c r="W4" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Z4" s="4">
         <v>3</v>
@@ -4984,7 +4997,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AB9">
     <sortCondition ref="A3:A9"/>
   </sortState>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{693BAF2D-BDDF-0F46-A91B-2426EEB1769B}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{50F9EBAB-90C1-0945-B3A5-D73BA3A7019E}"/>
@@ -5002,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5026,7 +5039,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>16</v>
@@ -5041,7 +5054,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
@@ -5056,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>24</v>
@@ -5073,7 +5086,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>192</v>
@@ -5085,7 +5098,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>194</v>
@@ -5100,16 +5113,16 @@
         <v>117</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5117,7 +5130,7 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>192</v>
@@ -5129,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>194</v>
@@ -5144,16 +5157,16 @@
         <v>117</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5161,7 +5174,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>192</v>
@@ -5173,7 +5186,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>194</v>
@@ -5188,16 +5201,16 @@
         <v>117</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>197</v>
+        <v>343</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6174,7 +6187,7 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -6195,7 +6208,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>28</v>
@@ -6236,13 +6249,13 @@
         <v>188</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D2" s="4">
         <v>7.25</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -6252,13 +6265,13 @@
         <v>187</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D3" s="4">
         <v>7.23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,13 +6279,13 @@
         <v>186</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D4" s="4">
         <v>6.97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6280,13 +6293,13 @@
         <v>188</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D5" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6294,13 +6307,13 @@
         <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4">
         <v>17.399999999999999</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6308,13 +6321,13 @@
         <v>186</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D7" s="4">
         <v>16.899999999999999</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I7" s="10"/>
     </row>
@@ -9286,13 +9299,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12309,28 +12322,28 @@
     </row>
     <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M2" s="4">
         <v>2235</v>
@@ -12344,28 +12357,28 @@
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M3" s="4">
         <v>1033</v>
@@ -12379,22 +12392,22 @@
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M4" s="4">
         <v>795</v>
@@ -12408,28 +12421,28 @@
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M5" s="4">
         <v>134</v>
@@ -12443,28 +12456,28 @@
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="M6" s="4">
         <v>572</v>
@@ -12478,28 +12491,28 @@
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M7" s="4">
         <v>47</v>
@@ -12513,31 +12526,31 @@
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M8" s="4">
         <v>40</v>
@@ -12551,28 +12564,28 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="M9" s="4">
         <v>99</v>
@@ -12586,25 +12599,25 @@
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M10" s="4">
         <v>312</v>
@@ -12618,28 +12631,28 @@
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M11" s="4">
         <v>147</v>
@@ -13130,9 +13143,9 @@
   <dimension ref="A1:AA1014"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13154,7 +13167,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>53</v>
@@ -13199,20 +13212,20 @@
         <v>61</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>188</v>
@@ -13241,21 +13254,21 @@
         <v>61</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="26" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -13281,23 +13294,23 @@
         <v>61</v>
       </c>
       <c r="B4" s="55" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="56" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H4" s="57" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -13318,26 +13331,26 @@
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
     </row>
-    <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="26" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
@@ -13364,25 +13377,25 @@
         <v>61</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
@@ -13409,17 +13422,17 @@
         <v>61</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="26"/>
@@ -13458,13 +13471,13 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
@@ -13497,17 +13510,17 @@
         <v>59</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28" t="s">
         <v>166</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
@@ -13534,17 +13547,17 @@
         <v>61</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="26"/>
@@ -13573,17 +13586,17 @@
         <v>61</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="26"/>
@@ -13607,24 +13620,24 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="1:27" ht="187" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="26"/>
@@ -13662,13 +13675,13 @@
         <v>63</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>191</v>
@@ -13693,7 +13706,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
     </row>
-    <row r="14" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="221" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>61</v>
       </c>
@@ -13711,10 +13724,10 @@
         <v>66</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -13754,7 +13767,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>70</v>
@@ -13857,7 +13870,7 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
     </row>
-    <row r="18" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>61</v>
       </c>
@@ -13946,20 +13959,20 @@
         <v>61</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="25"/>
@@ -14002,10 +14015,10 @@
         <v>85</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
@@ -14306,23 +14319,23 @@
     </row>
     <row r="29" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>188</v>
@@ -14348,7 +14361,7 @@
     </row>
     <row r="30" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>16</v>
@@ -14367,7 +14380,7 @@
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="48" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -14391,7 +14404,7 @@
     </row>
     <row r="31" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>17</v>
@@ -14404,7 +14417,7 @@
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="37" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="26"/>
@@ -14428,9 +14441,9 @@
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
     </row>
-    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>18</v>
@@ -14469,7 +14482,7 @@
     </row>
     <row r="33" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>19</v>
@@ -14508,20 +14521,20 @@
     </row>
     <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E34" s="28"/>
       <c r="F34" s="37" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="26"/>
@@ -14547,7 +14560,7 @@
     </row>
     <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>20</v>
@@ -14586,7 +14599,7 @@
     </row>
     <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -14625,7 +14638,7 @@
     </row>
     <row r="37" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>22</v>
@@ -14664,7 +14677,7 @@
     </row>
     <row r="38" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>23</v>
@@ -14703,10 +14716,10 @@
     </row>
     <row r="39" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>59</v>
@@ -14721,10 +14734,10 @@
         <v>60</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
@@ -14748,7 +14761,7 @@
     </row>
     <row r="40" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A40" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>24</v>
@@ -14757,19 +14770,19 @@
         <v>59</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>214</v>
+        <v>210</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>341</v>
       </c>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
@@ -14793,7 +14806,7 @@
     </row>
     <row r="41" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A41" s="36" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>25</v>
@@ -14802,19 +14815,19 @@
         <v>59</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>225</v>
+        <v>214</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>339</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
@@ -14836,9 +14849,9 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
     </row>
-    <row r="42" spans="1:27" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>26</v>
@@ -14849,17 +14862,17 @@
       <c r="D42" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="60" t="s">
         <v>119</v>
       </c>
       <c r="F42" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="22" t="s">
-        <v>226</v>
+      <c r="G42" s="59" t="s">
+        <v>340</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
@@ -14883,23 +14896,23 @@
     </row>
     <row r="43" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="54" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G43" s="51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H43" s="30" t="s">
         <v>188</v>
@@ -14944,7 +14957,7 @@
         <v>124</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H44" s="26"/>
       <c r="I44" s="25"/>
@@ -15047,7 +15060,7 @@
       <c r="Z46" s="25"/>
       <c r="AA46" s="25"/>
     </row>
-    <row r="47" spans="1:27" ht="119" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="136" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>121</v>
       </c>
@@ -15293,7 +15306,7 @@
       <c r="Z52" s="25"/>
       <c r="AA52" s="25"/>
     </row>
-    <row r="53" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>121</v>
       </c>
@@ -15377,23 +15390,23 @@
     </row>
     <row r="55" spans="1:27" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E55" s="34"/>
       <c r="F55" s="34" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G55" s="51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H55" s="30" t="s">
         <v>188</v>
@@ -15420,10 +15433,10 @@
     </row>
     <row r="56" spans="1:27" ht="205" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>60</v>
@@ -15438,10 +15451,10 @@
         <v>60</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
@@ -15465,7 +15478,7 @@
     </row>
     <row r="57" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B57" s="33" t="s">
         <v>39</v>
@@ -15513,20 +15526,20 @@
         <v>157</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G58" s="51" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>188</v>
@@ -15648,17 +15661,17 @@
         <v>67</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H61" s="48" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
@@ -15698,7 +15711,7 @@
         <v>168</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H62" s="26"/>
       <c r="I62" s="25"/>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9045A539-E620-B743-8693-641B1DD8B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4FA8A-67B6-0C4B-9942-0156F4DFFD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="28000" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="28000" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -1524,6 +1524,537 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3C99F4-DBAD-CB48-A06D-1287F4E0ED1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="876300"/>
+          <a:ext cx="3314700" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>You can submit a tar.gz archive of TSV files instead of Excel. Each TSV should match an Excel tab.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2641600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923770D5-4678-034A-80D9-8270283BBFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="850900"/>
+          <a:ext cx="3314700" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>If you have sequenced multiple target genes, please submit them as separate datasets.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DDC696-724A-4140-A62C-99FC7B46AEF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="1409700"/>
+          <a:ext cx="3314700" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Fill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t> in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>EITHER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> "emof" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> "emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C237A8-B4E5-0848-A156-A6207776357F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="850900"/>
+          <a:ext cx="3314700" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Fill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t> in</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>EITHER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> "emof" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1"/>
+            <a:t>OR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t> "emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA24C4EB-246B-B544-A828-28E243C31472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88900" y="2298700"/>
+          <a:ext cx="3505200" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400"/>
+            <a:t>Ensure </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+            <a:t>event (=sample) headers match eventIDs in the other tabs, and only include ASVs that occur in at least one sample.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-GB" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1724,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5008,6 +5539,7 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5015,8 +5547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6190,6 +6722,7 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6197,7 +6730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L982"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9282,6 +9817,7 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9289,7 +9825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221FF7C6-E74E-E14F-A681-9750CC4E526F}">
   <dimension ref="A1:C973"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12251,6 +12789,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12258,8 +12797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O472"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13132,6 +13671,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13142,10 +13682,10 @@
   </sheetPr>
   <dimension ref="A1:AA1014"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13331,7 +13871,7 @@
       <c r="Z4" s="25"/>
       <c r="AA4" s="25"/>
     </row>
-    <row r="5" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>61</v>
       </c>
@@ -13620,7 +14160,7 @@
       <c r="Z11" s="25"/>
       <c r="AA11" s="25"/>
     </row>
-    <row r="12" spans="1:27" ht="204" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="187" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>61</v>
       </c>
@@ -13706,7 +14246,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
     </row>
-    <row r="14" spans="1:27" ht="221" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>61</v>
       </c>
@@ -13870,7 +14410,7 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="25"/>
     </row>
-    <row r="18" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>61</v>
       </c>
@@ -14441,7 +14981,7 @@
       <c r="Z31" s="25"/>
       <c r="AA31" s="25"/>
     </row>
-    <row r="32" spans="1:27" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
         <v>274</v>
       </c>
@@ -15060,7 +15600,7 @@
       <c r="Z46" s="25"/>
       <c r="AA46" s="25"/>
     </row>
-    <row r="47" spans="1:27" ht="136" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>121</v>
       </c>
@@ -15306,7 +15846,7 @@
       <c r="Z52" s="25"/>
       <c r="AA52" s="25"/>
     </row>
-    <row r="53" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>121</v>
       </c>

--- a/molmod/static/downloads/SBDI-ASV-template.xlsx
+++ b/molmod/static/downloads/SBDI-ASV-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maria.prager/code/github/mol-mod/molmod/static/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA4FA8A-67B6-0C4B-9942-0156F4DFFD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B03D9F-967F-BD4F-B43A-B731EC87EE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="28000" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="4360" windowWidth="28000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event" sheetId="1" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1553,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101600" y="876300"/>
-          <a:ext cx="3314700" cy="863600"/>
+          <a:ext cx="3771900" cy="1435100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,7 +1600,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>You can submit a tar.gz archive of TSV files instead of Excel. Each TSV should match an Excel tab.</a:t>
+            <a:t>Alternatively, you can submit a tar.gz archive of TSVs matching the Excel tabs. </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -1624,6 +1624,66 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Some fields are optional to fill in (see </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> tab)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, but don't edit the template structure</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> by renaming or removing tabs or fields.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -1790,20 +1850,20 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1"/>
-            <a:t>EITHER</a:t>
+            <a:rPr lang="en-GB" sz="1400" b="0"/>
+            <a:t>EITHER </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t> "emof" </a:t>
+            <a:t>"emof" </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1"/>
-            <a:t>OR</a:t>
+            <a:rPr lang="en-GB" sz="1400" b="0"/>
+            <a:t>OR </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t> "emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
+            <a:t>"emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -1841,22 +1901,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C237A8-B4E5-0848-A156-A6207776357F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354444C0-7F52-C64E-92B8-18FB99501B9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1924,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="850900"/>
+          <a:off x="165100" y="889000"/>
           <a:ext cx="3314700" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1915,20 +1975,20 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1"/>
-            <a:t>EITHER</a:t>
+            <a:rPr lang="en-GB" sz="1400" b="0"/>
+            <a:t>EITHER </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t> "emof" </a:t>
+            <a:t>"emof" </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1"/>
-            <a:t>OR</a:t>
+            <a:rPr lang="en-GB" sz="1400" b="0"/>
+            <a:t>OR </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1400"/>
-            <a:t> "emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
+            <a:t>"emof-simple" tab. Most providers should use "emof-simple" and leave "emof" blank.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike">
@@ -2255,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9826,7 +9886,7 @@
   <dimension ref="A1:C973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12797,8 +12857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O472"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
